--- a/output/AHR_2022_final.xlsx
+++ b/output/AHR_2022_final.xlsx
@@ -820,16 +820,16 @@
         <v>1.13050121360327</v>
       </c>
       <c r="G2" t="n">
-        <v>1387759000</v>
+        <v>1266049000</v>
       </c>
       <c r="H2" t="n">
-        <v>204894000</v>
+        <v>34385000</v>
       </c>
       <c r="I2" t="n">
-        <v>336541000</v>
+        <v>420120000</v>
       </c>
       <c r="J2" t="n">
-        <v>262696000</v>
+        <v>1428197000</v>
       </c>
       <c r="K2" t="n">
         <v>10.271</v>
@@ -874,28 +874,28 @@
         <v>39674.77306</v>
       </c>
       <c r="Y2" t="n">
-        <v>16164</v>
+        <v>16162</v>
       </c>
       <c r="Z2" t="n">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="AA2" t="n">
-        <v>20029767.9285071</v>
+        <v>19880130.7335377</v>
       </c>
       <c r="AB2" t="n">
-        <v>1461226.72727273</v>
+        <v>1470321.90909091</v>
       </c>
       <c r="AC2" t="n">
-        <v>46501.8753428769</v>
+        <v>42423.5423989136</v>
       </c>
       <c r="AD2" t="n">
-        <v>6865.71317246252</v>
+        <v>1152.19356074421</v>
       </c>
       <c r="AE2" t="n">
-        <v>11277.0211756992</v>
+        <v>14077.6373052161</v>
       </c>
       <c r="AF2" t="n">
-        <v>8802.57785759082</v>
+        <v>47856.8965209887</v>
       </c>
       <c r="AG2" t="n">
         <v>1.80091562470959</v>
@@ -910,10 +910,10 @@
         <v>1.03990561478518</v>
       </c>
       <c r="AK2" t="n">
-        <v>13.7075017549749</v>
+        <v>13.5209375651822</v>
       </c>
       <c r="AL2" t="n">
-        <v>3.62534026231131</v>
+        <v>3.55772800395991</v>
       </c>
       <c r="AM2" t="n">
         <v>1.34477516175366</v>
@@ -945,16 +945,16 @@
         <v>0.5344103903667</v>
       </c>
       <c r="G3" t="n">
-        <v>767574000</v>
+        <v>702933000</v>
       </c>
       <c r="H3" t="n">
-        <v>265310000</v>
+        <v>217887000</v>
       </c>
       <c r="I3" t="n">
-        <v>45613000</v>
+        <v>43674000</v>
       </c>
       <c r="J3" t="n">
-        <v>80239000</v>
+        <v>92457000</v>
       </c>
       <c r="K3" t="n">
         <v>93.104</v>
@@ -999,28 +999,28 @@
         <v>2756.95203</v>
       </c>
       <c r="Y3" t="n">
-        <v>1632</v>
+        <v>1626</v>
       </c>
       <c r="Z3" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AA3" t="n">
-        <v>2070641.06603842</v>
+        <v>1894550.59451522</v>
       </c>
       <c r="AB3" t="n">
-        <v>201917.818181818</v>
+        <v>187845.363636364</v>
       </c>
       <c r="AC3" t="n">
-        <v>64728.4521626115</v>
+        <v>59277.366174494</v>
       </c>
       <c r="AD3" t="n">
-        <v>22373.2247877891</v>
+        <v>18374.1088889865</v>
       </c>
       <c r="AE3" t="n">
-        <v>3846.48110604737</v>
+        <v>3682.96792198524</v>
       </c>
       <c r="AF3" t="n">
-        <v>6766.44372148586</v>
+        <v>7796.77073689127</v>
       </c>
       <c r="AG3" t="n">
         <v>9.30262300716601</v>
@@ -1035,10 +1035,10 @@
         <v>6.70297596199112</v>
       </c>
       <c r="AK3" t="n">
-        <v>10.2548704452318</v>
+        <v>10.0856926028941</v>
       </c>
       <c r="AL3" t="n">
-        <v>8.21078431372549</v>
+        <v>7.74907749077491</v>
       </c>
       <c r="AM3" t="n">
         <v>1.5202077505181</v>
@@ -1070,16 +1070,16 @@
         <v>1.05691683073058</v>
       </c>
       <c r="G4" t="n">
-        <v>1375627000</v>
+        <v>907115000</v>
       </c>
       <c r="H4" t="n">
-        <v>161453000</v>
+        <v>150046000</v>
       </c>
       <c r="I4" t="n">
-        <v>224330000</v>
+        <v>269525000</v>
       </c>
       <c r="J4" t="n">
-        <v>395689000</v>
+        <v>457728000</v>
       </c>
       <c r="K4" t="n">
         <v>30.556</v>
@@ -1124,28 +1124,28 @@
         <v>37707.91279</v>
       </c>
       <c r="Y4" t="n">
-        <v>8467</v>
+        <v>8497</v>
       </c>
       <c r="Z4" t="n">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="AA4" t="n">
-        <v>59853781.2308651</v>
+        <v>53779207.2314926</v>
       </c>
       <c r="AB4" t="n">
-        <v>2540442</v>
+        <v>2304383.63636364</v>
       </c>
       <c r="AC4" t="n">
-        <v>68608.3403481441</v>
+        <v>45241.66409565</v>
       </c>
       <c r="AD4" t="n">
-        <v>8052.34440311866</v>
+        <v>7483.4290369974</v>
       </c>
       <c r="AE4" t="n">
-        <v>11188.2864979381</v>
+        <v>13442.3524199027</v>
       </c>
       <c r="AF4" t="n">
-        <v>19734.6850447227</v>
+        <v>22828.8325330015</v>
       </c>
       <c r="AG4" t="n">
         <v>3.36764979792558</v>
@@ -1160,10 +1160,10 @@
         <v>7.05295961266679</v>
       </c>
       <c r="AK4" t="n">
-        <v>23.5603809222431</v>
+        <v>23.3377838580547</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.38183536081257</v>
+        <v>1.25926797693304</v>
       </c>
       <c r="AM4" t="n">
         <v>1.40321458715875</v>
@@ -1195,16 +1195,16 @@
         <v>0.663955152159419</v>
       </c>
       <c r="G5" t="n">
-        <v>919783000</v>
+        <v>1400824000</v>
       </c>
       <c r="H5" t="n">
-        <v>207470000</v>
+        <v>221948000</v>
       </c>
       <c r="I5" t="n">
-        <v>39207000</v>
+        <v>41327000</v>
       </c>
       <c r="J5" t="n">
-        <v>180207000</v>
+        <v>303089000</v>
       </c>
       <c r="K5" t="n">
         <v>13.2</v>
@@ -1249,28 +1249,28 @@
         <v>18836.07068</v>
       </c>
       <c r="Y5" t="n">
-        <v>12941</v>
+        <v>12955</v>
       </c>
       <c r="Z5" t="n">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AA5" t="n">
-        <v>4977707.91144834</v>
+        <v>5036025.60232504</v>
       </c>
       <c r="AB5" t="n">
-        <v>740540</v>
+        <v>714363.636363636</v>
       </c>
       <c r="AC5" t="n">
-        <v>24103.5851718859</v>
+        <v>36709.6158494143</v>
       </c>
       <c r="AD5" t="n">
-        <v>5436.90285166301</v>
+        <v>5816.30941399192</v>
       </c>
       <c r="AE5" t="n">
-        <v>1027.44806528728</v>
+        <v>1083.00421338351</v>
       </c>
       <c r="AF5" t="n">
-        <v>4722.4560282915</v>
+        <v>7942.66857091479</v>
       </c>
       <c r="AG5" t="n">
         <v>2.96514605590648</v>
@@ -1285,10 +1285,10 @@
         <v>10.382984094517</v>
       </c>
       <c r="AK5" t="n">
-        <v>6.72172726854503</v>
+        <v>7.04966678869629</v>
       </c>
       <c r="AL5" t="n">
-        <v>5.2468897303145</v>
+        <v>5.20262446931687</v>
       </c>
       <c r="AM5" t="n">
         <v>0.878394887438766</v>
@@ -1320,16 +1320,16 @@
         <v>1.69790684445926</v>
       </c>
       <c r="G6" t="n">
-        <v>4513968000</v>
+        <v>5487338000</v>
       </c>
       <c r="H6" t="n">
-        <v>2331366000</v>
+        <v>2253779000</v>
       </c>
       <c r="I6" t="n">
-        <v>580307000</v>
+        <v>677815000</v>
       </c>
       <c r="J6" t="n">
-        <v>3364186000</v>
+        <v>3213724000</v>
       </c>
       <c r="K6" t="n">
         <v>59.154</v>
@@ -1374,28 +1374,28 @@
         <v>101676.42693</v>
       </c>
       <c r="Y6" t="n">
-        <v>25737</v>
+        <v>25810</v>
       </c>
       <c r="Z6" t="n">
-        <v>1493</v>
+        <v>1547</v>
       </c>
       <c r="AA6" t="n">
-        <v>879570382.720683</v>
+        <v>772222108.868612</v>
       </c>
       <c r="AB6" t="n">
-        <v>14341421.8181818</v>
+        <v>12769385.7272727</v>
       </c>
       <c r="AC6" t="n">
-        <v>86780.0499440607</v>
+        <v>105492.875824539</v>
       </c>
       <c r="AD6" t="n">
-        <v>44820.0026933919</v>
+        <v>43328.4095462961</v>
       </c>
       <c r="AE6" t="n">
-        <v>11156.2754638243</v>
+        <v>13030.8454895634</v>
       </c>
       <c r="AF6" t="n">
-        <v>64675.7418530902</v>
+        <v>61783.142730836</v>
       </c>
       <c r="AG6" t="n">
         <v>4.89340299722381</v>
@@ -1410,10 +1410,10 @@
         <v>31.1670320727528</v>
       </c>
       <c r="AK6" t="n">
-        <v>61.3307657965669</v>
+        <v>60.4744915191423</v>
       </c>
       <c r="AL6" t="n">
-        <v>5.8009869060108</v>
+        <v>5.9938008523828</v>
       </c>
       <c r="AM6" t="n">
         <v>1.3963946271597</v>
@@ -1445,16 +1445,16 @@
         <v>0.920136539922376</v>
       </c>
       <c r="G7" t="n">
-        <v>1051281000</v>
+        <v>1392181000</v>
       </c>
       <c r="H7" t="n">
-        <v>534394000</v>
+        <v>611031000</v>
       </c>
       <c r="I7" t="n">
-        <v>222838000</v>
+        <v>147662000</v>
       </c>
       <c r="J7" t="n">
-        <v>133271000</v>
+        <v>266011000</v>
       </c>
       <c r="K7" t="n">
         <v>46.06</v>
@@ -1499,28 +1499,28 @@
         <v>19483.36215</v>
       </c>
       <c r="Y7" t="n">
-        <v>8869</v>
+        <v>8917</v>
       </c>
       <c r="Z7" t="n">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="AA7" t="n">
-        <v>77126499.7499457</v>
+        <v>68190094.9881092</v>
       </c>
       <c r="AB7" t="n">
-        <v>2093025.18181818</v>
+        <v>1883450.90909091</v>
       </c>
       <c r="AC7" t="n">
-        <v>45339.7932385256</v>
+        <v>60042.1758698234</v>
       </c>
       <c r="AD7" t="n">
-        <v>23047.4187851856</v>
+        <v>26352.6299841142</v>
       </c>
       <c r="AE7" t="n">
-        <v>9610.58826868037</v>
+        <v>6368.38728102873</v>
       </c>
       <c r="AF7" t="n">
-        <v>5747.73023072951</v>
+        <v>11472.5594195781</v>
       </c>
       <c r="AG7" t="n">
         <v>7.10669766910808</v>
@@ -1535,10 +1535,10 @@
         <v>12.0836544846142</v>
       </c>
       <c r="AK7" t="n">
-        <v>36.8492937495128</v>
+        <v>36.2048698264308</v>
       </c>
       <c r="AL7" t="n">
-        <v>5.28808208366219</v>
+        <v>5.06896938432208</v>
       </c>
       <c r="AM7" t="n">
         <v>1.15487298968927</v>
@@ -1570,16 +1570,16 @@
         <v>2.65310471469918</v>
       </c>
       <c r="G8" t="n">
-        <v>928035000</v>
+        <v>1023676000</v>
       </c>
       <c r="H8" t="n">
-        <v>266426000</v>
+        <v>284943000</v>
       </c>
       <c r="I8" t="n">
-        <v>79535000</v>
+        <v>81358000</v>
       </c>
       <c r="J8" t="n">
-        <v>749247000</v>
+        <v>925761000</v>
       </c>
       <c r="K8" t="n">
         <v>0.11</v>
@@ -1624,28 +1624,28 @@
         <v>11428.72158</v>
       </c>
       <c r="Y8" t="n">
-        <v>4361</v>
+        <v>4353</v>
       </c>
       <c r="Z8" t="n">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AA8" t="n">
-        <v>39285399.1818182</v>
+        <v>35306173.1818182</v>
       </c>
       <c r="AB8" t="n">
-        <v>1340425.72727273</v>
+        <v>1202427</v>
       </c>
       <c r="AC8" t="n">
-        <v>94454.758080768</v>
+        <v>104189.032669122</v>
       </c>
       <c r="AD8" t="n">
-        <v>27116.6533335776</v>
+        <v>29001.3007395284</v>
       </c>
       <c r="AE8" t="n">
-        <v>8095.01708874545</v>
+        <v>8280.56076326337</v>
       </c>
       <c r="AF8" t="n">
-        <v>76257.8395510311</v>
+        <v>94223.3119393232</v>
       </c>
       <c r="AG8" t="n">
         <v>0.382741823242867</v>
@@ -1660,10 +1660,10 @@
         <v>9.45540580506147</v>
       </c>
       <c r="AK8" t="n">
-        <v>29.3081506737039</v>
+        <v>29.3624254793166</v>
       </c>
       <c r="AL8" t="n">
-        <v>5.29695024077047</v>
+        <v>5.16884906960717</v>
       </c>
       <c r="AM8" t="n">
         <v>1.19911613834652</v>
@@ -1695,16 +1695,16 @@
         <v>1.89874569858021</v>
       </c>
       <c r="G9" t="n">
-        <v>591785000</v>
+        <v>499530000</v>
       </c>
       <c r="H9" t="n">
-        <v>450218000</v>
+        <v>610259000</v>
       </c>
       <c r="I9" t="n">
-        <v>357476000</v>
+        <v>348434000</v>
       </c>
       <c r="J9" t="n">
-        <v>380895000</v>
+        <v>252623000</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1749,28 +1749,28 @@
         <v>4471.37034</v>
       </c>
       <c r="Y9" t="n">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="Z9" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA9" t="n">
-        <v>495563.090909091</v>
+        <v>514673.090909091</v>
       </c>
       <c r="AB9" t="n">
-        <v>70794.7272727273</v>
+        <v>73524.7272727273</v>
       </c>
       <c r="AC9" t="n">
-        <v>49170.4866572444</v>
+        <v>41505.1635304939</v>
       </c>
       <c r="AD9" t="n">
-        <v>37407.9068611933</v>
+        <v>50705.4623164888</v>
       </c>
       <c r="AE9" t="n">
-        <v>29702.1196689425</v>
+        <v>28950.8340832064</v>
       </c>
       <c r="AF9" t="n">
-        <v>31647.9676154534</v>
+        <v>20990.0484987167</v>
       </c>
       <c r="AG9" t="e">
         <v>#NUM!</v>
@@ -1788,7 +1788,7 @@
         <v>7</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.94285714285714</v>
+        <v>1.60550458715596</v>
       </c>
       <c r="AM9" t="n">
         <v>1.14298194141286</v>
@@ -1820,16 +1820,16 @@
         <v>2.28709198156569</v>
       </c>
       <c r="G10" t="n">
-        <v>6509736000</v>
+        <v>6504653000</v>
       </c>
       <c r="H10" t="n">
-        <v>1495838000</v>
+        <v>1437379000</v>
       </c>
       <c r="I10" t="n">
-        <v>450415000</v>
+        <v>453911000</v>
       </c>
       <c r="J10" t="n">
-        <v>2430777000</v>
+        <v>2590205000</v>
       </c>
       <c r="K10" t="n">
         <v>1.69</v>
@@ -1874,28 +1874,28 @@
         <v>108973.50431</v>
       </c>
       <c r="Y10" t="n">
-        <v>12680</v>
+        <v>12740</v>
       </c>
       <c r="Z10" t="n">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AA10" t="n">
-        <v>365072141.905626</v>
+        <v>334117083.425608</v>
       </c>
       <c r="AB10" t="n">
-        <v>7898731.81818182</v>
+        <v>7451321.72727273</v>
       </c>
       <c r="AC10" t="n">
-        <v>143263.903715006</v>
+        <v>143152.038898586</v>
       </c>
       <c r="AD10" t="n">
-        <v>32919.8589935516</v>
+        <v>31633.314570356</v>
       </c>
       <c r="AE10" t="n">
-        <v>9912.56960217654</v>
+        <v>9989.50829944286</v>
       </c>
       <c r="AF10" t="n">
-        <v>53495.6566718912</v>
+        <v>57004.2901466551</v>
       </c>
       <c r="AG10" t="n">
         <v>0.236473770301413</v>
@@ -1910,10 +1910,10 @@
         <v>2.63744548305532</v>
       </c>
       <c r="AK10" t="n">
-        <v>46.2190830514436</v>
+        <v>44.8399754640442</v>
       </c>
       <c r="AL10" t="n">
-        <v>3.6198738170347</v>
+        <v>3.57142857142857</v>
       </c>
       <c r="AM10" t="n">
         <v>1.53233735121767</v>
@@ -1945,16 +1945,16 @@
         <v>1.36424016767397</v>
       </c>
       <c r="G11" t="n">
-        <v>1564658000</v>
+        <v>1803146000</v>
       </c>
       <c r="H11" t="n">
-        <v>616874000</v>
+        <v>645070000</v>
       </c>
       <c r="I11" t="n">
-        <v>484060000</v>
+        <v>383884000</v>
       </c>
       <c r="J11" t="n">
-        <v>641050000</v>
+        <v>1209041000</v>
       </c>
       <c r="K11" t="n">
         <v>3.187</v>
@@ -1999,28 +1999,28 @@
         <v>67490.65022</v>
       </c>
       <c r="Y11" t="n">
-        <v>14987</v>
+        <v>15034</v>
       </c>
       <c r="Z11" t="n">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="AA11" t="n">
-        <v>189028691.200255</v>
+        <v>174910625.727914</v>
       </c>
       <c r="AB11" t="n">
-        <v>3438968.98092224</v>
+        <v>3229175.94632744</v>
       </c>
       <c r="AC11" t="n">
-        <v>31564.7494169332</v>
+        <v>36375.9055666768</v>
       </c>
       <c r="AD11" t="n">
-        <v>12444.5554439508</v>
+        <v>13013.3696350136</v>
       </c>
       <c r="AE11" t="n">
-        <v>9765.22192246528</v>
+        <v>7744.3136232774</v>
       </c>
       <c r="AF11" t="n">
-        <v>12932.2718534817</v>
+        <v>24390.6823087207</v>
       </c>
       <c r="AG11" t="n">
         <v>0.592105140929198</v>
@@ -2035,10 +2035,10 @@
         <v>1.99585467919716</v>
       </c>
       <c r="AK11" t="n">
-        <v>54.9666752590373</v>
+        <v>54.165715537068</v>
       </c>
       <c r="AL11" t="n">
-        <v>2.12851137652632</v>
+        <v>1.94891579087402</v>
       </c>
       <c r="AM11" t="n">
         <v>1.23346203358423</v>
@@ -2070,16 +2070,16 @@
         <v>2.19986805622783</v>
       </c>
       <c r="G12" t="n">
-        <v>243071000</v>
+        <v>223540000</v>
       </c>
       <c r="H12" t="n">
-        <v>60106000</v>
+        <v>47198000</v>
       </c>
       <c r="I12" t="n">
-        <v>18764000</v>
+        <v>25043000</v>
       </c>
       <c r="J12" t="n">
-        <v>63018000</v>
+        <v>92992000</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -2124,28 +2124,28 @@
         <v>5637.18732</v>
       </c>
       <c r="Y12" t="n">
-        <v>1162</v>
+        <v>1177</v>
       </c>
       <c r="Z12" t="n">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="n">
-        <v>6329325.64138982</v>
+        <v>6048504.60432649</v>
       </c>
       <c r="AB12" t="n">
-        <v>430029.636363636</v>
+        <v>404433.727272727</v>
       </c>
       <c r="AC12" t="n">
-        <v>97580.7445524299</v>
+        <v>89740.033312284</v>
       </c>
       <c r="AD12" t="n">
-        <v>24129.526895715</v>
+        <v>18947.6160520407</v>
       </c>
       <c r="AE12" t="n">
-        <v>7532.79943218975</v>
+        <v>10053.5011820682</v>
       </c>
       <c r="AF12" t="n">
-        <v>25298.547997108</v>
+        <v>37331.5969301955</v>
       </c>
       <c r="AG12" t="e">
         <v>#NUM!</v>
@@ -2160,10 +2160,10 @@
         <v>14.2191299395656</v>
       </c>
       <c r="AK12" t="n">
-        <v>14.7183475420696</v>
+        <v>14.955490099983</v>
       </c>
       <c r="AL12" t="n">
-        <v>7.48709122203098</v>
+        <v>6.28717077315208</v>
       </c>
       <c r="AM12" t="n">
         <v>2.1749091788997</v>
@@ -2195,16 +2195,16 @@
         <v>0.407321357473971</v>
       </c>
       <c r="G13" t="n">
-        <v>602942000</v>
+        <v>726996000</v>
       </c>
       <c r="H13" t="n">
-        <v>112824000</v>
+        <v>123728000</v>
       </c>
       <c r="I13" t="n">
-        <v>32451000</v>
+        <v>37044000</v>
       </c>
       <c r="J13" t="n">
-        <v>95071000</v>
+        <v>120579000</v>
       </c>
       <c r="K13" t="n">
         <v>5.622</v>
@@ -2249,28 +2249,28 @@
         <v>9004.89149</v>
       </c>
       <c r="Y13" t="n">
-        <v>4561</v>
+        <v>4579</v>
       </c>
       <c r="Z13" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AA13" t="n">
-        <v>3966882.61245471</v>
+        <v>3874989.32923304</v>
       </c>
       <c r="AB13" t="n">
-        <v>531998.909090909</v>
+        <v>524954.454545454</v>
       </c>
       <c r="AC13" t="n">
-        <v>49328.3539901028</v>
+        <v>59477.5551170573</v>
       </c>
       <c r="AD13" t="n">
-        <v>9230.44374181821</v>
+        <v>10122.5301645721</v>
       </c>
       <c r="AE13" t="n">
-        <v>2654.90613580216</v>
+        <v>3030.67217942914</v>
       </c>
       <c r="AF13" t="n">
-        <v>7778.02167072962</v>
+        <v>9864.90175800094</v>
       </c>
       <c r="AG13" t="n">
         <v>1.08973340104593</v>
@@ -2285,10 +2285,10 @@
         <v>4.88902994717871</v>
       </c>
       <c r="AK13" t="n">
-        <v>7.45656155429606</v>
+        <v>7.38157243105652</v>
       </c>
       <c r="AL13" t="n">
-        <v>5.21815391361543</v>
+        <v>5.11028608866565</v>
       </c>
       <c r="AM13" t="n">
         <v>1.46229424904892</v>
@@ -2320,16 +2320,16 @@
         <v>1.5379387571022</v>
       </c>
       <c r="G14" t="n">
-        <v>3146026000</v>
+        <v>4153116000</v>
       </c>
       <c r="H14" t="n">
-        <v>928708000</v>
+        <v>817198000</v>
       </c>
       <c r="I14" t="n">
-        <v>179114000</v>
+        <v>378443000</v>
       </c>
       <c r="J14" t="n">
-        <v>953114000</v>
+        <v>1369206000</v>
       </c>
       <c r="K14" t="n">
         <v>19.13</v>
@@ -2374,28 +2374,28 @@
         <v>45758.84587</v>
       </c>
       <c r="Y14" t="n">
-        <v>26846</v>
+        <v>26873</v>
       </c>
       <c r="Z14" t="n">
-        <v>2405</v>
+        <v>2423</v>
       </c>
       <c r="AA14" t="n">
-        <v>287116246.051564</v>
+        <v>263321014.248147</v>
       </c>
       <c r="AB14" t="n">
-        <v>4130963.09090909</v>
+        <v>3792609.81818182</v>
       </c>
       <c r="AC14" t="n">
-        <v>74528.3738498064</v>
+        <v>98386.0215680394</v>
       </c>
       <c r="AD14" t="n">
-        <v>22000.8026066237</v>
+        <v>19359.1655165323</v>
       </c>
       <c r="AE14" t="n">
-        <v>4243.15474625265</v>
+        <v>8965.19653201922</v>
       </c>
       <c r="AF14" t="n">
-        <v>22578.9731278395</v>
+        <v>32436.0627170272</v>
       </c>
       <c r="AG14" t="n">
         <v>1.53399568588772</v>
@@ -2410,10 +2410,10 @@
         <v>11.5517922625278</v>
       </c>
       <c r="AK14" t="n">
-        <v>69.5034643818082</v>
+        <v>69.4300302092198</v>
       </c>
       <c r="AL14" t="n">
-        <v>8.95850406019519</v>
+        <v>9.01648494771704</v>
       </c>
       <c r="AM14" t="n">
         <v>0.805643981634646</v>
@@ -2445,16 +2445,16 @@
         <v>0.979922038641667</v>
       </c>
       <c r="G15" t="n">
-        <v>1554090000</v>
+        <v>1997211000</v>
       </c>
       <c r="H15" t="n">
-        <v>919218000</v>
+        <v>1024810000</v>
       </c>
       <c r="I15" t="n">
-        <v>106962000</v>
+        <v>133564000</v>
       </c>
       <c r="J15" t="n">
-        <v>126147000</v>
+        <v>289527000</v>
       </c>
       <c r="K15" t="n">
         <v>15.129</v>
@@ -2499,28 +2499,28 @@
         <v>57392.75647</v>
       </c>
       <c r="Y15" t="n">
-        <v>19337</v>
+        <v>19367</v>
       </c>
       <c r="Z15" t="n">
-        <v>1082</v>
+        <v>1040</v>
       </c>
       <c r="AA15" t="n">
-        <v>27639995.7800215</v>
+        <v>25992769.5600177</v>
       </c>
       <c r="AB15" t="n">
-        <v>1785508.63636364</v>
+        <v>1685750.90909091</v>
       </c>
       <c r="AC15" t="n">
-        <v>54346.8415997413</v>
+        <v>69842.8725866976</v>
       </c>
       <c r="AD15" t="n">
-        <v>32145.2393629912</v>
+        <v>35837.8129579567</v>
       </c>
       <c r="AE15" t="n">
-        <v>3740.48277203478</v>
+        <v>4670.76009203318</v>
       </c>
       <c r="AF15" t="n">
-        <v>4411.38610201633</v>
+        <v>10124.8177440485</v>
       </c>
       <c r="AG15" t="n">
         <v>1.86368687005561</v>
@@ -2535,10 +2535,10 @@
         <v>2.02884896237773</v>
       </c>
       <c r="AK15" t="n">
-        <v>15.4801803906774</v>
+        <v>15.4191045781699</v>
       </c>
       <c r="AL15" t="n">
-        <v>5.59549051042044</v>
+        <v>5.3699592089637</v>
       </c>
       <c r="AM15" t="n">
         <v>0.784452680120553</v>
@@ -2570,16 +2570,16 @@
         <v>0.589911116077713</v>
       </c>
       <c r="G16" t="n">
-        <v>1011405000</v>
+        <v>1207421000</v>
       </c>
       <c r="H16" t="n">
-        <v>227049000</v>
+        <v>230182000</v>
       </c>
       <c r="I16" t="n">
-        <v>68947000</v>
+        <v>130463000</v>
       </c>
       <c r="J16" t="n">
-        <v>145376000</v>
+        <v>148249000</v>
       </c>
       <c r="K16" t="n">
         <v>9.347</v>
@@ -2624,28 +2624,28 @@
         <v>14314.68906</v>
       </c>
       <c r="Y16" t="n">
-        <v>23870</v>
+        <v>23835</v>
       </c>
       <c r="Z16" t="n">
-        <v>4504</v>
+        <v>4604</v>
       </c>
       <c r="AA16" t="n">
-        <v>6179274.61737223</v>
+        <v>5827512.05132735</v>
       </c>
       <c r="AB16" t="n">
-        <v>895035.363636364</v>
+        <v>850575</v>
       </c>
       <c r="AC16" t="n">
-        <v>43724.8947326418</v>
+        <v>52199.0262288412</v>
       </c>
       <c r="AD16" t="n">
-        <v>9815.7450518354</v>
+        <v>9951.19039291773</v>
       </c>
       <c r="AE16" t="n">
-        <v>2980.70537235969</v>
+        <v>5640.15497402588</v>
       </c>
       <c r="AF16" t="n">
-        <v>6284.87133903089</v>
+        <v>6409.07640284497</v>
       </c>
       <c r="AG16" t="n">
         <v>1.52858888040309</v>
@@ -2660,10 +2660,10 @@
         <v>9.0414700332939</v>
       </c>
       <c r="AK16" t="n">
-        <v>6.90394465785908</v>
+        <v>6.85126185383694</v>
       </c>
       <c r="AL16" t="n">
-        <v>18.8688730624215</v>
+        <v>19.3161317390392</v>
       </c>
       <c r="AM16" t="n">
         <v>0.740596157654175</v>
@@ -2695,16 +2695,16 @@
         <v>0.445402264607792</v>
       </c>
       <c r="G17" t="n">
-        <v>445765000</v>
+        <v>1036860000</v>
       </c>
       <c r="H17" t="n">
-        <v>191848000</v>
+        <v>199028000</v>
       </c>
       <c r="I17" t="n">
-        <v>80775000</v>
+        <v>131228000</v>
       </c>
       <c r="J17" t="n">
-        <v>488543000</v>
+        <v>445599000</v>
       </c>
       <c r="K17" t="n">
         <v>3.95</v>
@@ -2749,28 +2749,28 @@
         <v>15907.0897</v>
       </c>
       <c r="Y17" t="n">
-        <v>24925</v>
+        <v>24931</v>
       </c>
       <c r="Z17" t="n">
-        <v>1277</v>
+        <v>1294</v>
       </c>
       <c r="AA17" t="n">
-        <v>910355.102156715</v>
+        <v>778798.430609503</v>
       </c>
       <c r="AB17" t="n">
-        <v>486904.909090909</v>
+        <v>445881.090909091</v>
       </c>
       <c r="AC17" t="n">
-        <v>18535.4659580335</v>
+        <v>43113.9349954496</v>
       </c>
       <c r="AD17" t="n">
-        <v>7977.27967228653</v>
+        <v>8275.83304812061</v>
       </c>
       <c r="AE17" t="n">
-        <v>3358.72547813344</v>
+        <v>5456.62429024444</v>
       </c>
       <c r="AF17" t="n">
-        <v>20314.2286755029</v>
+        <v>18528.5634705142</v>
       </c>
       <c r="AG17" t="n">
         <v>0.617968650997902</v>
@@ -2785,10 +2785,10 @@
         <v>7.64491270533379</v>
       </c>
       <c r="AK17" t="n">
-        <v>1.86967739523601</v>
+        <v>1.74665050052165</v>
       </c>
       <c r="AL17" t="n">
-        <v>5.12337011033099</v>
+        <v>5.19032529782199</v>
       </c>
       <c r="AM17" t="n">
         <v>1.15036794722503</v>
@@ -2820,16 +2820,16 @@
         <v>0.523759879561358</v>
       </c>
       <c r="G18" t="n">
-        <v>1293161000</v>
+        <v>1516610000</v>
       </c>
       <c r="H18" t="n">
-        <v>486934000</v>
+        <v>520457000</v>
       </c>
       <c r="I18" t="n">
-        <v>34405000</v>
+        <v>39760000</v>
       </c>
       <c r="J18" t="n">
-        <v>438581000</v>
+        <v>534263000</v>
       </c>
       <c r="K18" t="n">
         <v>8.418</v>
@@ -2874,28 +2874,28 @@
         <v>22381.16617</v>
       </c>
       <c r="Y18" t="n">
-        <v>14410</v>
+        <v>14482</v>
       </c>
       <c r="Z18" t="n">
-        <v>990</v>
+        <v>1013</v>
       </c>
       <c r="AA18" t="n">
-        <v>16833403.5446896</v>
+        <v>16247698.8510912</v>
       </c>
       <c r="AB18" t="n">
-        <v>922091.909090909</v>
+        <v>880362</v>
       </c>
       <c r="AC18" t="n">
-        <v>20717.0859146097</v>
+        <v>24296.8506388271</v>
       </c>
       <c r="AD18" t="n">
-        <v>7800.9261899675</v>
+        <v>8337.9814144256</v>
       </c>
       <c r="AE18" t="n">
-        <v>551.185305535929</v>
+        <v>636.975083508459</v>
       </c>
       <c r="AF18" t="n">
-        <v>7026.28694920079</v>
+        <v>8559.16043864386</v>
       </c>
       <c r="AG18" t="n">
         <v>1.18580916896161</v>
@@ -2910,10 +2910,10 @@
         <v>5.91573121361177</v>
       </c>
       <c r="AK18" t="n">
-        <v>18.2556677688298</v>
+        <v>18.4557021442216</v>
       </c>
       <c r="AL18" t="n">
-        <v>6.87022900763359</v>
+        <v>6.99489020853473</v>
       </c>
       <c r="AM18" t="n">
         <v>1.10248286704691</v>
@@ -2945,16 +2945,16 @@
         <v>0.996563401462978</v>
       </c>
       <c r="G19" t="n">
-        <v>886746000</v>
+        <v>1190251000</v>
       </c>
       <c r="H19" t="n">
-        <v>433915000</v>
+        <v>476902000</v>
       </c>
       <c r="I19" t="n">
-        <v>53776000</v>
+        <v>54472000</v>
       </c>
       <c r="J19" t="n">
-        <v>257447000</v>
+        <v>1575525000</v>
       </c>
       <c r="K19" t="n">
         <v>23.54</v>
@@ -2999,28 +2999,28 @@
         <v>26099.31433</v>
       </c>
       <c r="Y19" t="n">
-        <v>12782</v>
+        <v>12733</v>
       </c>
       <c r="Z19" t="n">
-        <v>1631</v>
+        <v>1571</v>
       </c>
       <c r="AA19" t="n">
-        <v>53132915.8486046</v>
+        <v>49225323.3999895</v>
       </c>
       <c r="AB19" t="n">
-        <v>1508478</v>
+        <v>1437957.54545455</v>
       </c>
       <c r="AC19" t="n">
-        <v>22143.8660315408</v>
+        <v>29723.0082660734</v>
       </c>
       <c r="AD19" t="n">
-        <v>10835.7473606603</v>
+        <v>11909.2209022357</v>
       </c>
       <c r="AE19" t="n">
-        <v>1342.89699610953</v>
+        <v>1360.27754336653</v>
       </c>
       <c r="AF19" t="n">
-        <v>6428.9795253907</v>
+        <v>39344.0901107458</v>
       </c>
       <c r="AG19" t="n">
         <v>4.46498006502103</v>
@@ -3035,10 +3035,10 @@
         <v>17.4987659068117</v>
       </c>
       <c r="AK19" t="n">
-        <v>35.2228642702145</v>
+        <v>34.2328071893312</v>
       </c>
       <c r="AL19" t="n">
-        <v>12.7601314348302</v>
+        <v>12.3380193198775</v>
       </c>
       <c r="AM19" t="n">
         <v>0.95681855533985</v>
@@ -3070,16 +3070,16 @@
         <v>0.482410625530586</v>
       </c>
       <c r="G20" t="n">
-        <v>486290000</v>
+        <v>533693000</v>
       </c>
       <c r="H20" t="n">
-        <v>251308000</v>
+        <v>237940000</v>
       </c>
       <c r="I20" t="n">
-        <v>22799000</v>
+        <v>46289000</v>
       </c>
       <c r="J20" t="n">
-        <v>99599000</v>
+        <v>109277000</v>
       </c>
       <c r="K20" t="n">
         <v>0.34</v>
@@ -3124,28 +3124,28 @@
         <v>8647.57925</v>
       </c>
       <c r="Y20" t="n">
-        <v>2485</v>
+        <v>2505</v>
       </c>
       <c r="Z20" t="n">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="AA20" t="n">
-        <v>2285702.47390176</v>
+        <v>2056804.0520856</v>
       </c>
       <c r="AB20" t="n">
-        <v>345018.181818182</v>
+        <v>310402.909090909</v>
       </c>
       <c r="AC20" t="n">
-        <v>27859.7635669756</v>
+        <v>30575.5018555798</v>
       </c>
       <c r="AD20" t="n">
-        <v>14397.543569659</v>
+        <v>13631.6850914602</v>
       </c>
       <c r="AE20" t="n">
-        <v>1306.16453055476</v>
+        <v>2651.91674875431</v>
       </c>
       <c r="AF20" t="n">
-        <v>5706.0696117691</v>
+        <v>6260.526400519</v>
       </c>
       <c r="AG20" t="n">
         <v>0.121741621311945</v>
@@ -3160,10 +3160,10 @@
         <v>9.47274075905551</v>
       </c>
       <c r="AK20" t="n">
-        <v>6.62487542498928</v>
+        <v>6.62623961260369</v>
       </c>
       <c r="AL20" t="n">
-        <v>12.635814889336</v>
+        <v>14.1716566866267</v>
       </c>
       <c r="AM20" t="n">
         <v>0.706603340707034</v>
@@ -3195,16 +3195,16 @@
         <v>2.08933202563392</v>
       </c>
       <c r="G21" t="n">
-        <v>1520245000</v>
+        <v>1239236000</v>
       </c>
       <c r="H21" t="n">
-        <v>420904000</v>
+        <v>499750000</v>
       </c>
       <c r="I21" t="n">
-        <v>118806000</v>
+        <v>136140000</v>
       </c>
       <c r="J21" t="n">
-        <v>1128698000</v>
+        <v>1504018000</v>
       </c>
       <c r="K21" t="n">
         <v>1.749</v>
@@ -3249,28 +3249,28 @@
         <v>20917.27191</v>
       </c>
       <c r="Y21" t="n">
-        <v>5446</v>
+        <v>5456</v>
       </c>
       <c r="Z21" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AA21" t="n">
-        <v>66023743.1080043</v>
+        <v>60234394.7990324</v>
       </c>
       <c r="AB21" t="n">
-        <v>1487255.45454545</v>
+        <v>1372611.63636364</v>
       </c>
       <c r="AC21" t="n">
-        <v>101615.764481923</v>
+        <v>82832.6444181831</v>
       </c>
       <c r="AD21" t="n">
-        <v>28133.9400777503</v>
+        <v>33404.1409771722</v>
       </c>
       <c r="AE21" t="n">
-        <v>7941.19534353962</v>
+        <v>9099.82941997444</v>
       </c>
       <c r="AF21" t="n">
-        <v>75444.0962734414</v>
+        <v>100531.124170494</v>
       </c>
       <c r="AG21" t="n">
         <v>1.23051162267124</v>
@@ -3285,10 +3285,10 @@
         <v>19.1227018150321</v>
       </c>
       <c r="AK21" t="n">
-        <v>44.3930078765003</v>
+        <v>43.8830570886075</v>
       </c>
       <c r="AL21" t="n">
-        <v>4.64561145795079</v>
+        <v>4.60043988269795</v>
       </c>
       <c r="AM21" t="n">
         <v>0.49790988578798</v>
@@ -3320,16 +3320,16 @@
         <v>3.07271268018013</v>
       </c>
       <c r="G22" t="n">
-        <v>877552000</v>
+        <v>974656000</v>
       </c>
       <c r="H22" t="n">
-        <v>313006000</v>
+        <v>940648000</v>
       </c>
       <c r="I22" t="n">
-        <v>167507000</v>
+        <v>340527000</v>
       </c>
       <c r="J22" t="n">
-        <v>1951953000</v>
+        <v>1518022000</v>
       </c>
       <c r="K22" t="n">
         <v>2.272</v>
@@ -3374,28 +3374,28 @@
         <v>24220.39017</v>
       </c>
       <c r="Y22" t="n">
-        <v>5245</v>
+        <v>5252</v>
       </c>
       <c r="Z22" t="n">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="AA22" t="n">
-        <v>257316968.341424</v>
+        <v>223916635.080903</v>
       </c>
       <c r="AB22" t="n">
-        <v>2636078.75104607</v>
+        <v>2328113.8326067</v>
       </c>
       <c r="AC22" t="n">
-        <v>94573.1281234225</v>
+        <v>105037.954177374</v>
       </c>
       <c r="AD22" t="n">
-        <v>33732.4244505169</v>
+        <v>101372.937242512</v>
       </c>
       <c r="AE22" t="n">
-        <v>18052.105143137</v>
+        <v>36698.3422070541</v>
       </c>
       <c r="AF22" t="n">
-        <v>210360.526965808</v>
+        <v>163596.10496036</v>
       </c>
       <c r="AG22" t="n">
         <v>3.62892921032456</v>
@@ -3410,10 +3410,10 @@
         <v>23.0143488497912</v>
       </c>
       <c r="AK22" t="n">
-        <v>97.6135361052147</v>
+        <v>96.1794186971484</v>
       </c>
       <c r="AL22" t="n">
-        <v>8.69399428026692</v>
+        <v>8.45392231530845</v>
       </c>
       <c r="AM22" t="n">
         <v>0.912083296846201</v>
@@ -3445,16 +3445,16 @@
         <v>1.47322147419144</v>
       </c>
       <c r="G23" t="n">
-        <v>1453437000</v>
+        <v>1983891000</v>
       </c>
       <c r="H23" t="n">
-        <v>379062000</v>
+        <v>485842000</v>
       </c>
       <c r="I23" t="n">
-        <v>127196000</v>
+        <v>144569000</v>
       </c>
       <c r="J23" t="n">
-        <v>573504000</v>
+        <v>605637000</v>
       </c>
       <c r="K23" t="n">
         <v>16.06</v>
@@ -3499,28 +3499,28 @@
         <v>45389.16105</v>
       </c>
       <c r="Y23" t="n">
-        <v>11284</v>
+        <v>11314</v>
       </c>
       <c r="Z23" t="n">
-        <v>1240</v>
+        <v>1269</v>
       </c>
       <c r="AA23" t="n">
-        <v>56807054.9411687</v>
+        <v>50581174.0795303</v>
       </c>
       <c r="AB23" t="n">
-        <v>3319482</v>
+        <v>2986403.63636364</v>
       </c>
       <c r="AC23" t="n">
-        <v>53073.1914868445</v>
+        <v>72443.0621568237</v>
       </c>
       <c r="AD23" t="n">
-        <v>13841.6939374643</v>
+        <v>17740.8346549259</v>
       </c>
       <c r="AE23" t="n">
-        <v>4644.6441533831</v>
+        <v>5279.03047745559</v>
       </c>
       <c r="AF23" t="n">
-        <v>20941.8692454308</v>
+        <v>22115.2265096582</v>
       </c>
       <c r="AG23" t="n">
         <v>2.87762049811862</v>
@@ -3535,10 +3535,10 @@
         <v>10.8984668943447</v>
       </c>
       <c r="AK23" t="n">
-        <v>17.1132287932782</v>
+        <v>16.9371525883621</v>
       </c>
       <c r="AL23" t="n">
-        <v>10.989010989011</v>
+        <v>11.2161923280891</v>
       </c>
       <c r="AM23" t="n">
         <v>0.736261318579263</v>
@@ -3570,16 +3570,16 @@
         <v>0.714337106321668</v>
       </c>
       <c r="G24" t="n">
-        <v>1197615000</v>
+        <v>1212303000</v>
       </c>
       <c r="H24" t="n">
-        <v>558585000</v>
+        <v>541073000</v>
       </c>
       <c r="I24" t="n">
-        <v>181153000</v>
+        <v>226105000</v>
       </c>
       <c r="J24" t="n">
-        <v>416802000</v>
+        <v>417174000</v>
       </c>
       <c r="K24" t="n">
         <v>2.196</v>
@@ -3624,28 +3624,28 @@
         <v>29563.14677</v>
       </c>
       <c r="Y24" t="n">
-        <v>13496</v>
+        <v>13497</v>
       </c>
       <c r="Z24" t="n">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="AA24" t="n">
-        <v>44438029.0630827</v>
+        <v>38627951.7797147</v>
       </c>
       <c r="AB24" t="n">
-        <v>1935250.27272727</v>
+        <v>1699880.90909091</v>
       </c>
       <c r="AC24" t="n">
-        <v>40959.957218312</v>
+        <v>41462.3055118976</v>
       </c>
       <c r="AD24" t="n">
-        <v>19104.3179175201</v>
+        <v>18505.3852297973</v>
       </c>
       <c r="AE24" t="n">
-        <v>6195.66315549561</v>
+        <v>7733.07876642029</v>
       </c>
       <c r="AF24" t="n">
-        <v>14255.1588686739</v>
+        <v>14267.8817421225</v>
       </c>
       <c r="AG24" t="n">
         <v>0.373417947527637</v>
@@ -3660,10 +3660,10 @@
         <v>1.37294967026451</v>
       </c>
       <c r="AK24" t="n">
-        <v>22.9624197393642</v>
+        <v>22.723916465638</v>
       </c>
       <c r="AL24" t="n">
-        <v>4.57913455838767</v>
+        <v>4.4602504260206</v>
       </c>
       <c r="AM24" t="n">
         <v>0.619547232459811</v>
@@ -3695,16 +3695,16 @@
         <v>0.611938562773513</v>
       </c>
       <c r="G25" t="n">
-        <v>708631000</v>
+        <v>696862000</v>
       </c>
       <c r="H25" t="n">
-        <v>124291000</v>
+        <v>122836000</v>
       </c>
       <c r="I25" t="n">
-        <v>60441000</v>
+        <v>63319000</v>
       </c>
       <c r="J25" t="n">
-        <v>137830000</v>
+        <v>143118000</v>
       </c>
       <c r="K25" t="n">
         <v>10.012</v>
@@ -3749,28 +3749,28 @@
         <v>20220.04363</v>
       </c>
       <c r="Y25" t="n">
-        <v>16788</v>
+        <v>16782</v>
       </c>
       <c r="Z25" t="n">
-        <v>1174</v>
+        <v>1097</v>
       </c>
       <c r="AA25" t="n">
-        <v>3206280.15085471</v>
+        <v>3150148.48514852</v>
       </c>
       <c r="AB25" t="n">
-        <v>455707.181818182</v>
+        <v>442220.181818182</v>
       </c>
       <c r="AC25" t="n">
-        <v>25016.5560628586</v>
+        <v>24601.0791103914</v>
       </c>
       <c r="AD25" t="n">
-        <v>4387.8023535645</v>
+        <v>4336.43698982588</v>
       </c>
       <c r="AE25" t="n">
-        <v>2133.72780049876</v>
+        <v>2235.3288430003</v>
       </c>
       <c r="AF25" t="n">
-        <v>4865.76500624981</v>
+        <v>5052.44544848335</v>
       </c>
       <c r="AG25" t="n">
         <v>1.73085633477514</v>
@@ -3785,10 +3785,10 @@
         <v>10.7405173781939</v>
       </c>
       <c r="AK25" t="n">
-        <v>7.03583414696754</v>
+        <v>7.12348421593227</v>
       </c>
       <c r="AL25" t="n">
-        <v>6.99309030259709</v>
+        <v>6.53676558217137</v>
       </c>
       <c r="AM25" t="n">
         <v>1.74265422631432</v>
@@ -3820,16 +3820,16 @@
         <v>0.513162351515942</v>
       </c>
       <c r="G26" t="n">
-        <v>805193000</v>
+        <v>1096090000</v>
       </c>
       <c r="H26" t="n">
-        <v>513233000</v>
+        <v>554241000</v>
       </c>
       <c r="I26" t="n">
-        <v>182531000</v>
+        <v>80754000</v>
       </c>
       <c r="J26" t="n">
-        <v>656786000</v>
+        <v>566331000</v>
       </c>
       <c r="K26" t="n">
         <v>7.074</v>
@@ -3874,28 +3874,28 @@
         <v>37225.51936</v>
       </c>
       <c r="Y26" t="n">
-        <v>24590</v>
+        <v>24569</v>
       </c>
       <c r="Z26" t="n">
-        <v>2218</v>
+        <v>2230</v>
       </c>
       <c r="AA26" t="n">
-        <v>54592759.4489253</v>
+        <v>48939982.9273843</v>
       </c>
       <c r="AB26" t="n">
-        <v>2646933.45454545</v>
+        <v>2405468.81818182</v>
       </c>
       <c r="AC26" t="n">
-        <v>10370.6322573</v>
+        <v>14117.294003927</v>
       </c>
       <c r="AD26" t="n">
-        <v>6610.27940544798</v>
+        <v>7138.44953063208</v>
       </c>
       <c r="AE26" t="n">
-        <v>2350.94179477123</v>
+        <v>1040.08608781498</v>
       </c>
       <c r="AF26" t="n">
-        <v>8459.19683571897</v>
+        <v>7294.1649230793</v>
       </c>
       <c r="AG26" t="n">
         <v>0.835402945521666</v>
@@ -3910,10 +3910,10 @@
         <v>8.15949391222253</v>
       </c>
       <c r="AK26" t="n">
-        <v>20.6249081763562</v>
+        <v>20.3452992437357</v>
       </c>
       <c r="AL26" t="n">
-        <v>9.019926799512</v>
+        <v>9.076478489153</v>
       </c>
       <c r="AM26" t="n">
         <v>0.85967899496827</v>
@@ -3945,16 +3945,16 @@
         <v>0.218760633080648</v>
       </c>
       <c r="G27" t="n">
-        <v>528455000</v>
+        <v>455575000</v>
       </c>
       <c r="H27" t="n">
-        <v>134321000</v>
+        <v>142759000</v>
       </c>
       <c r="I27" t="n">
-        <v>44141000</v>
+        <v>56528000</v>
       </c>
       <c r="J27" t="n">
-        <v>77199000</v>
+        <v>76709000</v>
       </c>
       <c r="K27" t="n">
         <v>5.7</v>
@@ -3999,28 +3999,28 @@
         <v>6070.85163</v>
       </c>
       <c r="Y27" t="n">
-        <v>5266</v>
+        <v>5278</v>
       </c>
       <c r="Z27" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AA27" t="n">
-        <v>2216936.30302313</v>
+        <v>2186018.84630304</v>
       </c>
       <c r="AB27" t="n">
-        <v>161508.272727273</v>
+        <v>160577.909090909</v>
       </c>
       <c r="AC27" t="n">
-        <v>20933.3918805194</v>
+        <v>18046.4372670665</v>
       </c>
       <c r="AD27" t="n">
-        <v>5320.7825279035</v>
+        <v>5655.03229503187</v>
       </c>
       <c r="AE27" t="n">
-        <v>1748.53270571384</v>
+        <v>2239.21199765732</v>
       </c>
       <c r="AF27" t="n">
-        <v>3058.04074099822</v>
+        <v>3038.63064549065</v>
       </c>
       <c r="AG27" t="n">
         <v>0.520514194970007</v>
@@ -4035,10 +4035,10 @@
         <v>9.32202074147674</v>
       </c>
       <c r="AK27" t="n">
-        <v>13.7264566426682</v>
+        <v>13.6134469472102</v>
       </c>
       <c r="AL27" t="n">
-        <v>6.93125712115458</v>
+        <v>6.95339143615006</v>
       </c>
       <c r="AM27" t="n">
         <v>1.63663943391392</v>
@@ -4070,16 +4070,16 @@
         <v>0.296139549177088</v>
       </c>
       <c r="G28" t="n">
-        <v>483546000</v>
+        <v>668685000</v>
       </c>
       <c r="H28" t="n">
-        <v>224838000</v>
+        <v>152980000</v>
       </c>
       <c r="I28" t="n">
-        <v>19203000</v>
+        <v>80319000</v>
       </c>
       <c r="J28" t="n">
-        <v>88435000</v>
+        <v>71356000</v>
       </c>
       <c r="K28" t="n">
         <v>2.99</v>
@@ -4124,28 +4124,28 @@
         <v>9965.7749</v>
       </c>
       <c r="Y28" t="n">
-        <v>15348</v>
+        <v>15336</v>
       </c>
       <c r="Z28" t="n">
-        <v>1280</v>
+        <v>1220</v>
       </c>
       <c r="AA28" t="n">
-        <v>7345369.1519096</v>
+        <v>6831947.49737328</v>
       </c>
       <c r="AB28" t="n">
-        <v>618386.636363636</v>
+        <v>577322.181818182</v>
       </c>
       <c r="AC28" t="n">
-        <v>21399.8366066584</v>
+        <v>29593.3576977648</v>
       </c>
       <c r="AD28" t="n">
-        <v>9950.44207369695</v>
+        <v>6770.29073570375</v>
       </c>
       <c r="AE28" t="n">
-        <v>849.848954096738</v>
+        <v>3554.60178847555</v>
       </c>
       <c r="AF28" t="n">
-        <v>3913.78390124174</v>
+        <v>3157.93480021491</v>
       </c>
       <c r="AG28" t="n">
         <v>0.721368428671379</v>
@@ -4160,10 +4160,10 @@
         <v>30.1509024558635</v>
       </c>
       <c r="AK28" t="n">
-        <v>11.8782792511548</v>
+        <v>11.8338558824419</v>
       </c>
       <c r="AL28" t="n">
-        <v>8.33984884023977</v>
+        <v>7.95513823682838</v>
       </c>
       <c r="AM28" t="n">
         <v>1.11992646417719</v>
@@ -4195,16 +4195,16 @@
         <v>0.727667045020068</v>
       </c>
       <c r="G29" t="n">
-        <v>690578000</v>
+        <v>649197000</v>
       </c>
       <c r="H29" t="n">
-        <v>156288000</v>
+        <v>169034000</v>
       </c>
       <c r="I29" t="n">
-        <v>183901000</v>
+        <v>229241000</v>
       </c>
       <c r="J29" t="n">
-        <v>185334000</v>
+        <v>193138000</v>
       </c>
       <c r="K29" t="n">
         <v>1.249</v>
@@ -4249,28 +4249,28 @@
         <v>13521.65165</v>
       </c>
       <c r="Y29" t="n">
-        <v>2067</v>
+        <v>2071</v>
       </c>
       <c r="Z29" t="n">
         <v>29</v>
       </c>
       <c r="AA29" t="n">
-        <v>40062017.1700215</v>
+        <v>37439633.2169552</v>
       </c>
       <c r="AB29" t="n">
-        <v>1103996.63636364</v>
+        <v>1035106.36363636</v>
       </c>
       <c r="AC29" t="n">
-        <v>51035.6668348202</v>
+        <v>47977.4939285132</v>
       </c>
       <c r="AD29" t="n">
-        <v>11550.1251100967</v>
+        <v>12492.0905498829</v>
       </c>
       <c r="AE29" t="n">
-        <v>13590.8038868749</v>
+        <v>16941.5580874007</v>
       </c>
       <c r="AF29" t="n">
-        <v>13696.7066387353</v>
+        <v>14273.4443048338</v>
       </c>
       <c r="AG29" t="n">
         <v>0.273499257676154</v>
@@ -4285,10 +4285,10 @@
         <v>4.81995236093597</v>
       </c>
       <c r="AK29" t="n">
-        <v>36.2881695925981</v>
+        <v>36.1698416049038</v>
       </c>
       <c r="AL29" t="n">
-        <v>1.40299951620706</v>
+        <v>1.40028971511347</v>
       </c>
       <c r="AM29" t="n">
         <v>1.91764393663599</v>
@@ -4320,16 +4320,16 @@
         <v>0.744704147297174</v>
       </c>
       <c r="G30" t="n">
-        <v>273146000</v>
+        <v>204976000</v>
       </c>
       <c r="H30" t="n">
-        <v>110295000</v>
+        <v>114273000</v>
       </c>
       <c r="I30" t="n">
-        <v>109401000</v>
+        <v>131905000</v>
       </c>
       <c r="J30" t="n">
-        <v>106926000</v>
+        <v>186690000</v>
       </c>
       <c r="K30" t="n">
         <v>0.1</v>
@@ -4374,28 +4374,28 @@
         <v>6364.76573</v>
       </c>
       <c r="Y30" t="n">
-        <v>2527</v>
+        <v>2531</v>
       </c>
       <c r="Z30" t="n">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AA30" t="n">
-        <v>3627078.35982725</v>
+        <v>3219679.97615612</v>
       </c>
       <c r="AB30" t="n">
-        <v>205416.612590298</v>
+        <v>184583.076484204</v>
       </c>
       <c r="AC30" t="n">
-        <v>32311.2238047837</v>
+        <v>24247.1989727447</v>
       </c>
       <c r="AD30" t="n">
-        <v>13047.1119091937</v>
+        <v>13517.6809392927</v>
       </c>
       <c r="AE30" t="n">
-        <v>12941.3580849331</v>
+        <v>15603.4207931655</v>
       </c>
       <c r="AF30" t="n">
-        <v>12648.5832358896</v>
+        <v>22084.0955830035</v>
       </c>
       <c r="AG30" t="n">
         <v>0.0704418819253175</v>
@@ -4410,10 +4410,10 @@
         <v>4.38874840557657</v>
       </c>
       <c r="AK30" t="n">
-        <v>17.6571812478547</v>
+        <v>17.4429857681543</v>
       </c>
       <c r="AL30" t="n">
-        <v>7.67708745548081</v>
+        <v>7.5069142631371</v>
       </c>
       <c r="AM30" t="n">
         <v>0.682450154896352</v>
@@ -4445,16 +4445,16 @@
         <v>3.17617293317406</v>
       </c>
       <c r="G31" t="n">
-        <v>2944934000</v>
+        <v>1912849000</v>
       </c>
       <c r="H31" t="n">
-        <v>742395000</v>
+        <v>413972000</v>
       </c>
       <c r="I31" t="n">
-        <v>173908000</v>
+        <v>81466000</v>
       </c>
       <c r="J31" t="n">
-        <v>5868512000</v>
+        <v>3235555000</v>
       </c>
       <c r="K31" t="n">
         <v>0.23</v>
@@ -4499,28 +4499,28 @@
         <v>29589.04104</v>
       </c>
       <c r="Y31" t="n">
-        <v>6798</v>
+        <v>6805</v>
       </c>
       <c r="Z31" t="n">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="AA31" t="n">
-        <v>3138467.92783429</v>
+        <v>2861059.47099423</v>
       </c>
       <c r="AB31" t="n">
-        <v>332393.759962146</v>
+        <v>310833.428552468</v>
       </c>
       <c r="AC31" t="n">
-        <v>343972.262015793</v>
+        <v>223423.342399065</v>
       </c>
       <c r="AD31" t="n">
-        <v>86712.7370118361</v>
+        <v>48352.4877811189</v>
       </c>
       <c r="AE31" t="n">
-        <v>20312.6888896805</v>
+        <v>9515.33864506932</v>
       </c>
       <c r="AF31" t="n">
-        <v>685450.114436121</v>
+        <v>377917.186676003</v>
       </c>
       <c r="AG31" t="n">
         <v>0.512477718360071</v>
@@ -4535,10 +4535,10 @@
         <v>15.3559218389527</v>
       </c>
       <c r="AK31" t="n">
-        <v>9.44201819008786</v>
+        <v>9.20447805217737</v>
       </c>
       <c r="AL31" t="n">
-        <v>7.09032068255369</v>
+        <v>6.68626010286554</v>
       </c>
       <c r="AM31" t="n">
         <v>0.775891144817298</v>
@@ -4570,16 +4570,16 @@
         <v>0.405989966972384</v>
       </c>
       <c r="G32" t="n">
-        <v>435393000</v>
+        <v>607404000</v>
       </c>
       <c r="H32" t="n">
-        <v>52738000</v>
+        <v>97384000</v>
       </c>
       <c r="I32" t="n">
-        <v>314077000</v>
+        <v>287587000</v>
       </c>
       <c r="J32" t="n">
-        <v>172809000</v>
+        <v>237356000</v>
       </c>
       <c r="K32" t="n">
         <v>27.96</v>
@@ -4624,28 +4624,28 @@
         <v>11431.16229</v>
       </c>
       <c r="Y32" t="n">
-        <v>4025</v>
+        <v>4033</v>
       </c>
       <c r="Z32" t="n">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="AA32" t="n">
-        <v>9317985.90909091</v>
+        <v>8585385.09090909</v>
       </c>
       <c r="AB32" t="n">
-        <v>541240</v>
+        <v>504022.545454545</v>
       </c>
       <c r="AC32" t="n">
-        <v>14787.9734278194</v>
+        <v>20630.2678544469</v>
       </c>
       <c r="AD32" t="n">
-        <v>1791.22802304203</v>
+        <v>3307.61405051244</v>
       </c>
       <c r="AE32" t="n">
-        <v>10667.5172322229</v>
+        <v>9767.79349733756</v>
       </c>
       <c r="AF32" t="n">
-        <v>5869.39822203857</v>
+        <v>8061.71486664576</v>
       </c>
       <c r="AG32" t="n">
         <v>3.31282760974038</v>
@@ -4660,10 +4660,10 @@
         <v>14.0114258706425</v>
       </c>
       <c r="AK32" t="n">
-        <v>17.2159964324346</v>
+        <v>17.0337322572872</v>
       </c>
       <c r="AL32" t="n">
-        <v>5.16770186335404</v>
+        <v>4.93429209025539</v>
       </c>
       <c r="AM32" t="n">
         <v>1.12106022162867</v>
@@ -4695,16 +4695,16 @@
         <v>1.57991641715883</v>
       </c>
       <c r="G33" t="n">
-        <v>3937980000</v>
+        <v>3596634000</v>
       </c>
       <c r="H33" t="n">
-        <v>1920550000</v>
+        <v>1473304000</v>
       </c>
       <c r="I33" t="n">
-        <v>464851000</v>
+        <v>604968000</v>
       </c>
       <c r="J33" t="n">
-        <v>7983023000</v>
+        <v>2042747000</v>
       </c>
       <c r="K33" t="n">
         <v>27.183</v>
@@ -4749,28 +4749,28 @@
         <v>51009.29979</v>
       </c>
       <c r="Y33" t="n">
-        <v>17555</v>
+        <v>17557</v>
       </c>
       <c r="Z33" t="n">
-        <v>1672</v>
+        <v>1611</v>
       </c>
       <c r="AA33" t="n">
-        <v>662128929.500107</v>
+        <v>634192077.8759</v>
       </c>
       <c r="AB33" t="n">
-        <v>7149219.95113186</v>
+        <v>6595532.73436327</v>
       </c>
       <c r="AC33" t="n">
-        <v>103510.947245107</v>
+        <v>94538.5685640756</v>
       </c>
       <c r="AD33" t="n">
-        <v>50482.2141635027</v>
+        <v>38726.2232464373</v>
       </c>
       <c r="AE33" t="n">
-        <v>12218.7434516771</v>
+        <v>15901.7594637296</v>
       </c>
       <c r="AF33" t="n">
-        <v>209836.076518793</v>
+        <v>53694.1977745191</v>
       </c>
       <c r="AG33" t="n">
         <v>3.40925338316632</v>
@@ -4785,10 +4785,10 @@
         <v>23.8035427700734</v>
       </c>
       <c r="AK33" t="n">
-        <v>92.6155488327478</v>
+        <v>96.1547919505739</v>
       </c>
       <c r="AL33" t="n">
-        <v>9.52435203645685</v>
+        <v>9.17582730534829</v>
       </c>
       <c r="AM33" t="n">
         <v>0.683765350396584</v>
@@ -4820,16 +4820,16 @@
         <v>1.03112229797401</v>
       </c>
       <c r="G34" t="n">
-        <v>4844323000</v>
+        <v>4403076000</v>
       </c>
       <c r="H34" t="n">
-        <v>1272829000</v>
+        <v>1084107000</v>
       </c>
       <c r="I34" t="n">
-        <v>374775000</v>
+        <v>123873000</v>
       </c>
       <c r="J34" t="n">
-        <v>649689000</v>
+        <v>587919000</v>
       </c>
       <c r="K34" t="n">
         <v>5.464</v>
@@ -4874,28 +4874,28 @@
         <v>61902.86963</v>
       </c>
       <c r="Y34" t="n">
-        <v>18877</v>
+        <v>18822</v>
       </c>
       <c r="Z34" t="n">
-        <v>1325</v>
+        <v>1303</v>
       </c>
       <c r="AA34" t="n">
-        <v>55558217.5048276</v>
+        <v>50497208.1424064</v>
       </c>
       <c r="AB34" t="n">
-        <v>3539258.90909091</v>
+        <v>3263923</v>
       </c>
       <c r="AC34" t="n">
-        <v>27826.8963532274</v>
+        <v>25292.2729321276</v>
       </c>
       <c r="AD34" t="n">
-        <v>7311.42012173467</v>
+        <v>6227.35790425376</v>
       </c>
       <c r="AE34" t="n">
-        <v>2152.79309013474</v>
+        <v>711.554768739272</v>
       </c>
       <c r="AF34" t="n">
-        <v>3731.96181692095</v>
+        <v>3377.14084653172</v>
       </c>
       <c r="AG34" t="n">
         <v>0.917930557142185</v>
@@ -4910,10 +4910,10 @@
         <v>4.80708111414044</v>
       </c>
       <c r="AK34" t="n">
-        <v>15.6976980017261</v>
+        <v>15.4713233560983</v>
       </c>
       <c r="AL34" t="n">
-        <v>7.0191238014515</v>
+        <v>6.92274997343534</v>
       </c>
       <c r="AM34" t="n">
         <v>1.03030555877516</v>
@@ -4945,16 +4945,16 @@
         <v>0.182765367077083</v>
       </c>
       <c r="G35" t="n">
-        <v>376287000</v>
+        <v>428934000</v>
       </c>
       <c r="H35" t="n">
-        <v>30940000</v>
+        <v>37857000</v>
       </c>
       <c r="I35" t="n">
-        <v>20294000</v>
+        <v>31501000</v>
       </c>
       <c r="J35" t="n">
-        <v>36915000</v>
+        <v>31190000</v>
       </c>
       <c r="K35" t="n">
         <v>1.621</v>
@@ -4999,28 +4999,28 @@
         <v>4290.27999</v>
       </c>
       <c r="Y35" t="n">
-        <v>4285</v>
+        <v>4281</v>
       </c>
       <c r="Z35" t="n">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="AA35" t="n">
-        <v>855943.479282397</v>
+        <v>835660.607788053</v>
       </c>
       <c r="AB35" t="n">
-        <v>226910.454545455</v>
+        <v>225352.545454545</v>
       </c>
       <c r="AC35" t="n">
-        <v>21799.3136715617</v>
+        <v>24849.2953793186</v>
       </c>
       <c r="AD35" t="n">
-        <v>1792.43706266259</v>
+        <v>2193.15739758299</v>
       </c>
       <c r="AE35" t="n">
-        <v>1175.68577083628</v>
+        <v>1824.93729511746</v>
       </c>
       <c r="AF35" t="n">
-        <v>2138.58481474433</v>
+        <v>1806.92023220576</v>
       </c>
       <c r="AG35" t="n">
         <v>0.318020854791403</v>
@@ -5035,10 +5035,10 @@
         <v>8.80413213493638</v>
       </c>
       <c r="AK35" t="n">
-        <v>3.77216413847928</v>
+        <v>3.70823682555922</v>
       </c>
       <c r="AL35" t="n">
-        <v>11.2252042007001</v>
+        <v>10.4882036907265</v>
       </c>
       <c r="AM35" t="n">
         <v>0.939450173121451</v>
@@ -5070,16 +5070,16 @@
         <v>1.3771259420125</v>
       </c>
       <c r="G36" t="n">
-        <v>1970380000</v>
+        <v>1665471000</v>
       </c>
       <c r="H36" t="n">
-        <v>480042000</v>
+        <v>751316000</v>
       </c>
       <c r="I36" t="n">
-        <v>612521000</v>
+        <v>279573000</v>
       </c>
       <c r="J36" t="n">
-        <v>927812000</v>
+        <v>1300448000</v>
       </c>
       <c r="K36" t="n">
         <v>8.102</v>
@@ -5124,28 +5124,28 @@
         <v>51744.08508</v>
       </c>
       <c r="Y36" t="n">
-        <v>27151</v>
+        <v>27003</v>
       </c>
       <c r="Z36" t="n">
-        <v>1334</v>
+        <v>1223</v>
       </c>
       <c r="AA36" t="n">
-        <v>47785265.501365</v>
+        <v>43109435.7645087</v>
       </c>
       <c r="AB36" t="n">
-        <v>4104511.45454545</v>
+        <v>3752525</v>
       </c>
       <c r="AC36" t="n">
-        <v>39593.9902930642</v>
+        <v>33466.9670862371</v>
       </c>
       <c r="AD36" t="n">
-        <v>9646.25010823452</v>
+        <v>15097.3915747337</v>
       </c>
       <c r="AE36" t="n">
-        <v>12308.362106953</v>
+        <v>5617.90651965755</v>
       </c>
       <c r="AF36" t="n">
-        <v>18644.0074106459</v>
+        <v>26131.9773285533</v>
       </c>
       <c r="AG36" t="n">
         <v>1.26077619744172</v>
@@ -5160,10 +5160,10 @@
         <v>12.8770758421187</v>
       </c>
       <c r="AK36" t="n">
-        <v>11.6421323294021</v>
+        <v>11.4881142069696</v>
       </c>
       <c r="AL36" t="n">
-        <v>4.91326286324629</v>
+        <v>4.5291263933637</v>
       </c>
       <c r="AM36" t="n">
         <v>0.729013476539873</v>
@@ -5195,16 +5195,16 @@
         <v>0.635897560483996</v>
       </c>
       <c r="G37" t="n">
-        <v>1360030000</v>
+        <v>1550535000</v>
       </c>
       <c r="H37" t="n">
-        <v>703103000</v>
+        <v>706079000</v>
       </c>
       <c r="I37" t="n">
-        <v>247262000</v>
+        <v>239679000</v>
       </c>
       <c r="J37" t="n">
-        <v>384361000</v>
+        <v>497927000</v>
       </c>
       <c r="K37" t="n">
         <v>12.912</v>
@@ -5249,28 +5249,28 @@
         <v>18894.0767</v>
       </c>
       <c r="Y37" t="n">
-        <v>23220</v>
+        <v>23197</v>
       </c>
       <c r="Z37" t="n">
-        <v>2296</v>
+        <v>2207</v>
       </c>
       <c r="AA37" t="n">
-        <v>15162019.2797244</v>
+        <v>15592495.3496997</v>
       </c>
       <c r="AB37" t="n">
-        <v>1043917.90909091</v>
+        <v>1041762.81818182</v>
       </c>
       <c r="AC37" t="n">
-        <v>42388.2351305819</v>
+        <v>48325.7296958132</v>
       </c>
       <c r="AD37" t="n">
-        <v>21913.7043190352</v>
+        <v>22006.4577051728</v>
       </c>
       <c r="AE37" t="n">
-        <v>7706.4475010536</v>
+        <v>7470.10713577107</v>
       </c>
       <c r="AF37" t="n">
-        <v>11979.4301912646</v>
+        <v>15518.956753796</v>
       </c>
       <c r="AG37" t="n">
         <v>2.02064779038596</v>
@@ -5285,10 +5285,10 @@
         <v>10.4528857609319</v>
       </c>
       <c r="AK37" t="n">
-        <v>14.5241490232965</v>
+        <v>14.9674139617626</v>
       </c>
       <c r="AL37" t="n">
-        <v>9.88802756244617</v>
+        <v>9.51416131396301</v>
       </c>
       <c r="AM37" t="n">
         <v>1.18561810239517</v>
@@ -5320,16 +5320,16 @@
         <v>0.763333015124543</v>
       </c>
       <c r="G38" t="n">
-        <v>924356000</v>
+        <v>860112000</v>
       </c>
       <c r="H38" t="n">
-        <v>291763000</v>
+        <v>488318000</v>
       </c>
       <c r="I38" t="n">
-        <v>159947000</v>
+        <v>185434000</v>
       </c>
       <c r="J38" t="n">
-        <v>625050000</v>
+        <v>302411000</v>
       </c>
       <c r="K38" t="n">
         <v>3.9</v>
@@ -5374,28 +5374,28 @@
         <v>15308.61333</v>
       </c>
       <c r="Y38" t="n">
-        <v>8235</v>
+        <v>8255</v>
       </c>
       <c r="Z38" t="n">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="AA38" t="n">
-        <v>77340544.6001493</v>
+        <v>69568209.8099692</v>
       </c>
       <c r="AB38" t="n">
-        <v>1489575</v>
+        <v>1359557.90909091</v>
       </c>
       <c r="AC38" t="n">
-        <v>50127.4667016628</v>
+        <v>46643.5395450461</v>
       </c>
       <c r="AD38" t="n">
-        <v>15822.1941192325</v>
+        <v>26481.2953935741</v>
       </c>
       <c r="AE38" t="n">
-        <v>8673.86365916472</v>
+        <v>10056.0137656446</v>
       </c>
       <c r="AF38" t="n">
-        <v>33896.2186234247</v>
+        <v>16399.6310217238</v>
       </c>
       <c r="AG38" t="n">
         <v>0.787592390645826</v>
@@ -5410,10 +5410,10 @@
         <v>8.26887866661925</v>
       </c>
       <c r="AK38" t="n">
-        <v>51.9212155145926</v>
+        <v>51.1697290308782</v>
       </c>
       <c r="AL38" t="n">
-        <v>4.63873709775349</v>
+        <v>4.79709267110842</v>
       </c>
       <c r="AM38" t="n">
         <v>1.42954323304942</v>
@@ -5445,16 +5445,16 @@
         <v>1.16375523859216</v>
       </c>
       <c r="G39" t="n">
-        <v>3817048000</v>
+        <v>3108224000</v>
       </c>
       <c r="H39" t="n">
-        <v>1794855000</v>
+        <v>1745460000</v>
       </c>
       <c r="I39" t="n">
-        <v>945086000</v>
+        <v>598651000</v>
       </c>
       <c r="J39" t="n">
-        <v>2474696000</v>
+        <v>2619272000</v>
       </c>
       <c r="K39" t="n">
         <v>28.37</v>
@@ -5499,28 +5499,28 @@
         <v>43741.89364</v>
       </c>
       <c r="Y39" t="n">
-        <v>23166</v>
+        <v>23202</v>
       </c>
       <c r="Z39" t="n">
-        <v>3198</v>
+        <v>3112</v>
       </c>
       <c r="AA39" t="n">
-        <v>306643764.78834</v>
+        <v>282152323.585798</v>
       </c>
       <c r="AB39" t="n">
-        <v>5142109.10708782</v>
+        <v>4762676.65526608</v>
       </c>
       <c r="AC39" t="n">
-        <v>43253.3336518274</v>
+        <v>35221.2101437073</v>
       </c>
       <c r="AD39" t="n">
-        <v>20338.6130254717</v>
+        <v>19778.8877048228</v>
       </c>
       <c r="AE39" t="n">
-        <v>10709.3544769861</v>
+        <v>6783.68504771229</v>
       </c>
       <c r="AF39" t="n">
-        <v>28042.3122200304</v>
+        <v>29680.5923689954</v>
       </c>
       <c r="AG39" t="n">
         <v>2.66075679163564</v>
@@ -5535,10 +5535,10 @@
         <v>13.4337723839879</v>
       </c>
       <c r="AK39" t="n">
-        <v>59.6338503136128</v>
+        <v>59.2423849042581</v>
       </c>
       <c r="AL39" t="n">
-        <v>13.8047138047138</v>
+        <v>13.4126368416516</v>
       </c>
       <c r="AM39" t="n">
         <v>0.758458388966842</v>
@@ -5570,16 +5570,16 @@
         <v>2.52708326007992</v>
       </c>
       <c r="G40" t="n">
-        <v>356087000</v>
+        <v>365183000</v>
       </c>
       <c r="H40" t="n">
-        <v>113401000</v>
+        <v>119427000</v>
       </c>
       <c r="I40" t="n">
-        <v>35653000</v>
+        <v>26065000</v>
       </c>
       <c r="J40" t="n">
-        <v>126315000</v>
+        <v>152093000</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -5624,28 +5624,28 @@
         <v>2345.64698</v>
       </c>
       <c r="Y40" t="n">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="Z40" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AA40" t="n">
-        <v>29109856.3636364</v>
+        <v>27505059.2727273</v>
       </c>
       <c r="AB40" t="n">
-        <v>693091.818181818</v>
+        <v>654882.363636364</v>
       </c>
       <c r="AC40" t="n">
-        <v>127978.869956717</v>
+        <v>131248.003064992</v>
       </c>
       <c r="AD40" t="n">
-        <v>40756.7022440069</v>
+        <v>42922.4669879014</v>
       </c>
       <c r="AE40" t="n">
-        <v>12813.8085652294</v>
+        <v>9367.84899595276</v>
       </c>
       <c r="AF40" t="n">
-        <v>45398.0374419249</v>
+        <v>54662.73766896</v>
       </c>
       <c r="AG40" t="n">
         <v>0</v>
@@ -5663,7 +5663,7 @@
         <v>42</v>
       </c>
       <c r="AL40" t="n">
-        <v>17.4582798459564</v>
+        <v>16.5816326530612</v>
       </c>
       <c r="AM40" t="n">
         <v>1.0382158426858</v>
@@ -5695,16 +5695,16 @@
         <v>1.09587267473323</v>
       </c>
       <c r="G41" t="n">
-        <v>1903048000</v>
+        <v>1602861000</v>
       </c>
       <c r="H41" t="n">
-        <v>385182000</v>
+        <v>538146000</v>
       </c>
       <c r="I41" t="n">
-        <v>126634000</v>
+        <v>140959000</v>
       </c>
       <c r="J41" t="n">
-        <v>72919000</v>
+        <v>34935000</v>
       </c>
       <c r="K41" t="n">
         <v>7.88</v>
@@ -5749,28 +5749,28 @@
         <v>27112.13889</v>
       </c>
       <c r="Y41" t="n">
-        <v>9395</v>
+        <v>9427</v>
       </c>
       <c r="Z41" t="n">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="AA41" t="n">
-        <v>26518381.7796246</v>
+        <v>25981502.5819136</v>
       </c>
       <c r="AB41" t="n">
-        <v>1634748.6554414</v>
+        <v>1595511.23549074</v>
       </c>
       <c r="AC41" t="n">
-        <v>21021.501913411</v>
+        <v>17705.567898672</v>
       </c>
       <c r="AD41" t="n">
-        <v>4254.80815513402</v>
+        <v>5944.48335969166</v>
       </c>
       <c r="AE41" t="n">
-        <v>1398.82802393996</v>
+        <v>1557.06523861327</v>
       </c>
       <c r="AF41" t="n">
-        <v>805.479892269674</v>
+        <v>385.899971700669</v>
       </c>
       <c r="AG41" t="n">
         <v>1.49037215803241</v>
@@ -5785,10 +5785,10 @@
         <v>3.02658198733565</v>
       </c>
       <c r="AK41" t="n">
-        <v>16.2216874694198</v>
+        <v>16.2841238619811</v>
       </c>
       <c r="AL41" t="n">
-        <v>5.3113358169239</v>
+        <v>5.05993423146282</v>
       </c>
       <c r="AM41" t="n">
         <v>2.54603819711432</v>
@@ -5820,16 +5820,16 @@
         <v>0.19489544183311</v>
       </c>
       <c r="G42" t="n">
-        <v>245906000</v>
+        <v>490124000</v>
       </c>
       <c r="H42" t="n">
-        <v>98602000</v>
+        <v>91923000</v>
       </c>
       <c r="I42" t="n">
-        <v>113589000</v>
+        <v>125287000</v>
       </c>
       <c r="J42" t="n">
-        <v>37957000</v>
+        <v>35867000</v>
       </c>
       <c r="K42" t="n">
         <v>2.084</v>
@@ -5874,28 +5874,28 @@
         <v>4361.49815</v>
       </c>
       <c r="Y42" t="n">
-        <v>5886</v>
+        <v>5897</v>
       </c>
       <c r="Z42" t="n">
-        <v>1018</v>
+        <v>996</v>
       </c>
       <c r="AA42" t="n">
-        <v>1801372.74447466</v>
+        <v>1837895.2664262</v>
       </c>
       <c r="AB42" t="n">
-        <v>190276.818181818</v>
+        <v>191626.636363636</v>
       </c>
       <c r="AC42" t="n">
-        <v>13716.1551392605</v>
+        <v>27338.1569440148</v>
       </c>
       <c r="AD42" t="n">
-        <v>5499.82647451206</v>
+        <v>5127.28493353656</v>
       </c>
       <c r="AE42" t="n">
-        <v>6335.77198650484</v>
+        <v>6988.26351911921</v>
       </c>
       <c r="AF42" t="n">
-        <v>2117.1671314279</v>
+        <v>2000.59102413058</v>
       </c>
       <c r="AG42" t="n">
         <v>0.352603581531964</v>
@@ -5910,10 +5910,10 @@
         <v>5.9639285202855</v>
       </c>
       <c r="AK42" t="n">
-        <v>9.46711618203204</v>
+        <v>9.5910219022921</v>
       </c>
       <c r="AL42" t="n">
-        <v>17.2952769283044</v>
+        <v>16.889944039342</v>
       </c>
       <c r="AM42" t="n">
         <v>1.17535775896684</v>
@@ -5945,16 +5945,16 @@
         <v>1.29272047014036</v>
       </c>
       <c r="G43" t="n">
-        <v>1172329000</v>
+        <v>1370242000</v>
       </c>
       <c r="H43" t="n">
-        <v>403701000</v>
+        <v>431538000</v>
       </c>
       <c r="I43" t="n">
-        <v>235296000</v>
+        <v>265748000</v>
       </c>
       <c r="J43" t="n">
-        <v>34839000</v>
+        <v>41857000</v>
       </c>
       <c r="K43" t="n">
         <v>5.403</v>
@@ -5999,28 +5999,28 @@
         <v>36701.24603</v>
       </c>
       <c r="Y43" t="n">
-        <v>20331</v>
+        <v>20377</v>
       </c>
       <c r="Z43" t="n">
-        <v>841</v>
+        <v>881</v>
       </c>
       <c r="AA43" t="n">
-        <v>47679054.9016436</v>
+        <v>45234444.0886281</v>
       </c>
       <c r="AB43" t="n">
-        <v>2457093.09090909</v>
+        <v>2356181.27272727</v>
       </c>
       <c r="AC43" t="n">
-        <v>30974.0725710143</v>
+        <v>36203.1265522321</v>
       </c>
       <c r="AD43" t="n">
-        <v>10666.1731228956</v>
+        <v>11401.6537415268</v>
       </c>
       <c r="AE43" t="n">
-        <v>6216.74920578556</v>
+        <v>7021.32066817583</v>
       </c>
       <c r="AF43" t="n">
-        <v>920.480269874384</v>
+        <v>1105.90265668165</v>
       </c>
       <c r="AG43" t="n">
         <v>0.838289163991578</v>
@@ -6035,10 +6035,10 @@
         <v>4.66677433012234</v>
       </c>
       <c r="AK43" t="n">
-        <v>19.4046595458876</v>
+        <v>19.1982020280932</v>
       </c>
       <c r="AL43" t="n">
-        <v>4.13654025871821</v>
+        <v>4.32350198753497</v>
       </c>
       <c r="AM43" t="n">
         <v>1.06849035589566</v>
@@ -6070,16 +6070,16 @@
         <v>0.966537310990882</v>
       </c>
       <c r="G44" t="n">
-        <v>9622499000</v>
+        <v>9857146000</v>
       </c>
       <c r="H44" t="n">
-        <v>2101734000</v>
+        <v>2384799000</v>
       </c>
       <c r="I44" t="n">
-        <v>432230000</v>
+        <v>2241865000</v>
       </c>
       <c r="J44" t="n">
-        <v>2712603000</v>
+        <v>2874177000</v>
       </c>
       <c r="K44" t="n">
         <v>21.431</v>
@@ -6124,28 +6124,28 @@
         <v>111182.00337</v>
       </c>
       <c r="Y44" t="n">
-        <v>55175</v>
+        <v>55701</v>
       </c>
       <c r="Z44" t="n">
-        <v>789</v>
+        <v>774</v>
       </c>
       <c r="AA44" t="n">
-        <v>486160817.827993</v>
+        <v>453082898.890656</v>
       </c>
       <c r="AB44" t="n">
-        <v>10514834.0909091</v>
+        <v>9897110.36363637</v>
       </c>
       <c r="AC44" t="n">
-        <v>48049.4939450241</v>
+        <v>49221.1926488346</v>
       </c>
       <c r="AD44" t="n">
-        <v>10494.9093896556</v>
+        <v>11908.3810879689</v>
       </c>
       <c r="AE44" t="n">
-        <v>2158.32007546665</v>
+        <v>11194.6469148047</v>
       </c>
       <c r="AF44" t="n">
-        <v>13545.2548681745</v>
+        <v>14352.0670003112</v>
       </c>
       <c r="AG44" t="n">
         <v>1.06740473371661</v>
@@ -6160,10 +6160,10 @@
         <v>13.4566915421602</v>
       </c>
       <c r="AK44" t="n">
-        <v>46.2357098195508</v>
+        <v>45.7793115610146</v>
       </c>
       <c r="AL44" t="n">
-        <v>1.42999546896239</v>
+        <v>1.38956212635321</v>
       </c>
       <c r="AM44" t="n">
         <v>1.32797448076212</v>
@@ -6195,16 +6195,16 @@
         <v>1.10061927443154</v>
       </c>
       <c r="G45" t="n">
-        <v>938924000</v>
+        <v>1175592000</v>
       </c>
       <c r="H45" t="n">
-        <v>258207000</v>
+        <v>271705000</v>
       </c>
       <c r="I45" t="n">
-        <v>67478000</v>
+        <v>103504000</v>
       </c>
       <c r="J45" t="n">
-        <v>412938000</v>
+        <v>425960000</v>
       </c>
       <c r="K45" t="n">
         <v>2.778</v>
@@ -6249,28 +6249,28 @@
         <v>12877.99904</v>
       </c>
       <c r="Y45" t="n">
-        <v>3056</v>
+        <v>3080</v>
       </c>
       <c r="Z45" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AA45" t="n">
-        <v>18793388.8072681</v>
+        <v>17798473.6440551</v>
       </c>
       <c r="AB45" t="n">
-        <v>1162710.54545455</v>
+        <v>1115167</v>
       </c>
       <c r="AC45" t="n">
-        <v>58375.5849688421</v>
+        <v>73089.9100296627</v>
       </c>
       <c r="AD45" t="n">
-        <v>16053.4661677088</v>
+        <v>16892.6753538723</v>
       </c>
       <c r="AE45" t="n">
-        <v>4195.29985656723</v>
+        <v>6435.13910243537</v>
       </c>
       <c r="AF45" t="n">
-        <v>25673.5340729002</v>
+        <v>26483.1489804584</v>
       </c>
       <c r="AG45" t="n">
         <v>0.405760691750409</v>
@@ -6285,10 +6285,10 @@
         <v>2.77193549312489</v>
       </c>
       <c r="AK45" t="n">
-        <v>16.1634285340734</v>
+        <v>15.9603661550737</v>
       </c>
       <c r="AL45" t="n">
-        <v>2.06151832460733</v>
+        <v>2.07792207792208</v>
       </c>
       <c r="AM45" t="n">
         <v>0.843730318249138</v>
@@ -6320,16 +6320,16 @@
         <v>0.415634372785125</v>
       </c>
       <c r="G46" t="n">
-        <v>194913000</v>
+        <v>228791000</v>
       </c>
       <c r="H46" t="n">
-        <v>117302000</v>
+        <v>121967000</v>
       </c>
       <c r="I46" t="n">
-        <v>81241000</v>
+        <v>98406000</v>
       </c>
       <c r="J46" t="n">
-        <v>79684000</v>
+        <v>101003000</v>
       </c>
       <c r="K46" t="n">
         <v>4.419</v>
@@ -6374,28 +6374,28 @@
         <v>4041.90031</v>
       </c>
       <c r="Y46" t="n">
-        <v>2836</v>
+        <v>2846</v>
       </c>
       <c r="Z46" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AA46" t="n">
-        <v>853141.242348481</v>
+        <v>824527.01493929</v>
       </c>
       <c r="AB46" t="n">
-        <v>93345.1818181818</v>
+        <v>91172.0909090909</v>
       </c>
       <c r="AC46" t="n">
-        <v>32492.0688132451</v>
+        <v>38139.5438777873</v>
       </c>
       <c r="AD46" t="n">
-        <v>19554.2865582659</v>
+        <v>20331.9437746331</v>
       </c>
       <c r="AE46" t="n">
-        <v>13542.9045905447</v>
+        <v>16404.3164059667</v>
       </c>
       <c r="AF46" t="n">
-        <v>13283.3521176865</v>
+        <v>16837.2372614664</v>
       </c>
       <c r="AG46" t="n">
         <v>1.72965821734433</v>
@@ -6410,10 +6410,10 @@
         <v>8.65203661765175</v>
       </c>
       <c r="AK46" t="n">
-        <v>9.13963876582547</v>
+        <v>9.04363393136873</v>
       </c>
       <c r="AL46" t="n">
-        <v>2.39774330042313</v>
+        <v>2.49472944483486</v>
       </c>
       <c r="AM46" t="n">
         <v>0.682621269033686</v>
@@ -6445,16 +6445,16 @@
         <v>0.886214226689139</v>
       </c>
       <c r="G47" t="n">
-        <v>1530009000</v>
+        <v>2069884000</v>
       </c>
       <c r="H47" t="n">
-        <v>1769492000</v>
+        <v>1920178000</v>
       </c>
       <c r="I47" t="n">
-        <v>478453000</v>
+        <v>490532000</v>
       </c>
       <c r="J47" t="n">
-        <v>719842000</v>
+        <v>927405000</v>
       </c>
       <c r="K47" t="n">
         <v>2.583</v>
@@ -6499,28 +6499,28 @@
         <v>31660.56325</v>
       </c>
       <c r="Y47" t="n">
-        <v>13997</v>
+        <v>14042</v>
       </c>
       <c r="Z47" t="n">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="AA47" t="n">
-        <v>26947638.0765066</v>
+        <v>24658211.4333736</v>
       </c>
       <c r="AB47" t="n">
-        <v>1859435.27272727</v>
+        <v>1717753.63636364</v>
       </c>
       <c r="AC47" t="n">
-        <v>11812.9883382479</v>
+        <v>15981.2887071422</v>
       </c>
       <c r="AD47" t="n">
-        <v>13662.0035311053</v>
+        <v>14825.4293415007</v>
       </c>
       <c r="AE47" t="n">
-        <v>3694.06958351207</v>
+        <v>3787.329875535</v>
       </c>
       <c r="AF47" t="n">
-        <v>5557.80073932967</v>
+        <v>7160.36601734552</v>
       </c>
       <c r="AG47" t="n">
         <v>0.437002598668183</v>
@@ -6535,10 +6535,10 @@
         <v>6.36379874256721</v>
       </c>
       <c r="AK47" t="n">
-        <v>14.4923775899884</v>
+        <v>14.3549173242173</v>
       </c>
       <c r="AL47" t="n">
-        <v>3.78652568407516</v>
+        <v>3.56786782509614</v>
       </c>
       <c r="AM47" t="n">
         <v>1.06476789500064</v>
@@ -6570,16 +6570,16 @@
         <v>1.15428081561921</v>
       </c>
       <c r="G48" t="n">
-        <v>1807166000</v>
+        <v>1748297000</v>
       </c>
       <c r="H48" t="n">
-        <v>1048661000</v>
+        <v>657970000</v>
       </c>
       <c r="I48" t="n">
-        <v>299185000</v>
+        <v>346714000</v>
       </c>
       <c r="J48" t="n">
-        <v>586468000</v>
+        <v>1496629000</v>
       </c>
       <c r="K48" t="n">
         <v>17.33</v>
@@ -6624,28 +6624,28 @@
         <v>22381.71117</v>
       </c>
       <c r="Y48" t="n">
-        <v>8358</v>
+        <v>8388</v>
       </c>
       <c r="Z48" t="n">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="AA48" t="n">
-        <v>56649772.9710934</v>
+        <v>49859371.9973307</v>
       </c>
       <c r="AB48" t="n">
-        <v>2357680.36363636</v>
+        <v>2121671.63636364</v>
       </c>
       <c r="AC48" t="n">
-        <v>97840.2410752667</v>
+        <v>94653.0644949969</v>
       </c>
       <c r="AD48" t="n">
-        <v>56774.6654409336</v>
+        <v>35622.5955005203</v>
       </c>
       <c r="AE48" t="n">
-        <v>16197.921234742</v>
+        <v>18771.1484966904</v>
       </c>
       <c r="AF48" t="n">
-        <v>31751.4663860041</v>
+        <v>81027.7208403851</v>
       </c>
       <c r="AG48" t="n">
         <v>4.03972120562251</v>
@@ -6660,10 +6660,10 @@
         <v>18.2087010221703</v>
       </c>
       <c r="AK48" t="n">
-        <v>24.0277578949335</v>
+        <v>23.5000417325583</v>
       </c>
       <c r="AL48" t="n">
-        <v>4.79779851639148</v>
+        <v>5.04291845493562</v>
       </c>
       <c r="AM48" t="n">
         <v>0.711090702951591</v>
@@ -6695,16 +6695,16 @@
         <v>0.454595086458951</v>
       </c>
       <c r="G49" t="n">
-        <v>910892000</v>
+        <v>1188666000</v>
       </c>
       <c r="H49" t="n">
-        <v>334687000</v>
+        <v>458536000</v>
       </c>
       <c r="I49" t="n">
-        <v>66194000</v>
+        <v>134558000</v>
       </c>
       <c r="J49" t="n">
-        <v>171927000</v>
+        <v>160403000</v>
       </c>
       <c r="K49" t="n">
         <v>6.027</v>
@@ -6749,28 +6749,28 @@
         <v>7499.98375</v>
       </c>
       <c r="Y49" t="n">
-        <v>7314</v>
+        <v>7317</v>
       </c>
       <c r="Z49" t="n">
-        <v>1490</v>
+        <v>1461</v>
       </c>
       <c r="AA49" t="n">
-        <v>3836888.8225446</v>
+        <v>3665419.83439837</v>
       </c>
       <c r="AB49" t="n">
-        <v>428230.181818182</v>
+        <v>413658.454545455</v>
       </c>
       <c r="AC49" t="n">
-        <v>12815.393126083</v>
+        <v>16723.4118705714</v>
       </c>
       <c r="AD49" t="n">
-        <v>4708.73108907459</v>
+        <v>6451.1699547933</v>
       </c>
       <c r="AE49" t="n">
-        <v>931.287279488606</v>
+        <v>1893.10441661522</v>
       </c>
       <c r="AF49" t="n">
-        <v>2418.85107563582</v>
+        <v>2256.71924180154</v>
       </c>
       <c r="AG49" t="n">
         <v>1.88962602523264</v>
@@ -6785,10 +6785,10 @@
         <v>4.90926668143643</v>
       </c>
       <c r="AK49" t="n">
-        <v>8.9598748183837</v>
+        <v>8.86098130987336</v>
       </c>
       <c r="AL49" t="n">
-        <v>20.3718895269346</v>
+        <v>19.9671996719967</v>
       </c>
       <c r="AM49" t="n">
         <v>1.22100763859823</v>
@@ -6820,16 +6820,16 @@
         <v>0.926026530069277</v>
       </c>
       <c r="G50" t="n">
-        <v>1384617000</v>
+        <v>1266752000</v>
       </c>
       <c r="H50" t="n">
-        <v>349633000</v>
+        <v>293057000</v>
       </c>
       <c r="I50" t="n">
-        <v>180214000</v>
+        <v>178280000</v>
       </c>
       <c r="J50" t="n">
-        <v>624653000</v>
+        <v>828372000</v>
       </c>
       <c r="K50" t="n">
         <v>8.24</v>
@@ -6874,28 +6874,28 @@
         <v>31279.94133</v>
       </c>
       <c r="Y50" t="n">
-        <v>14307</v>
+        <v>14336</v>
       </c>
       <c r="Z50" t="n">
-        <v>987</v>
+        <v>922</v>
       </c>
       <c r="AA50" t="n">
-        <v>29697632.6623781</v>
+        <v>26808903.7945951</v>
       </c>
       <c r="AB50" t="n">
-        <v>1746585</v>
+        <v>1597912.18181818</v>
       </c>
       <c r="AC50" t="n">
-        <v>46255.0752679695</v>
+        <v>42317.6294281024</v>
       </c>
       <c r="AD50" t="n">
-        <v>11679.9813458639</v>
+        <v>9789.98061760424</v>
       </c>
       <c r="AE50" t="n">
-        <v>6020.30174000597</v>
+        <v>5955.69375413822</v>
       </c>
       <c r="AF50" t="n">
-        <v>20867.4106495608</v>
+        <v>27672.9299220495</v>
       </c>
       <c r="AG50" t="n">
         <v>1.61003536606811</v>
@@ -6910,10 +6910,10 @@
         <v>18.4577734652628</v>
       </c>
       <c r="AK50" t="n">
-        <v>17.0032564475122</v>
+        <v>16.7774575471917</v>
       </c>
       <c r="AL50" t="n">
-        <v>6.89872090585028</v>
+        <v>6.43136160714286</v>
       </c>
       <c r="AM50" t="n">
         <v>0.76250549868904</v>
@@ -6945,16 +6945,16 @@
         <v>0.330060969417718</v>
       </c>
       <c r="G51" t="n">
-        <v>374234000</v>
+        <v>443316000</v>
       </c>
       <c r="H51" t="n">
-        <v>106393000</v>
+        <v>104013000</v>
       </c>
       <c r="I51" t="n">
-        <v>42152000</v>
+        <v>25971000</v>
       </c>
       <c r="J51" t="n">
-        <v>41598000</v>
+        <v>43379000</v>
       </c>
       <c r="K51" t="n">
         <v>8.339</v>
@@ -6999,28 +6999,28 @@
         <v>3681.08069</v>
       </c>
       <c r="Y51" t="n">
-        <v>3114</v>
+        <v>3121</v>
       </c>
       <c r="Z51" t="n">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="AA51" t="n">
-        <v>604193.349038373</v>
+        <v>587548.53688917</v>
       </c>
       <c r="AB51" t="n">
-        <v>77725.3636363636</v>
+        <v>77474.8181818182</v>
       </c>
       <c r="AC51" t="n">
-        <v>23704.7169874663</v>
+        <v>28080.5066242394</v>
       </c>
       <c r="AD51" t="n">
-        <v>6739.14169863641</v>
+        <v>6588.38782156974</v>
       </c>
       <c r="AE51" t="n">
-        <v>2669.99051517414</v>
+        <v>1645.05417701622</v>
       </c>
       <c r="AF51" t="n">
-        <v>2634.89906647879</v>
+        <v>2747.71110641818</v>
       </c>
       <c r="AG51" t="n">
         <v>1.03326291268873</v>
@@ -7035,10 +7035,10 @@
         <v>6.52928338878752</v>
       </c>
       <c r="AK51" t="n">
-        <v>7.77343869197034</v>
+        <v>7.58373560180947</v>
       </c>
       <c r="AL51" t="n">
-        <v>7.38599871547848</v>
+        <v>6.56840756167895</v>
       </c>
       <c r="AM51" t="n">
         <v>1.3064420283147</v>
@@ -7070,16 +7070,16 @@
         <v>54.4927017774564</v>
       </c>
       <c r="G52" t="n">
-        <v>78869455000</v>
+        <v>82694707000</v>
       </c>
       <c r="H52" t="n">
-        <v>27457186000</v>
+        <v>28058662000</v>
       </c>
       <c r="I52" t="n">
-        <v>10083635000</v>
+        <v>11944044000</v>
       </c>
       <c r="J52" t="n">
-        <v>41353230000</v>
+        <v>38683151000</v>
       </c>
       <c r="K52" t="n">
         <v>594.466</v>
@@ -7124,28 +7124,28 @@
         <v>1414138.875</v>
       </c>
       <c r="Y52" t="n">
-        <v>617008</v>
+        <v>618005</v>
       </c>
       <c r="Z52" t="n">
-        <v>43289</v>
+        <v>42635</v>
       </c>
       <c r="AA52" t="n">
-        <v>4484124191.73576</v>
+        <v>4099589766.71407</v>
       </c>
       <c r="AB52" t="n">
-        <v>106518431.636364</v>
+        <v>98457724.9090909</v>
       </c>
       <c r="AC52" t="n">
-        <v>41654.4617114974</v>
+        <v>43674.7471689135</v>
       </c>
       <c r="AD52" t="n">
-        <v>14501.3592770796</v>
+        <v>14819.0254637216</v>
       </c>
       <c r="AE52" t="n">
-        <v>5325.61544922829</v>
+        <v>6308.18006132337</v>
       </c>
       <c r="AF52" t="n">
-        <v>21840.4772250771</v>
+        <v>20430.28992922</v>
       </c>
       <c r="AG52" t="n">
         <v>2.02816620396017</v>
@@ -7160,10 +7160,10 @@
         <v>12.9495722637872</v>
       </c>
       <c r="AK52" t="n">
-        <v>42.0971668738405</v>
+        <v>41.6380712686521</v>
       </c>
       <c r="AL52" t="n">
-        <v>7.01595441226046</v>
+        <v>6.89881149828885</v>
       </c>
       <c r="AM52" t="n">
         <v>1.12945761186873</v>
@@ -7286,7 +7286,7 @@
         <v>0.962902015623895</v>
       </c>
       <c r="C2" t="n">
-        <v>0.516728024340635</v>
+        <v>0.515701582054003</v>
       </c>
       <c r="D2" t="n">
         <v>1.19063800856473</v>
@@ -7298,7 +7298,7 @@
         <v>0.247303690051439</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3256157782792</v>
+        <v>0.324725357184392</v>
       </c>
       <c r="H2" t="n">
         <v>1.20095753318197</v>
@@ -7310,25 +7310,25 @@
         <v>0.0803042443103099</v>
       </c>
       <c r="K2" t="n">
-        <v>1.54925615887488</v>
+        <v>1.81039996105427</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01366573042944</v>
+        <v>0.915982002846847</v>
       </c>
       <c r="M2" t="n">
-        <v>0.416248893795338</v>
+        <v>0.0745934498023678</v>
       </c>
       <c r="N2" t="n">
-        <v>0.634477019924365</v>
+        <v>1.87485526749465</v>
       </c>
       <c r="O2" t="n">
-        <v>0.759721331625948</v>
+        <v>0.841280255840769</v>
       </c>
       <c r="P2" t="n">
         <v>24</v>
       </c>
       <c r="Q2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R2" t="n">
         <v>39</v>
@@ -7355,16 +7355,16 @@
         <v>42</v>
       </c>
       <c r="Z2" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -7375,7 +7375,7 @@
         <v>0.711916185094569</v>
       </c>
       <c r="C3" t="n">
-        <v>1.17030183368596</v>
+        <v>1.12324818451656</v>
       </c>
       <c r="D3" t="n">
         <v>1.34596264130962</v>
@@ -7387,7 +7387,7 @@
         <v>11.9497052625201</v>
       </c>
       <c r="G3" t="n">
-        <v>0.243600014128369</v>
+        <v>0.242222857485891</v>
       </c>
       <c r="H3" t="n">
         <v>1.25932296827019</v>
@@ -7399,19 +7399,19 @@
         <v>0.517621418333301</v>
       </c>
       <c r="K3" t="n">
-        <v>0.787061771865086</v>
+        <v>0.637774679341408</v>
       </c>
       <c r="L3" t="n">
-        <v>2.09224763945815</v>
+        <v>1.66546830937946</v>
       </c>
       <c r="M3" t="n">
-        <v>2.0087170321636</v>
+        <v>1.52243493147796</v>
       </c>
       <c r="N3" t="n">
-        <v>0.727744627570645</v>
+        <v>0.875748914004342</v>
       </c>
       <c r="O3" t="n">
-        <v>2.12388154942356</v>
+        <v>2.04982193075693</v>
       </c>
       <c r="P3" t="n">
         <v>8</v>
@@ -7441,16 +7441,16 @@
         <v>19</v>
       </c>
       <c r="Y3" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB3" t="n">
         <v>28</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>49</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>47</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>24</v>
       </c>
       <c r="AC3" t="n">
         <v>50</v>
@@ -7464,7 +7464,7 @@
         <v>0.827232449160835</v>
       </c>
       <c r="C4" t="n">
-        <v>0.196956148745464</v>
+        <v>0.182534046225988</v>
       </c>
       <c r="D4" t="n">
         <v>1.24237914943711</v>
@@ -7476,7 +7476,7 @@
         <v>1.07448226847604</v>
       </c>
       <c r="G4" t="n">
-        <v>0.559666663384983</v>
+        <v>0.56049147203475</v>
       </c>
       <c r="H4" t="n">
         <v>1.32457044516622</v>
@@ -7488,19 +7488,19 @@
         <v>0.544648075549956</v>
       </c>
       <c r="K4" t="n">
-        <v>1.59842614691794</v>
+        <v>1.74292765942563</v>
       </c>
       <c r="L4" t="n">
-        <v>1.55191712718612</v>
+        <v>1.02223904018923</v>
       </c>
       <c r="M4" t="n">
-        <v>0.506348124210848</v>
+        <v>0.490728052991164</v>
       </c>
       <c r="N4" t="n">
-        <v>1.74645255979817</v>
+        <v>0.964799028289628</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01202649798018</v>
+        <v>0.920022846358091</v>
       </c>
       <c r="P4" t="n">
         <v>14</v>
@@ -7530,19 +7530,19 @@
         <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="AA4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB4" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AC4" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -7553,7 +7553,7 @@
         <v>0.703350074118681</v>
       </c>
       <c r="C5" t="n">
-        <v>0.747851172058004</v>
+        <v>0.754133443218053</v>
       </c>
       <c r="D5" t="n">
         <v>0.777713902857697</v>
@@ -7565,7 +7565,7 @@
         <v>1.50181148805302</v>
       </c>
       <c r="G5" t="n">
-        <v>0.159671725384493</v>
+        <v>0.169308197375697</v>
       </c>
       <c r="H5" t="n">
         <v>0.534711731934298</v>
@@ -7577,25 +7577,25 @@
         <v>0.801801316909319</v>
       </c>
       <c r="K5" t="n">
-        <v>0.189367802926195</v>
+        <v>0.168061456837103</v>
       </c>
       <c r="L5" t="n">
-        <v>0.692146118592858</v>
+        <v>0.961728865575405</v>
       </c>
       <c r="M5" t="n">
-        <v>0.427663458933865</v>
+        <v>0.407687383440262</v>
       </c>
       <c r="N5" t="n">
-        <v>0.438477386973967</v>
+        <v>0.735997772078859</v>
       </c>
       <c r="O5" t="n">
-        <v>0.751011409039801</v>
+        <v>0.792683674705647</v>
       </c>
       <c r="P5" t="n">
         <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R5" t="n">
         <v>18</v>
@@ -7607,7 +7607,7 @@
         <v>36</v>
       </c>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V5" t="n">
         <v>5</v>
@@ -7619,19 +7619,19 @@
         <v>30</v>
       </c>
       <c r="Y5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AA5" t="n">
         <v>6</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -7642,7 +7642,7 @@
         <v>1.17889704516629</v>
       </c>
       <c r="C6" t="n">
-        <v>0.826827907529375</v>
+        <v>0.868816440899925</v>
       </c>
       <c r="D6" t="n">
         <v>1.23634088830418</v>
@@ -7654,7 +7654,7 @@
         <v>1.91083122080231</v>
       </c>
       <c r="G6" t="n">
-        <v>1.45688582750395</v>
+        <v>1.452384552804</v>
       </c>
       <c r="H6" t="n">
         <v>0.975860779135698</v>
@@ -7666,19 +7666,19 @@
         <v>2.40680011956145</v>
       </c>
       <c r="K6" t="n">
-        <v>1.02852053085497</v>
+        <v>1.15518084294782</v>
       </c>
       <c r="L6" t="n">
-        <v>1.21922400338898</v>
+        <v>1.39065444541261</v>
       </c>
       <c r="M6" t="n">
-        <v>1.62334737843559</v>
+        <v>1.6256828342577</v>
       </c>
       <c r="N6" t="n">
-        <v>1.55597694562182</v>
+        <v>1.67241469249178</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53032477194726</v>
+        <v>1.56527486544565</v>
       </c>
       <c r="P6" t="n">
         <v>39</v>
@@ -7708,19 +7708,19 @@
         <v>50</v>
       </c>
       <c r="Y6" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Z6" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AA6" t="n">
         <v>44</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AC6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -7731,7 +7731,7 @@
         <v>0.88505701523616</v>
       </c>
       <c r="C7" t="n">
-        <v>0.753722412223947</v>
+        <v>0.734759804000931</v>
       </c>
       <c r="D7" t="n">
         <v>1.0225022856577</v>
@@ -7743,7 +7743,7 @@
         <v>1.50973729716768</v>
       </c>
       <c r="G7" t="n">
-        <v>0.87533904264734</v>
+        <v>0.869513613943214</v>
       </c>
       <c r="H7" t="n">
         <v>1.12707667009476</v>
@@ -7755,25 +7755,25 @@
         <v>0.93313155357305</v>
       </c>
       <c r="K7" t="n">
-        <v>1.50469076457184</v>
+        <v>0.815539977411433</v>
       </c>
       <c r="L7" t="n">
-        <v>1.04647400716495</v>
+        <v>1.36385927286071</v>
       </c>
       <c r="M7" t="n">
-        <v>1.47011740706484</v>
+        <v>1.63668806644381</v>
       </c>
       <c r="N7" t="n">
-        <v>0.437563791446623</v>
+        <v>0.583871753382521</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29402313509936</v>
+        <v>1.28758660147806</v>
       </c>
       <c r="P7" t="n">
         <v>20</v>
       </c>
       <c r="Q7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R7" t="n">
         <v>31</v>
@@ -7797,19 +7797,19 @@
         <v>35</v>
       </c>
       <c r="Y7" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Z7" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AA7" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -7820,7 +7820,7 @@
         <v>0.938412583613399</v>
       </c>
       <c r="C8" t="n">
-        <v>0.75498641090284</v>
+        <v>0.749237614462901</v>
       </c>
       <c r="D8" t="n">
         <v>1.0616743167214</v>
@@ -7832,7 +7832,7 @@
         <v>1.36331208730943</v>
       </c>
       <c r="G8" t="n">
-        <v>0.696202449004145</v>
+        <v>0.705182170659824</v>
       </c>
       <c r="H8" t="n">
         <v>0.79046497462907</v>
@@ -7844,25 +7844,25 @@
         <v>0.730171283842556</v>
       </c>
       <c r="K8" t="n">
-        <v>0.56399494492717</v>
+        <v>0.532150167297021</v>
       </c>
       <c r="L8" t="n">
-        <v>0.639936920705789</v>
+        <v>0.804249988095885</v>
       </c>
       <c r="M8" t="n">
-        <v>0.62599837184498</v>
+        <v>0.59466648951511</v>
       </c>
       <c r="N8" t="n">
-        <v>0.39812868957236</v>
+        <v>0.701551470476882</v>
       </c>
       <c r="O8" t="n">
-        <v>0.704190788922192</v>
+        <v>0.735559259195295</v>
       </c>
       <c r="P8" t="n">
         <v>22</v>
       </c>
       <c r="Q8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R8" t="n">
         <v>34</v>
@@ -7886,19 +7886,19 @@
         <v>28</v>
       </c>
       <c r="Y8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AA8" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AB8" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -7909,7 +7909,7 @@
         <v>0.86222794159874</v>
       </c>
       <c r="C9" t="n">
-        <v>0.276919864168726</v>
+        <v>0.232721909788981</v>
       </c>
       <c r="D9" t="n">
         <v>1.01197418070586</v>
@@ -7921,7 +7921,7 @@
         <v>0.672648674162262</v>
       </c>
       <c r="G9" t="n">
-        <v>0.166281973819712</v>
+        <v>0.168115375826019</v>
       </c>
       <c r="H9" t="n">
         <v>1.19611646877014</v>
@@ -7933,19 +7933,19 @@
         <v>0.48657128240273</v>
       </c>
       <c r="K9" t="n">
-        <v>2.57811270527028</v>
+        <v>2.42085002760545</v>
       </c>
       <c r="L9" t="n">
-        <v>0.600910845778334</v>
+        <v>0.483717361187812</v>
       </c>
       <c r="M9" t="n">
-        <v>1.24820061643883</v>
+        <v>1.69677721115064</v>
       </c>
       <c r="N9" t="n">
-        <v>0.759749673143251</v>
+        <v>0.512024393919126</v>
       </c>
       <c r="O9" t="n">
-        <v>0.992846183073112</v>
+        <v>0.98318206647802</v>
       </c>
       <c r="P9" t="n">
         <v>18</v>
@@ -7961,7 +7961,7 @@
         <v>21</v>
       </c>
       <c r="U9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>38</v>
@@ -7973,19 +7973,19 @@
         <v>16</v>
       </c>
       <c r="Y9" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB9" t="n">
         <v>10</v>
       </c>
-      <c r="AA9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>25</v>
-      </c>
       <c r="AC9" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -7996,7 +7996,7 @@
         <v>0.841369707782568</v>
       </c>
       <c r="C10" t="n">
-        <v>0.515948879415313</v>
+        <v>0.517687513612223</v>
       </c>
       <c r="D10" t="n">
         <v>1.35670195597899</v>
@@ -8008,7 +8008,7 @@
         <v>0.255253533140758</v>
       </c>
       <c r="G10" t="n">
-        <v>1.09791433684732</v>
+        <v>1.0768984753096</v>
       </c>
       <c r="H10" t="n">
         <v>1.490901202861</v>
@@ -8020,25 +8020,25 @@
         <v>0.203670471064963</v>
       </c>
       <c r="K10" t="n">
-        <v>0.777482220496407</v>
+        <v>0.739708260250238</v>
       </c>
       <c r="L10" t="n">
-        <v>1.31380943516594</v>
+        <v>1.34533674910343</v>
       </c>
       <c r="M10" t="n">
-        <v>0.927189648955294</v>
+        <v>0.829653797929829</v>
       </c>
       <c r="N10" t="n">
-        <v>0.610153194368382</v>
+        <v>0.77893639781011</v>
       </c>
       <c r="O10" t="n">
-        <v>0.748488676983928</v>
+        <v>0.752005867658296</v>
       </c>
       <c r="P10" t="n">
         <v>15</v>
       </c>
       <c r="Q10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R10" t="n">
         <v>45</v>
@@ -8062,19 +8062,19 @@
         <v>5</v>
       </c>
       <c r="Y10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z10" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AB10" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -8085,7 +8085,7 @@
         <v>1.00746082305463</v>
       </c>
       <c r="C11" t="n">
-        <v>0.303381585947412</v>
+        <v>0.282500223604808</v>
       </c>
       <c r="D11" t="n">
         <v>1.09208351037045</v>
@@ -8097,7 +8097,7 @@
         <v>0.207385736268775</v>
       </c>
       <c r="G11" t="n">
-        <v>1.30570960805427</v>
+        <v>1.30086994634277</v>
       </c>
       <c r="H11" t="n">
         <v>1.15908539879377</v>
@@ -8109,25 +8109,25 @@
         <v>0.154125143173915</v>
       </c>
       <c r="K11" t="n">
-        <v>1.14522628022112</v>
+        <v>0.866269563333409</v>
       </c>
       <c r="L11" t="n">
-        <v>0.560889504235877</v>
+        <v>0.604394750450121</v>
       </c>
       <c r="M11" t="n">
-        <v>0.578751952002715</v>
+        <v>0.668013871016112</v>
       </c>
       <c r="N11" t="n">
-        <v>0.364111285113023</v>
+        <v>0.763648022252901</v>
       </c>
       <c r="O11" t="n">
-        <v>0.654368484723047</v>
+        <v>0.671878189448101</v>
       </c>
       <c r="P11" t="n">
         <v>27</v>
       </c>
       <c r="Q11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R11" t="n">
         <v>36</v>
@@ -8151,19 +8151,19 @@
         <v>3</v>
       </c>
       <c r="Y11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z11" t="n">
         <v>8</v>
       </c>
       <c r="AA11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC11" t="n">
         <v>8</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -8174,7 +8174,7 @@
         <v>0.385477711720376</v>
       </c>
       <c r="C12" t="n">
-        <v>1.06715220511513</v>
+        <v>0.911341145458392</v>
       </c>
       <c r="D12" t="n">
         <v>1.92562266706161</v>
@@ -8186,7 +8186,7 @@
         <v>4.00534626648696</v>
       </c>
       <c r="G12" t="n">
-        <v>0.349627982951407</v>
+        <v>0.359178262688706</v>
       </c>
       <c r="H12" t="n">
         <v>1.15324207592544</v>
@@ -8198,25 +8198,25 @@
         <v>1.09803857995593</v>
       </c>
       <c r="K12" t="n">
-        <v>0.605821545615856</v>
+        <v>0.767810867059475</v>
       </c>
       <c r="L12" t="n">
-        <v>0.95832538154166</v>
+        <v>0.884249725825525</v>
       </c>
       <c r="M12" t="n">
-        <v>0.709161699823355</v>
+        <v>0.526622346913945</v>
       </c>
       <c r="N12" t="n">
-        <v>0.354709252282592</v>
+        <v>0.59360322310441</v>
       </c>
       <c r="O12" t="n">
-        <v>1.40891740747651</v>
+        <v>1.40875136611988</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="R12" t="n">
         <v>49</v>
@@ -8226,7 +8226,7 @@
         <v>47</v>
       </c>
       <c r="U12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V12" t="n">
         <v>36</v>
@@ -8238,19 +8238,19 @@
         <v>40</v>
       </c>
       <c r="Y12" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Z12" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AA12" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AB12" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AC12" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
@@ -8261,7 +8261,7 @@
         <v>0.848492599634748</v>
       </c>
       <c r="C13" t="n">
-        <v>0.74375539049921</v>
+        <v>0.740748763744767</v>
       </c>
       <c r="D13" t="n">
         <v>1.29468714335326</v>
@@ -8273,7 +8273,7 @@
         <v>0.462173517102567</v>
       </c>
       <c r="G13" t="n">
-        <v>0.177127396165219</v>
+        <v>0.177279403347721</v>
       </c>
       <c r="H13" t="n">
         <v>0.489645221709713</v>
@@ -8285,25 +8285,25 @@
         <v>0.377543740255469</v>
       </c>
       <c r="K13" t="n">
-        <v>0.637491345186489</v>
+        <v>0.612466388533186</v>
       </c>
       <c r="L13" t="n">
-        <v>1.85573597267883</v>
+        <v>1.85011092256116</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02060764303473</v>
+        <v>1.07694515018666</v>
       </c>
       <c r="N13" t="n">
-        <v>1.09531262078614</v>
+        <v>1.46742244213623</v>
       </c>
       <c r="O13" t="n">
-        <v>0.748405357046765</v>
+        <v>0.778785564905158</v>
       </c>
       <c r="P13" t="n">
         <v>16</v>
       </c>
       <c r="Q13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R13" t="n">
         <v>43</v>
@@ -8327,19 +8327,19 @@
         <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA13" t="n">
         <v>33</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AC13" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -8350,7 +8350,7 @@
         <v>1.01257323148468</v>
       </c>
       <c r="C14" t="n">
-        <v>1.27687603621542</v>
+        <v>1.30696206874959</v>
       </c>
       <c r="D14" t="n">
         <v>0.71330165308433</v>
@@ -8362,7 +8362,7 @@
         <v>2.08746253311404</v>
       </c>
       <c r="G14" t="n">
-        <v>1.65102474924502</v>
+        <v>1.66746508889069</v>
       </c>
       <c r="H14" t="n">
         <v>0.94385377087136</v>
@@ -8374,19 +8374,19 @@
         <v>0.892059755118845</v>
       </c>
       <c r="K14" t="n">
-        <v>0.424510252034807</v>
+        <v>0.858640340882393</v>
       </c>
       <c r="L14" t="n">
-        <v>1.16967389368309</v>
+        <v>1.44234087041118</v>
       </c>
       <c r="M14" t="n">
-        <v>0.872493980501327</v>
+        <v>0.815937440532928</v>
       </c>
       <c r="N14" t="n">
-        <v>0.53126397501945</v>
+        <v>0.914049643001485</v>
       </c>
       <c r="O14" t="n">
-        <v>1.02896892824878</v>
+        <v>1.11201143330795</v>
       </c>
       <c r="P14" t="n">
         <v>29</v>
@@ -8416,19 +8416,19 @@
         <v>34</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Z14" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AA14" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB14" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
@@ -8439,7 +8439,7 @@
         <v>0.631442056562513</v>
       </c>
       <c r="C15" t="n">
-        <v>0.797538037111851</v>
+        <v>0.778389032704494</v>
       </c>
       <c r="D15" t="n">
         <v>0.694539283172075</v>
@@ -8451,7 +8451,7 @@
         <v>0.215828027601282</v>
       </c>
       <c r="G15" t="n">
-        <v>0.367724992921006</v>
+        <v>0.37031265157996</v>
       </c>
       <c r="H15" t="n">
         <v>1.40859270485939</v>
@@ -8463,19 +8463,19 @@
         <v>0.1566730484258</v>
       </c>
       <c r="K15" t="n">
-        <v>0.559991086723918</v>
+        <v>0.594470610478</v>
       </c>
       <c r="L15" t="n">
-        <v>1.23473268734862</v>
+        <v>1.57518843589917</v>
       </c>
       <c r="M15" t="n">
-        <v>2.02107524341592</v>
+        <v>2.25520585436907</v>
       </c>
       <c r="N15" t="n">
-        <v>0.349301931563738</v>
+        <v>0.471622251157641</v>
       </c>
       <c r="O15" t="n">
-        <v>0.769060761293189</v>
+        <v>0.824047288762672</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -8505,19 +8505,19 @@
         <v>4</v>
       </c>
       <c r="Y15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z15" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AA15" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB15" t="n">
         <v>6</v>
       </c>
       <c r="AC15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -8528,7 +8528,7 @@
         <v>0.940198068532067</v>
       </c>
       <c r="C16" t="n">
-        <v>2.68942355575285</v>
+        <v>2.79992165952502</v>
       </c>
       <c r="D16" t="n">
         <v>0.655709563485813</v>
@@ -8540,7 +8540,7 @@
         <v>1.67990070045308</v>
       </c>
       <c r="G16" t="n">
-        <v>0.164000220692981</v>
+        <v>0.16454320877718</v>
       </c>
       <c r="H16" t="n">
         <v>0.921191890777288</v>
@@ -8552,19 +8552,19 @@
         <v>0.698206075777335</v>
       </c>
       <c r="K16" t="n">
-        <v>0.580036170593702</v>
+        <v>0.927736902789465</v>
       </c>
       <c r="L16" t="n">
-        <v>1.33848349338995</v>
+        <v>1.41831095532336</v>
       </c>
       <c r="M16" t="n">
-        <v>0.826390795336394</v>
+        <v>0.761037031445607</v>
       </c>
       <c r="N16" t="n">
-        <v>0.627412746951545</v>
+        <v>0.658078086021186</v>
       </c>
       <c r="O16" t="n">
-        <v>0.967873098487533</v>
+        <v>1.00663316473095</v>
       </c>
       <c r="P16" t="n">
         <v>23</v>
@@ -8582,7 +8582,7 @@
         <v>40</v>
       </c>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
         <v>21</v>
@@ -8594,19 +8594,19 @@
         <v>26</v>
       </c>
       <c r="Y16" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB16" t="n">
         <v>17</v>
       </c>
-      <c r="Z16" t="n">
-        <v>43</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>21</v>
-      </c>
       <c r="AC16" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -8617,7 +8617,7 @@
         <v>1.1721709428105</v>
       </c>
       <c r="C17" t="n">
-        <v>0.730245638623</v>
+        <v>0.752350647515065</v>
       </c>
       <c r="D17" t="n">
         <v>1.01851360789158</v>
@@ -8629,7 +8629,7 @@
         <v>0.475991370122185</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0444133782408488</v>
+        <v>0.0419484007617001</v>
       </c>
       <c r="H17" t="n">
         <v>0.960229605079984</v>
@@ -8641,25 +8641,25 @@
         <v>0.590360248941378</v>
       </c>
       <c r="K17" t="n">
-        <v>0.76466574598021</v>
+        <v>1.04796580194306</v>
       </c>
       <c r="L17" t="n">
-        <v>0.663611423638985</v>
+        <v>1.29707753555288</v>
       </c>
       <c r="M17" t="n">
-        <v>0.82127537138485</v>
+        <v>0.80654803546522</v>
       </c>
       <c r="N17" t="n">
-        <v>2.59952596405598</v>
+        <v>2.5219119362704</v>
       </c>
       <c r="O17" t="n">
-        <v>0.827507817637944</v>
+        <v>0.892435881913672</v>
       </c>
       <c r="P17" t="n">
         <v>38</v>
       </c>
       <c r="Q17" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="R17" t="n">
         <v>30</v>
@@ -8683,19 +8683,19 @@
         <v>21</v>
       </c>
       <c r="Y17" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>49</v>
+      </c>
+      <c r="AC17" t="n">
         <v>25</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>48</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -8706,7 +8706,7 @@
         <v>1.51587257128961</v>
       </c>
       <c r="C18" t="n">
-        <v>0.97922942538335</v>
+        <v>1.01392684961311</v>
       </c>
       <c r="D18" t="n">
         <v>0.976117080855131</v>
@@ -8718,7 +8718,7 @@
         <v>0.276120119164176</v>
       </c>
       <c r="G18" t="n">
-        <v>0.433655495713988</v>
+        <v>0.44324104315841</v>
       </c>
       <c r="H18" t="n">
         <v>1.25977182265464</v>
@@ -8730,25 +8730,25 @@
         <v>0.456828310086719</v>
       </c>
       <c r="K18" t="n">
-        <v>0.114056488333182</v>
+        <v>0.111518480610792</v>
       </c>
       <c r="L18" t="n">
-        <v>0.677393770944755</v>
+        <v>0.687846294006106</v>
       </c>
       <c r="M18" t="n">
-        <v>0.710633983109125</v>
+        <v>0.702392393094902</v>
       </c>
       <c r="N18" t="n">
-        <v>0.769191889299988</v>
+        <v>0.982988477547346</v>
       </c>
       <c r="O18" t="n">
-        <v>0.740338861244869</v>
+        <v>0.760165975494583</v>
       </c>
       <c r="P18" t="n">
         <v>49</v>
       </c>
       <c r="Q18" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="R18" t="n">
         <v>26</v>
@@ -8772,19 +8772,19 @@
         <v>14</v>
       </c>
       <c r="Y18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>31</v>
+      </c>
+      <c r="AC18" t="n">
         <v>14</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -8795,7 +8795,7 @@
         <v>1.33483423192414</v>
       </c>
       <c r="C19" t="n">
-        <v>1.81873066514397</v>
+        <v>1.78842679248995</v>
       </c>
       <c r="D19" t="n">
         <v>0.847148706852978</v>
@@ -8807,7 +8807,7 @@
         <v>2.84724250204628</v>
       </c>
       <c r="G19" t="n">
-        <v>0.836703913490726</v>
+        <v>0.822151606602007</v>
       </c>
       <c r="H19" t="n">
         <v>1.2071085698683</v>
@@ -8819,25 +8819,25 @@
         <v>1.3513006878031</v>
       </c>
       <c r="K19" t="n">
-        <v>0.198862361550624</v>
+        <v>0.173722117779336</v>
       </c>
       <c r="L19" t="n">
-        <v>0.502762661621739</v>
+        <v>0.671326823590817</v>
       </c>
       <c r="M19" t="n">
-        <v>0.681447177163073</v>
+        <v>0.756403838784332</v>
       </c>
       <c r="N19" t="n">
-        <v>0.524985424506658</v>
+        <v>1.79164760264944</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33734814853455</v>
+        <v>1.44813173148987</v>
       </c>
       <c r="P19" t="n">
         <v>45</v>
       </c>
       <c r="Q19" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R19" t="n">
         <v>21</v>
@@ -8864,16 +8864,16 @@
         <v>4</v>
       </c>
       <c r="Z19" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AA19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB19" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="AC19" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
@@ -8884,7 +8884,7 @@
         <v>1.02135340044308</v>
       </c>
       <c r="C20" t="n">
-        <v>1.80101154409652</v>
+        <v>2.05421711988244</v>
       </c>
       <c r="D20" t="n">
         <v>0.625612978549881</v>
@@ -8896,7 +8896,7 @@
         <v>2.18823667931837</v>
       </c>
       <c r="G20" t="n">
-        <v>0.157371051710989</v>
+        <v>0.159138966112303</v>
       </c>
       <c r="H20" t="n">
         <v>0.468529312156485</v>
@@ -8908,25 +8908,25 @@
         <v>0.731509934543978</v>
       </c>
       <c r="K20" t="n">
-        <v>0.283531550793554</v>
+        <v>0.486338014323244</v>
       </c>
       <c r="L20" t="n">
-        <v>0.954290581955527</v>
+        <v>0.89293851768035</v>
       </c>
       <c r="M20" t="n">
-        <v>1.39429517042652</v>
+        <v>1.23306469630491</v>
       </c>
       <c r="N20" t="n">
-        <v>0.674447450962184</v>
+        <v>0.786226252443414</v>
       </c>
       <c r="O20" t="n">
-        <v>0.809756655769096</v>
+        <v>0.836447133984585</v>
       </c>
       <c r="P20" t="n">
         <v>32</v>
       </c>
       <c r="Q20" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R20" t="n">
         <v>6</v>
@@ -8950,19 +8950,19 @@
         <v>29</v>
       </c>
       <c r="Y20" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AB20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -8973,7 +8973,7 @@
         <v>0.908164023860228</v>
       </c>
       <c r="C21" t="n">
-        <v>0.662149607162859</v>
+        <v>0.666845279630994</v>
       </c>
       <c r="D21" t="n">
         <v>0.440839815992889</v>
@@ -8985,7 +8985,7 @@
         <v>1.01722547620757</v>
       </c>
       <c r="G21" t="n">
-        <v>1.05453671049979</v>
+        <v>1.05391666212084</v>
       </c>
       <c r="H21" t="n">
         <v>0.92257163235923</v>
@@ -8997,19 +8997,19 @@
         <v>1.47670528612808</v>
       </c>
       <c r="K21" t="n">
-        <v>0.658164294411452</v>
+        <v>0.72151598379506</v>
       </c>
       <c r="L21" t="n">
-        <v>1.08411597271324</v>
+        <v>0.866744940872148</v>
       </c>
       <c r="M21" t="n">
-        <v>0.869824568075446</v>
+        <v>0.998378698951807</v>
       </c>
       <c r="N21" t="n">
-        <v>1.37146922348106</v>
+        <v>1.92874443388422</v>
       </c>
       <c r="O21" t="n">
-        <v>0.968697472483826</v>
+        <v>1.009919443477</v>
       </c>
       <c r="P21" t="n">
         <v>21</v>
@@ -9039,19 +9039,19 @@
         <v>45</v>
       </c>
       <c r="Y21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z21" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AA21" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AB21" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AC21" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -9062,7 +9062,7 @@
         <v>0.468850004334393</v>
       </c>
       <c r="C22" t="n">
-        <v>1.239174853399</v>
+        <v>1.22541720663122</v>
       </c>
       <c r="D22" t="n">
         <v>0.807540971225226</v>
@@ -9074,7 +9074,7 @@
         <v>1.42936399639285</v>
       </c>
       <c r="G22" t="n">
-        <v>2.31876735072812</v>
+        <v>2.30989130299987</v>
       </c>
       <c r="H22" t="n">
         <v>0.574355868317638</v>
@@ -9086,19 +9086,19 @@
         <v>1.77722849689403</v>
       </c>
       <c r="K22" t="n">
-        <v>1.07013454206013</v>
+        <v>1.96434016472326</v>
       </c>
       <c r="L22" t="n">
-        <v>0.452670677401274</v>
+        <v>0.650728708326168</v>
       </c>
       <c r="M22" t="n">
-        <v>0.603802982308404</v>
+        <v>1.57231347012735</v>
       </c>
       <c r="N22" t="n">
-        <v>0.54491831084797</v>
+        <v>0.67583891445026</v>
       </c>
       <c r="O22" t="n">
-        <v>1.06698509009357</v>
+        <v>1.23383594013305</v>
       </c>
       <c r="P22" t="n">
         <v>2</v>
@@ -9128,19 +9128,19 @@
         <v>46</v>
       </c>
       <c r="Y22" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Z22" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AA22" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="AB22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC22" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
@@ -9151,7 +9151,7 @@
         <v>0.985300193268339</v>
       </c>
       <c r="C23" t="n">
-        <v>1.56628882448375</v>
+        <v>1.62581516118698</v>
       </c>
       <c r="D23" t="n">
         <v>0.651871580520042</v>
@@ -9163,7 +9163,7 @@
         <v>0.507835201423455</v>
       </c>
       <c r="G23" t="n">
-        <v>0.406517351739233</v>
+        <v>0.406770824687873</v>
       </c>
       <c r="H23" t="n">
         <v>0.980966144543844</v>
@@ -9175,25 +9175,25 @@
         <v>0.841608253333717</v>
       </c>
       <c r="K23" t="n">
-        <v>0.487641412919072</v>
+        <v>0.529653947991586</v>
       </c>
       <c r="L23" t="n">
-        <v>0.871683484381148</v>
+        <v>1.11119008174817</v>
       </c>
       <c r="M23" t="n">
-        <v>0.576790112826411</v>
+        <v>0.795250615308561</v>
       </c>
       <c r="N23" t="n">
-        <v>0.506679010197754</v>
+        <v>0.639320955301929</v>
       </c>
       <c r="O23" t="n">
-        <v>0.858165290019684</v>
+        <v>0.91142693537951</v>
       </c>
       <c r="P23" t="n">
         <v>26</v>
       </c>
       <c r="Q23" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R23" t="n">
         <v>9</v>
@@ -9220,16 +9220,16 @@
         <v>13</v>
       </c>
       <c r="Z23" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="AA23" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AB23" t="n">
         <v>15</v>
       </c>
       <c r="AC23" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
@@ -9240,7 +9240,7 @@
         <v>0.62596970062137</v>
       </c>
       <c r="C24" t="n">
-        <v>0.652674502899503</v>
+        <v>0.64652446687765</v>
       </c>
       <c r="D24" t="n">
         <v>0.548535178256708</v>
@@ -9252,7 +9252,7 @@
         <v>0.513537569516068</v>
       </c>
       <c r="G24" t="n">
-        <v>0.545462353991172</v>
+        <v>0.545748536694256</v>
       </c>
       <c r="H24" t="n">
         <v>0.379159904569281</v>
@@ -9264,19 +9264,19 @@
         <v>0.106022781470851</v>
       </c>
       <c r="K24" t="n">
-        <v>1.10252501200469</v>
+        <v>1.1576801661983</v>
       </c>
       <c r="L24" t="n">
-        <v>1.12792612582102</v>
+        <v>1.05923296454462</v>
       </c>
       <c r="M24" t="n">
-        <v>1.43985299575964</v>
+        <v>1.2416116981848</v>
       </c>
       <c r="N24" t="n">
-        <v>1.26583551267105</v>
+        <v>1.20744262556561</v>
       </c>
       <c r="O24" t="n">
-        <v>0.681272706104627</v>
+        <v>0.660039164175255</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -9306,19 +9306,19 @@
         <v>2</v>
       </c>
       <c r="Y24" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z24" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AA24" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AB24" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AC24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -9329,7 +9329,7 @@
         <v>1.51495381605685</v>
       </c>
       <c r="C25" t="n">
-        <v>0.996741126250278</v>
+        <v>0.947520537964072</v>
       </c>
       <c r="D25" t="n">
         <v>1.54291246347088</v>
@@ -9341,7 +9341,7 @@
         <v>1.52309660969029</v>
       </c>
       <c r="G25" t="n">
-        <v>0.167133198489414</v>
+        <v>0.171081032307452</v>
       </c>
       <c r="H25" t="n">
         <v>1.53131840742858</v>
@@ -9353,25 +9353,25 @@
         <v>0.829410976625785</v>
       </c>
       <c r="K25" t="n">
-        <v>0.408166415271608</v>
+        <v>0.361015755477948</v>
       </c>
       <c r="L25" t="n">
-        <v>0.750849131554518</v>
+        <v>0.660895997286178</v>
       </c>
       <c r="M25" t="n">
-        <v>0.361503187879303</v>
+        <v>0.3223151013045</v>
       </c>
       <c r="N25" t="n">
-        <v>0.474392321938377</v>
+        <v>0.503623431291169</v>
       </c>
       <c r="O25" t="n">
-        <v>0.918470495120282</v>
+        <v>0.903675608523961</v>
       </c>
       <c r="P25" t="n">
         <v>48</v>
       </c>
       <c r="Q25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R25" t="n">
         <v>47</v>
@@ -9395,16 +9395,16 @@
         <v>32</v>
       </c>
       <c r="Y25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z25" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AC25" t="n">
         <v>26</v>
@@ -9418,7 +9418,7 @@
         <v>1.03567136487733</v>
       </c>
       <c r="C26" t="n">
-        <v>1.28563075948008</v>
+        <v>1.31565828279324</v>
       </c>
       <c r="D26" t="n">
         <v>0.761143212400771</v>
@@ -9430,7 +9430,7 @@
         <v>0.48358372021235</v>
       </c>
       <c r="G26" t="n">
-        <v>0.489935777344976</v>
+        <v>0.488622518379062</v>
       </c>
       <c r="H26" t="n">
         <v>1.22581069803335</v>
@@ -9442,19 +9442,19 @@
         <v>0.630097561989759</v>
       </c>
       <c r="K26" t="n">
-        <v>0.492199851924426</v>
+        <v>0.184164197589093</v>
       </c>
       <c r="L26" t="n">
-        <v>0.343084772087207</v>
+        <v>0.402799517907058</v>
       </c>
       <c r="M26" t="n">
-        <v>0.611315932227749</v>
+        <v>0.611678494110098</v>
       </c>
       <c r="N26" t="n">
-        <v>0.94346481753431</v>
+        <v>0.857323159433624</v>
       </c>
       <c r="O26" t="n">
-        <v>0.723905486784415</v>
+        <v>0.700414275985448</v>
       </c>
       <c r="P26" t="n">
         <v>35</v>
@@ -9484,19 +9484,19 @@
         <v>22</v>
       </c>
       <c r="Y26" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="Z26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA26" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AB26" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AC26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -9507,7 +9507,7 @@
         <v>1.24702218933822</v>
       </c>
       <c r="C27" t="n">
-        <v>0.98792790173239</v>
+        <v>1.00791149865085</v>
       </c>
       <c r="D27" t="n">
         <v>1.44904900964458</v>
@@ -9519,7 +9519,7 @@
         <v>0.758295513744879</v>
       </c>
       <c r="G27" t="n">
-        <v>0.326066043441938</v>
+        <v>0.32694710711683</v>
       </c>
       <c r="H27" t="n">
         <v>0.765205732250567</v>
@@ -9531,25 +9531,25 @@
         <v>0.719870938713958</v>
       </c>
       <c r="K27" t="n">
-        <v>0.59378839873263</v>
+        <v>0.621561402529163</v>
       </c>
       <c r="L27" t="n">
-        <v>1.08857528222778</v>
+        <v>0.697829456483407</v>
       </c>
       <c r="M27" t="n">
-        <v>1.02985689615844</v>
+        <v>1.26462440290876</v>
       </c>
       <c r="N27" t="n">
-        <v>1.06888234769717</v>
+        <v>0.80322272519293</v>
       </c>
       <c r="O27" t="n">
-        <v>0.796817975040834</v>
+        <v>0.768125646032495</v>
       </c>
       <c r="P27" t="n">
         <v>44</v>
       </c>
       <c r="Q27" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R27" t="n">
         <v>46</v>
@@ -9573,19 +9573,19 @@
         <v>27</v>
       </c>
       <c r="Y27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z27" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="AA27" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AC27" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -9596,7 +9596,7 @@
         <v>0.879222886481179</v>
       </c>
       <c r="C28" t="n">
-        <v>1.18869769530797</v>
+        <v>1.15311720559426</v>
       </c>
       <c r="D28" t="n">
         <v>0.991561305540477</v>
@@ -9608,7 +9608,7 @@
         <v>1.46642993117685</v>
       </c>
       <c r="G28" t="n">
-        <v>0.282163388494823</v>
+        <v>0.284207589878237</v>
       </c>
       <c r="H28" t="n">
         <v>0.791789118284803</v>
@@ -9620,19 +9620,19 @@
         <v>2.32833192028889</v>
       </c>
       <c r="K28" t="n">
-        <v>0.245192332694368</v>
+        <v>0.851955674470735</v>
       </c>
       <c r="L28" t="n">
-        <v>0.957060884831894</v>
+        <v>1.03466134647092</v>
       </c>
       <c r="M28" t="n">
-        <v>1.44956538424779</v>
+        <v>1.01981682209785</v>
       </c>
       <c r="N28" t="n">
-        <v>0.826051651784619</v>
+        <v>0.640265241214397</v>
       </c>
       <c r="O28" t="n">
-        <v>0.960714790155305</v>
+        <v>0.963429601106455</v>
       </c>
       <c r="P28" t="n">
         <v>19</v>
@@ -9662,19 +9662,19 @@
         <v>49</v>
       </c>
       <c r="Y28" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="Z28" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AA28" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AB28" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AC28" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -9685,7 +9685,7 @@
         <v>0.720584808102407</v>
       </c>
       <c r="C29" t="n">
-        <v>0.199972724132202</v>
+        <v>0.202975500267081</v>
       </c>
       <c r="D29" t="n">
         <v>1.69784498017874</v>
@@ -9697,7 +9697,7 @@
         <v>0.09353235492132</v>
       </c>
       <c r="G29" t="n">
-        <v>0.862009780880241</v>
+        <v>0.868672359282281</v>
       </c>
       <c r="H29" t="n">
         <v>1.02481487117751</v>
@@ -9709,25 +9709,25 @@
         <v>0.372209387518899</v>
       </c>
       <c r="K29" t="n">
-        <v>2.39638764080743</v>
+        <v>2.5116781562054</v>
       </c>
       <c r="L29" t="n">
-        <v>1.38927690765229</v>
+        <v>1.21670878103709</v>
       </c>
       <c r="M29" t="n">
-        <v>0.86043921901568</v>
+        <v>0.830373312231787</v>
       </c>
       <c r="N29" t="n">
-        <v>1.2017866453378</v>
+        <v>1.17248108931403</v>
       </c>
       <c r="O29" t="n">
-        <v>0.889003388820175</v>
+        <v>0.880773871936486</v>
       </c>
       <c r="P29" t="n">
         <v>9</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
         <v>48</v>
@@ -9751,19 +9751,19 @@
         <v>11</v>
       </c>
       <c r="Y29" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Z29" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AA29" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AB29" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AC29" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
@@ -9774,7 +9774,7 @@
         <v>0.781944574133543</v>
       </c>
       <c r="C30" t="n">
-        <v>1.09423280203546</v>
+        <v>1.0881460183394</v>
       </c>
       <c r="D30" t="n">
         <v>0.604228213369788</v>
@@ -9786,7 +9786,7 @@
         <v>0.641309131202762</v>
       </c>
       <c r="G30" t="n">
-        <v>0.419438707140813</v>
+        <v>0.418919158277308</v>
       </c>
       <c r="H30" t="n">
         <v>0.348630403342029</v>
@@ -9798,19 +9798,19 @@
         <v>0.338910684938178</v>
       </c>
       <c r="K30" t="n">
-        <v>2.25707260333515</v>
+        <v>2.2823161386892</v>
       </c>
       <c r="L30" t="n">
-        <v>0.865955325462978</v>
+        <v>0.608780120066088</v>
       </c>
       <c r="M30" t="n">
-        <v>0.957201517860431</v>
+        <v>0.888880110941142</v>
       </c>
       <c r="N30" t="n">
-        <v>1.09341412119001</v>
+        <v>1.73870298006314</v>
       </c>
       <c r="O30" t="n">
-        <v>0.725928453335444</v>
+        <v>0.751961487900939</v>
       </c>
       <c r="P30" t="n">
         <v>13</v>
@@ -9840,16 +9840,16 @@
         <v>8</v>
       </c>
       <c r="Y30" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z30" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AA30" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AB30" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="AC30" t="n">
         <v>12</v>
@@ -9863,7 +9863,7 @@
         <v>0.530661002236071</v>
       </c>
       <c r="C31" t="n">
-        <v>1.01059959428517</v>
+        <v>0.96919014304478</v>
       </c>
       <c r="D31" t="n">
         <v>0.686959064832504</v>
@@ -9875,7 +9875,7 @@
         <v>1.06119442790578</v>
       </c>
       <c r="G31" t="n">
-        <v>0.224291060212777</v>
+        <v>0.221059183860591</v>
       </c>
       <c r="H31" t="n">
         <v>0.805813087578887</v>
@@ -9887,25 +9887,25 @@
         <v>1.18582463776774</v>
       </c>
       <c r="K31" t="n">
-        <v>1.15274339678796</v>
+        <v>0.485594466464321</v>
       </c>
       <c r="L31" t="n">
-        <v>1.51547958929159</v>
+        <v>1.31262650900931</v>
       </c>
       <c r="M31" t="n">
-        <v>1.4544627623488</v>
+        <v>0.701083681298387</v>
       </c>
       <c r="N31" t="n">
-        <v>1.53247905921158</v>
+        <v>1.37344630572542</v>
       </c>
       <c r="O31" t="n">
-        <v>0.988792205289347</v>
+        <v>0.848249499694341</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
       </c>
       <c r="Q31" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R31" t="n">
         <v>13</v>
@@ -9929,19 +9929,19 @@
         <v>41</v>
       </c>
       <c r="Y31" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Z31" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AA31" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="AB31" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC31" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
@@ -9952,7 +9952,7 @@
         <v>1.01792959779074</v>
       </c>
       <c r="C32" t="n">
-        <v>0.736564344592009</v>
+        <v>0.715237993019417</v>
       </c>
       <c r="D32" t="n">
         <v>0.992565112535595</v>
@@ -9964,7 +9964,7 @@
         <v>1.45348024399299</v>
       </c>
       <c r="G32" t="n">
-        <v>0.408958552579765</v>
+        <v>0.409090328593373</v>
       </c>
       <c r="H32" t="n">
         <v>2.05554070112768</v>
@@ -9976,25 +9976,25 @@
         <v>1.08199912593443</v>
       </c>
       <c r="K32" t="n">
-        <v>2.56642005149904</v>
+        <v>1.97758053743669</v>
       </c>
       <c r="L32" t="n">
-        <v>0.557340449619682</v>
+        <v>0.642516336468333</v>
       </c>
       <c r="M32" t="n">
-        <v>0.198587275354868</v>
+        <v>0.353053628029115</v>
       </c>
       <c r="N32" t="n">
-        <v>0.829565528118993</v>
+        <v>1.20315555656038</v>
       </c>
       <c r="O32" t="n">
-        <v>1.12003319793924</v>
+        <v>1.12027921165793</v>
       </c>
       <c r="P32" t="n">
         <v>31</v>
       </c>
       <c r="Q32" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R32" t="n">
         <v>28</v>
@@ -10018,16 +10018,16 @@
         <v>39</v>
       </c>
       <c r="Y32" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Z32" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AA32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB32" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AC32" t="n">
         <v>38</v>
@@ -10041,7 +10041,7 @@
         <v>0.757185487780392</v>
       </c>
       <c r="C33" t="n">
-        <v>1.35752764011878</v>
+        <v>1.33005914245145</v>
       </c>
       <c r="D33" t="n">
         <v>0.60539266211617</v>
@@ -10053,7 +10053,7 @@
         <v>1.04714118956496</v>
       </c>
       <c r="G33" t="n">
-        <v>2.2000423237579</v>
+        <v>2.30929985517762</v>
       </c>
       <c r="H33" t="n">
         <v>0.834104015739387</v>
@@ -10065,19 +10065,19 @@
         <v>1.83817212531712</v>
       </c>
       <c r="K33" t="n">
-        <v>1.19116151503204</v>
+        <v>1.48584365602933</v>
       </c>
       <c r="L33" t="n">
-        <v>1.57778965798763</v>
+        <v>1.34681657948293</v>
       </c>
       <c r="M33" t="n">
-        <v>1.9476968118114</v>
+        <v>1.57670741911736</v>
       </c>
       <c r="N33" t="n">
-        <v>4.92244722969976</v>
+        <v>1.49532452663704</v>
       </c>
       <c r="O33" t="n">
-        <v>1.69846263945089</v>
+        <v>1.41749233179614</v>
       </c>
       <c r="P33" t="n">
         <v>11</v>
@@ -10107,19 +10107,19 @@
         <v>47</v>
       </c>
       <c r="Y33" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC33" t="n">
         <v>47</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>49</v>
       </c>
     </row>
     <row r="34">
@@ -10130,7 +10130,7 @@
         <v>1.16521116534016</v>
       </c>
       <c r="C34" t="n">
-        <v>1.0004517402772</v>
+        <v>1.00346994190991</v>
       </c>
       <c r="D34" t="n">
         <v>0.912212683281202</v>
@@ -10142,7 +10142,7 @@
         <v>0.494584984319286</v>
       </c>
       <c r="G34" t="n">
-        <v>0.37289202973611</v>
+        <v>0.37156676293376</v>
       </c>
       <c r="H34" t="n">
         <v>0.864608233736698</v>
@@ -10154,25 +10154,25 @@
         <v>0.371215436017387</v>
       </c>
       <c r="K34" t="n">
-        <v>0.312131193768013</v>
+        <v>0.0917240440009156</v>
       </c>
       <c r="L34" t="n">
-        <v>0.631277954877626</v>
+        <v>0.572642466696127</v>
       </c>
       <c r="M34" t="n">
-        <v>0.460416710264119</v>
+        <v>0.403640527833352</v>
       </c>
       <c r="N34" t="n">
-        <v>0.323879261699082</v>
+        <v>0.147138236099932</v>
       </c>
       <c r="O34" t="n">
-        <v>0.603479480098814</v>
+        <v>0.56418202539511</v>
       </c>
       <c r="P34" t="n">
         <v>37</v>
       </c>
       <c r="Q34" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R34" t="n">
         <v>22</v>
@@ -10196,19 +10196,19 @@
         <v>10</v>
       </c>
       <c r="Y34" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Z34" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AA34" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AB34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -10219,7 +10219,7 @@
         <v>0.980315025856354</v>
       </c>
       <c r="C35" t="n">
-        <v>1.59995398218152</v>
+        <v>1.520291385455</v>
       </c>
       <c r="D35" t="n">
         <v>0.83177107600089</v>
@@ -10231,7 +10231,7 @@
         <v>0.657837807509723</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0896061283597528</v>
+        <v>0.0890588039401099</v>
       </c>
       <c r="H35" t="n">
         <v>0.540183435153017</v>
@@ -10243,25 +10243,25 @@
         <v>0.679878219573064</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4368255062519</v>
+        <v>0.548415400581526</v>
       </c>
       <c r="L35" t="n">
-        <v>1.22976011605008</v>
+        <v>1.01363262542014</v>
       </c>
       <c r="M35" t="n">
-        <v>0.414098270871378</v>
+        <v>0.646761458132005</v>
       </c>
       <c r="N35" t="n">
-        <v>1.11119217223569</v>
+        <v>0.550056009093485</v>
       </c>
       <c r="O35" t="n">
-        <v>0.679682706176148</v>
+        <v>0.640204206689375</v>
       </c>
       <c r="P35" t="n">
         <v>25</v>
       </c>
       <c r="Q35" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R35" t="n">
         <v>20</v>
@@ -10285,19 +10285,19 @@
         <v>25</v>
       </c>
       <c r="Y35" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Z35" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="AA35" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AB35" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="AC35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -10308,7 +10308,7 @@
         <v>1.03362705989993</v>
       </c>
       <c r="C36" t="n">
-        <v>0.700298573015285</v>
+        <v>0.656508210796466</v>
       </c>
       <c r="D36" t="n">
         <v>0.645454480875728</v>
@@ -10320,7 +10320,7 @@
         <v>0.359884254162025</v>
       </c>
       <c r="G36" t="n">
-        <v>0.27655382045761</v>
+        <v>0.275904091062417</v>
       </c>
       <c r="H36" t="n">
         <v>0.789450714814881</v>
@@ -10332,25 +10332,25 @@
         <v>0.994401635807597</v>
       </c>
       <c r="K36" t="n">
-        <v>1.42226364056135</v>
+        <v>0.619256288369323</v>
       </c>
       <c r="L36" t="n">
-        <v>0.696801883973359</v>
+        <v>0.550487871494477</v>
       </c>
       <c r="M36" t="n">
-        <v>0.441939685705447</v>
+        <v>0.761022038067142</v>
       </c>
       <c r="N36" t="n">
-        <v>0.510658230765155</v>
+        <v>0.808100705170121</v>
       </c>
       <c r="O36" t="n">
-        <v>0.723455970524344</v>
+        <v>0.694437768253709</v>
       </c>
       <c r="P36" t="n">
         <v>34</v>
       </c>
       <c r="Q36" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R36" t="n">
         <v>8</v>
@@ -10374,19 +10374,19 @@
         <v>36</v>
       </c>
       <c r="Y36" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="Z36" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AA36" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AB36" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AC36" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -10397,7 +10397,7 @@
         <v>1.36899145364781</v>
       </c>
       <c r="C37" t="n">
-        <v>1.40936314311945</v>
+        <v>1.37910150412471</v>
       </c>
       <c r="D37" t="n">
         <v>1.04972341585579</v>
@@ -10409,7 +10409,7 @@
         <v>2.14505579473424</v>
       </c>
       <c r="G37" t="n">
-        <v>0.345014881092198</v>
+        <v>0.359464631903617</v>
       </c>
       <c r="H37" t="n">
         <v>1.10168250765711</v>
@@ -10421,19 +10421,19 @@
         <v>0.80719930728236</v>
       </c>
       <c r="K37" t="n">
-        <v>1.44857951186693</v>
+        <v>1.18388409210508</v>
       </c>
       <c r="L37" t="n">
-        <v>1.24622263724941</v>
+        <v>1.28313807393548</v>
       </c>
       <c r="M37" t="n">
-        <v>1.76624007267497</v>
+        <v>1.58956242869372</v>
       </c>
       <c r="N37" t="n">
-        <v>1.14096906644228</v>
+        <v>1.49787031107506</v>
       </c>
       <c r="O37" t="n">
-        <v>1.22800723229161</v>
+        <v>1.22313274993718</v>
       </c>
       <c r="P37" t="n">
         <v>46</v>
@@ -10451,7 +10451,7 @@
         <v>43</v>
       </c>
       <c r="U37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V37" t="n">
         <v>33</v>
@@ -10463,16 +10463,16 @@
         <v>31</v>
       </c>
       <c r="Y37" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z37" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AA37" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AB37" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AC37" t="n">
         <v>40</v>
@@ -10486,7 +10486,7 @@
         <v>1.18594338015712</v>
       </c>
       <c r="C38" t="n">
-        <v>0.661169788909581</v>
+        <v>0.69535059369259</v>
       </c>
       <c r="D38" t="n">
         <v>1.26569002504147</v>
@@ -10498,7 +10498,7 @@
         <v>0.881566449933072</v>
       </c>
       <c r="G38" t="n">
-        <v>1.23336602841216</v>
+        <v>1.22891688956309</v>
       </c>
       <c r="H38" t="n">
         <v>1.05457991939433</v>
@@ -10510,25 +10510,25 @@
         <v>0.63854454017317</v>
       </c>
       <c r="K38" t="n">
-        <v>1.49600314255437</v>
+        <v>1.44799247061073</v>
       </c>
       <c r="L38" t="n">
-        <v>1.31973789755066</v>
+        <v>1.15765625653939</v>
       </c>
       <c r="M38" t="n">
-        <v>1.14118751380326</v>
+        <v>1.72312458494794</v>
       </c>
       <c r="N38" t="n">
-        <v>2.88430499661617</v>
+        <v>1.2279341031091</v>
       </c>
       <c r="O38" t="n">
-        <v>1.13477418203764</v>
+        <v>1.03825153054661</v>
       </c>
       <c r="P38" t="n">
         <v>40</v>
       </c>
       <c r="Q38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R38" t="n">
         <v>42</v>
@@ -10552,19 +10552,19 @@
         <v>23</v>
       </c>
       <c r="Y38" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z38" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AA38" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="AB38" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AC38" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
@@ -10575,7 +10575,7 @@
         <v>1.03362303470167</v>
       </c>
       <c r="C39" t="n">
-        <v>1.9676173751343</v>
+        <v>1.94419529291073</v>
       </c>
       <c r="D39" t="n">
         <v>0.671524438807352</v>
@@ -10587,7 +10587,7 @@
         <v>1.28223694094914</v>
       </c>
       <c r="G39" t="n">
-        <v>1.4165763338024</v>
+        <v>1.42279368614414</v>
       </c>
       <c r="H39" t="n">
         <v>0.944496051830943</v>
@@ -10599,25 +10599,25 @@
         <v>1.03739120569679</v>
       </c>
       <c r="K39" t="n">
-        <v>1.44790034675212</v>
+        <v>0.864166628183079</v>
       </c>
       <c r="L39" t="n">
-        <v>0.918276456659411</v>
+        <v>0.734087623194905</v>
       </c>
       <c r="M39" t="n">
-        <v>1.19698715367513</v>
+        <v>1.25559598033304</v>
       </c>
       <c r="N39" t="n">
-        <v>1.71730286127374</v>
+        <v>1.12581473724963</v>
       </c>
       <c r="O39" t="n">
-        <v>1.24027261269611</v>
+        <v>1.13888749121291</v>
       </c>
       <c r="P39" t="n">
         <v>33</v>
       </c>
       <c r="Q39" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R39" t="n">
         <v>11</v>
@@ -10641,19 +10641,19 @@
         <v>37</v>
       </c>
       <c r="Y39" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Z39" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA39" t="n">
         <v>37</v>
       </c>
       <c r="AB39" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="AC39" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
@@ -10664,7 +10664,7 @@
         <v>0.776981612854946</v>
       </c>
       <c r="C40" t="n">
-        <v>2.48836848418625</v>
+        <v>2.40354917034247</v>
       </c>
       <c r="D40" t="n">
         <v>0.919216296190194</v>
@@ -10676,7 +10676,7 @@
         <v>6.01416153420629</v>
       </c>
       <c r="G40" t="n">
-        <v>0.997691842918274</v>
+        <v>1.00869225495611</v>
       </c>
       <c r="H40" t="n">
         <v>0.807157810203745</v>
@@ -10688,25 +10688,25 @@
         <v>1.95181141564677</v>
       </c>
       <c r="K40" t="n">
-        <v>0.932199205089564</v>
+        <v>0.63344989759659</v>
       </c>
       <c r="L40" t="n">
-        <v>0.963730754450845</v>
+        <v>1.08369584726458</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01080087330483</v>
+        <v>0.958097184282389</v>
       </c>
       <c r="N40" t="n">
-        <v>0.304340317240147</v>
+        <v>0.497290347178105</v>
       </c>
       <c r="O40" t="n">
-        <v>1.33026274525362</v>
+        <v>1.32161991636364</v>
       </c>
       <c r="P40" t="n">
         <v>12</v>
       </c>
       <c r="Q40" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R40" t="n">
         <v>23</v>
@@ -10730,19 +10730,19 @@
         <v>48</v>
       </c>
       <c r="Y40" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Z40" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AA40" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB40" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AC40" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41">
@@ -10753,7 +10753,7 @@
         <v>1.39872883901929</v>
       </c>
       <c r="C41" t="n">
-        <v>0.757036819914662</v>
+        <v>0.733450135971662</v>
       </c>
       <c r="D41" t="n">
         <v>2.25421314652242</v>
@@ -10765,7 +10765,7 @@
         <v>0.681805789049358</v>
       </c>
       <c r="G41" t="n">
-        <v>0.385339173014517</v>
+        <v>0.391087371864912</v>
       </c>
       <c r="H41" t="n">
         <v>1.01018568280251</v>
@@ -10777,25 +10777,25 @@
         <v>0.233720614525572</v>
       </c>
       <c r="K41" t="n">
-        <v>0.195631679886517</v>
+        <v>0.201963362367075</v>
       </c>
       <c r="L41" t="n">
-        <v>0.468956268446667</v>
+        <v>0.393675308738209</v>
       </c>
       <c r="M41" t="n">
-        <v>0.264211914053101</v>
+        <v>0.390636257100656</v>
       </c>
       <c r="N41" t="n">
-        <v>0.067086024290674</v>
+        <v>0.0156422692858408</v>
       </c>
       <c r="O41" t="n">
-        <v>0.668901139737924</v>
+        <v>0.66799289556271</v>
       </c>
       <c r="P41" t="n">
         <v>47</v>
       </c>
       <c r="Q41" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R41" t="n">
         <v>50</v>
@@ -10819,19 +10819,19 @@
         <v>7</v>
       </c>
       <c r="Y41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -10842,7 +10842,7 @@
         <v>1.2053845360819</v>
       </c>
       <c r="C42" t="n">
-        <v>2.46513530619309</v>
+        <v>2.44823967773744</v>
       </c>
       <c r="D42" t="n">
         <v>1.04063910554568</v>
@@ -10854,7 +10854,7 @@
         <v>0.732590028203259</v>
       </c>
       <c r="G42" t="n">
-        <v>0.224887252161261</v>
+        <v>0.230342607379916</v>
       </c>
       <c r="H42" t="n">
         <v>1.08493907754782</v>
@@ -10866,25 +10866,25 @@
         <v>0.460550232764313</v>
       </c>
       <c r="K42" t="n">
-        <v>2.28104431839105</v>
+        <v>2.04272657046487</v>
       </c>
       <c r="L42" t="n">
-        <v>0.752132042046675</v>
+        <v>1.09469070152541</v>
       </c>
       <c r="M42" t="n">
-        <v>1.19191809832263</v>
+        <v>1.36347341102039</v>
       </c>
       <c r="N42" t="n">
-        <v>0.943238948901219</v>
+        <v>0.579893095230251</v>
       </c>
       <c r="O42" t="n">
-        <v>0.985316702740675</v>
+        <v>0.977702094843932</v>
       </c>
       <c r="P42" t="n">
         <v>41</v>
       </c>
       <c r="Q42" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R42" t="n">
         <v>32</v>
@@ -10908,16 +10908,16 @@
         <v>15</v>
       </c>
       <c r="Y42" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="AA42" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AB42" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AC42" t="n">
         <v>31</v>
@@ -10931,7 +10931,7 @@
         <v>1.22809003849499</v>
       </c>
       <c r="C43" t="n">
-        <v>0.589590526912428</v>
+        <v>0.626702438326855</v>
       </c>
       <c r="D43" t="n">
         <v>0.946020766664986</v>
@@ -10943,7 +10943,7 @@
         <v>0.581558900627783</v>
       </c>
       <c r="G43" t="n">
-        <v>0.460949298655674</v>
+        <v>0.461073278448104</v>
       </c>
       <c r="H43" t="n">
         <v>1.38736872660366</v>
@@ -10955,19 +10955,19 @@
         <v>0.360380577447544</v>
       </c>
       <c r="K43" t="n">
-        <v>0.7795391902921</v>
+        <v>0.838808474154994</v>
       </c>
       <c r="L43" t="n">
-        <v>0.584635247165958</v>
+        <v>0.645659303493275</v>
       </c>
       <c r="M43" t="n">
-        <v>0.541028508302148</v>
+        <v>0.641854490282139</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0318411289100184</v>
+        <v>0.0370757295968931</v>
       </c>
       <c r="O43" t="n">
-        <v>0.641305924348987</v>
+        <v>0.661582063892366</v>
       </c>
       <c r="P43" t="n">
         <v>42</v>
@@ -10997,19 +10997,19 @@
         <v>9</v>
       </c>
       <c r="Y43" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z43" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AA43" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -11020,7 +11020,7 @@
         <v>1.22941968020912</v>
       </c>
       <c r="C44" t="n">
-        <v>0.203820518910935</v>
+        <v>0.201420509416422</v>
       </c>
       <c r="D44" t="n">
         <v>1.17576300943683</v>
@@ -11032,7 +11032,7 @@
         <v>0.409812334004317</v>
       </c>
       <c r="G44" t="n">
-        <v>1.09830929853577</v>
+        <v>1.09945802401948</v>
       </c>
       <c r="H44" t="n">
         <v>1.03220132670028</v>
@@ -11044,25 +11044,25 @@
         <v>1.03916108331942</v>
       </c>
       <c r="K44" t="n">
-        <v>0.326116835081439</v>
+        <v>1.42253349498321</v>
       </c>
       <c r="L44" t="n">
-        <v>1.09305150364504</v>
+        <v>1.1094519518924</v>
       </c>
       <c r="M44" t="n">
-        <v>0.660287328800107</v>
+        <v>0.744669620476284</v>
       </c>
       <c r="N44" t="n">
-        <v>1.0501128822591</v>
+        <v>0.681244263105476</v>
       </c>
       <c r="O44" t="n">
-        <v>0.828210603628586</v>
+        <v>0.891832103371731</v>
       </c>
       <c r="P44" t="n">
         <v>43</v>
       </c>
       <c r="Q44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R44" t="n">
         <v>38</v>
@@ -11086,19 +11086,19 @@
         <v>38</v>
       </c>
       <c r="Y44" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="Z44" t="n">
         <v>32</v>
       </c>
       <c r="AA44" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB44" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="AC44" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
@@ -11109,7 +11109,7 @@
         <v>0.658623203131136</v>
       </c>
       <c r="C45" t="n">
-        <v>0.293832913310384</v>
+        <v>0.301200007919839</v>
       </c>
       <c r="D45" t="n">
         <v>0.747022561433848</v>
@@ -11121,7 +11121,7 @@
         <v>0.360706624595331</v>
       </c>
       <c r="G45" t="n">
-        <v>0.383955257191369</v>
+        <v>0.383311850640155</v>
       </c>
       <c r="H45" t="n">
         <v>0.714071947754945</v>
@@ -11133,25 +11133,25 @@
         <v>0.214056143064776</v>
       </c>
       <c r="K45" t="n">
-        <v>0.5852329814977</v>
+        <v>0.833832262742034</v>
       </c>
       <c r="L45" t="n">
-        <v>1.29864760366194</v>
+        <v>1.61961278632525</v>
       </c>
       <c r="M45" t="n">
-        <v>0.99414843496</v>
+        <v>1.10835170865135</v>
       </c>
       <c r="N45" t="n">
-        <v>2.1028241744726</v>
+        <v>1.06841544118475</v>
       </c>
       <c r="O45" t="n">
-        <v>0.696085103234056</v>
+        <v>0.669629925724008</v>
       </c>
       <c r="P45" t="n">
         <v>6</v>
       </c>
       <c r="Q45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R45" t="n">
         <v>16</v>
@@ -11175,19 +11175,19 @@
         <v>6</v>
       </c>
       <c r="Y45" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="Z45" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AA45" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AB45" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AC45" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -11198,7 +11198,7 @@
         <v>0.728389601852771</v>
       </c>
       <c r="C46" t="n">
-        <v>0.341755826724451</v>
+        <v>0.361617279360892</v>
       </c>
       <c r="D46" t="n">
         <v>0.604379714528872</v>
@@ -11210,7 +11210,7 @@
         <v>4.06778496411948</v>
       </c>
       <c r="G46" t="n">
-        <v>0.217108167711517</v>
+        <v>0.217196273886427</v>
       </c>
       <c r="H46" t="n">
         <v>0.62950748601902</v>
@@ -11222,19 +11222,19 @@
         <v>0.668133004041122</v>
       </c>
       <c r="K46" t="n">
-        <v>3.21323516654104</v>
+        <v>3.27771217085671</v>
       </c>
       <c r="L46" t="n">
-        <v>1.20869058356797</v>
+        <v>1.17740773738128</v>
       </c>
       <c r="M46" t="n">
-        <v>2.12686000552806</v>
+        <v>2.12006720355678</v>
       </c>
       <c r="N46" t="n">
-        <v>1.82928122828918</v>
+        <v>2.45435413525556</v>
       </c>
       <c r="O46" t="n">
-        <v>1.27831316330516</v>
+        <v>1.32996114960789</v>
       </c>
       <c r="P46" t="n">
         <v>10</v>
@@ -11270,13 +11270,13 @@
         <v>35</v>
       </c>
       <c r="AA46" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB46" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC46" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47">
@@ -11287,7 +11287,7 @@
         <v>1.01402085248339</v>
       </c>
       <c r="C47" t="n">
-        <v>0.539702150495471</v>
+        <v>0.5171713745159</v>
       </c>
       <c r="D47" t="n">
         <v>0.942724971536502</v>
@@ -11299,7 +11299,7 @@
         <v>0.314793685167137</v>
       </c>
       <c r="G47" t="n">
-        <v>0.344260164429119</v>
+        <v>0.344754617273173</v>
       </c>
       <c r="H47" t="n">
         <v>0.675231899800876</v>
@@ -11311,25 +11311,25 @@
         <v>0.491429262135802</v>
       </c>
       <c r="K47" t="n">
-        <v>0.592988975689626</v>
+        <v>0.493713432814055</v>
       </c>
       <c r="L47" t="n">
-        <v>0.278430087398674</v>
+        <v>0.36833713252862</v>
       </c>
       <c r="M47" t="n">
-        <v>0.889258787678163</v>
+        <v>0.925357881065517</v>
       </c>
       <c r="N47" t="n">
-        <v>0.431981659495119</v>
+        <v>0.388413436804712</v>
       </c>
       <c r="O47" t="n">
-        <v>0.577209631241128</v>
+        <v>0.574219327380805</v>
       </c>
       <c r="P47" t="n">
         <v>30</v>
       </c>
       <c r="Q47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R47" t="n">
         <v>24</v>
@@ -11353,19 +11353,19 @@
         <v>17</v>
       </c>
       <c r="Y47" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Z47" t="n">
         <v>1</v>
       </c>
       <c r="AA47" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB47" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AC47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -11376,7 +11376,7 @@
         <v>1.09303025855687</v>
       </c>
       <c r="C48" t="n">
-        <v>0.68384117604973</v>
+        <v>0.730983656559749</v>
       </c>
       <c r="D48" t="n">
         <v>0.629586002590273</v>
@@ -11388,7 +11388,7 @@
         <v>0.822032897188785</v>
       </c>
       <c r="G48" t="n">
-        <v>0.570769001318818</v>
+        <v>0.564388335399451</v>
       </c>
       <c r="H48" t="n">
         <v>0.546691189135125</v>
@@ -11400,25 +11400,25 @@
         <v>1.40612374302817</v>
       </c>
       <c r="K48" t="n">
-        <v>2.1998940309709</v>
+        <v>2.39810372699096</v>
       </c>
       <c r="L48" t="n">
-        <v>2.093549793367</v>
+        <v>1.99379826271103</v>
       </c>
       <c r="M48" t="n">
-        <v>3.37165972781776</v>
+        <v>2.27521387953314</v>
       </c>
       <c r="N48" t="n">
-        <v>2.03876841612662</v>
+        <v>3.10177838261573</v>
       </c>
       <c r="O48" t="n">
-        <v>1.40275101341146</v>
+        <v>1.4108882517314</v>
       </c>
       <c r="P48" t="n">
         <v>36</v>
       </c>
       <c r="Q48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R48" t="n">
         <v>7</v>
@@ -11442,7 +11442,7 @@
         <v>43</v>
       </c>
       <c r="Y48" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Z48" t="n">
         <v>50</v>
@@ -11451,7 +11451,7 @@
         <v>50</v>
       </c>
       <c r="AB48" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AC48" t="n">
         <v>46</v>
@@ -11465,7 +11465,7 @@
         <v>1.60756361986426</v>
       </c>
       <c r="C49" t="n">
-        <v>2.90365192386863</v>
+        <v>2.89429558655854</v>
       </c>
       <c r="D49" t="n">
         <v>1.08105662910007</v>
@@ -11477,7 +11477,7 @@
         <v>2.55048959323517</v>
       </c>
       <c r="G49" t="n">
-        <v>0.212837952854054</v>
+        <v>0.212809600442384</v>
       </c>
       <c r="H49" t="n">
         <v>1.11427964281706</v>
@@ -11489,19 +11489,19 @@
         <v>0.379106474054353</v>
       </c>
       <c r="K49" t="n">
-        <v>0.209443735830461</v>
+        <v>0.359307093167653</v>
       </c>
       <c r="L49" t="n">
-        <v>0.45366967352401</v>
+        <v>0.499316201392669</v>
       </c>
       <c r="M49" t="n">
-        <v>0.477142239375983</v>
+        <v>0.616583955820425</v>
       </c>
       <c r="N49" t="n">
-        <v>0.30314795997678</v>
+        <v>0.300989145718633</v>
       </c>
       <c r="O49" t="n">
-        <v>1.00872335065706</v>
+        <v>1.03360089663171</v>
       </c>
       <c r="P49" t="n">
         <v>50</v>
@@ -11531,19 +11531,19 @@
         <v>13</v>
       </c>
       <c r="Y49" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z49" t="n">
         <v>5</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="AA49" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB49" t="n">
         <v>4</v>
       </c>
-      <c r="AA49" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>3</v>
-      </c>
       <c r="AC49" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50">
@@ -11554,7 +11554,7 @@
         <v>0.853805780291463</v>
       </c>
       <c r="C50" t="n">
-        <v>0.983290440683978</v>
+        <v>0.932241967872012</v>
       </c>
       <c r="D50" t="n">
         <v>0.675107671750022</v>
@@ -11566,7 +11566,7 @@
         <v>1.55466605646287</v>
       </c>
       <c r="G50" t="n">
-        <v>0.403905006207869</v>
+        <v>0.402935511564459</v>
       </c>
       <c r="H50" t="n">
         <v>0.621560566323396</v>
@@ -11578,19 +11578,19 @@
         <v>1.42535777161374</v>
       </c>
       <c r="K50" t="n">
-        <v>0.938091669672174</v>
+        <v>0.76089656795775</v>
       </c>
       <c r="L50" t="n">
-        <v>1.06445542130803</v>
+        <v>0.959257215734397</v>
       </c>
       <c r="M50" t="n">
-        <v>0.742818805269705</v>
+        <v>0.607634792611903</v>
       </c>
       <c r="N50" t="n">
-        <v>1.58318198126279</v>
+        <v>1.39519998079321</v>
       </c>
       <c r="O50" t="n">
-        <v>0.966098205061761</v>
+        <v>0.915515336764006</v>
       </c>
       <c r="P50" t="n">
         <v>17</v>
@@ -11620,16 +11620,16 @@
         <v>44</v>
       </c>
       <c r="Y50" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Z50" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AA50" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AB50" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC50" t="n">
         <v>28</v>
@@ -11643,7 +11643,7 @@
         <v>1.00925422702599</v>
       </c>
       <c r="C51" t="n">
-        <v>1.05274325935918</v>
+        <v>0.952107122119245</v>
       </c>
       <c r="D51" t="n">
         <v>1.15669859106367</v>
@@ -11655,7 +11655,7 @@
         <v>0.263796924978185</v>
       </c>
       <c r="G51" t="n">
-        <v>0.18465467558105</v>
+        <v>0.182134651551908</v>
       </c>
       <c r="H51" t="n">
         <v>1.33115951884371</v>
@@ -11667,25 +11667,25 @@
         <v>0.504208421389045</v>
       </c>
       <c r="K51" t="n">
-        <v>0.724516167861631</v>
+        <v>0.372701397181776</v>
       </c>
       <c r="L51" t="n">
-        <v>1.0008615166324</v>
+        <v>0.944364639869373</v>
       </c>
       <c r="M51" t="n">
-        <v>0.891100544301706</v>
+        <v>0.875664698556255</v>
       </c>
       <c r="N51" t="n">
-        <v>0.478966408741737</v>
+        <v>0.502869162907234</v>
       </c>
       <c r="O51" t="n">
-        <v>0.80827633305361</v>
+        <v>0.769583956108078</v>
       </c>
       <c r="P51" t="n">
         <v>28</v>
       </c>
       <c r="Q51" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R51" t="n">
         <v>37</v>
@@ -11709,19 +11709,19 @@
         <v>18</v>
       </c>
       <c r="Y51" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="Z51" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA51" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB51" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AC51" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -11760,10 +11760,10 @@
         <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>11277.0211756992</v>
+        <v>14077.6373052161</v>
       </c>
       <c r="D2" t="n">
-        <v>7278.99070215021</v>
+        <v>7775.98188690754</v>
       </c>
     </row>
     <row r="3">
@@ -11774,10 +11774,10 @@
         <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>3846.48110604737</v>
+        <v>3682.96792198524</v>
       </c>
       <c r="D3" t="n">
-        <v>4887.14004865518</v>
+        <v>5774.71643400522</v>
       </c>
     </row>
     <row r="4">
@@ -11788,10 +11788,10 @@
         <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>11188.2864979381</v>
+        <v>13442.3524199027</v>
       </c>
       <c r="D4" t="n">
-        <v>6999.56423980629</v>
+        <v>7712.51310816456</v>
       </c>
     </row>
     <row r="5">
@@ -11802,10 +11802,10 @@
         <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>1027.44806528728</v>
+        <v>1083.00421338351</v>
       </c>
       <c r="D5" t="n">
-        <v>5425.67453078453</v>
+        <v>6444.09630718145</v>
       </c>
     </row>
     <row r="6">
@@ -11816,10 +11816,10 @@
         <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>11156.2754638243</v>
+        <v>13030.8454895634</v>
       </c>
       <c r="D6" t="n">
-        <v>10846.9156707552</v>
+        <v>11280.3510975051</v>
       </c>
     </row>
     <row r="7">
@@ -11830,10 +11830,10 @@
         <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>9610.58826868037</v>
+        <v>6368.38728102873</v>
       </c>
       <c r="D7" t="n">
-        <v>6387.08530348098</v>
+        <v>7808.79841260796</v>
       </c>
     </row>
     <row r="8">
@@ -11844,10 +11844,10 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>8095.01708874545</v>
+        <v>8280.56076326337</v>
       </c>
       <c r="D8" t="n">
-        <v>14352.9958230225</v>
+        <v>15560.5715682159</v>
       </c>
     </row>
     <row r="9">
@@ -11858,10 +11858,10 @@
         <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>29702.1196689425</v>
+        <v>28950.8340832064</v>
       </c>
       <c r="D9" t="n">
-        <v>11520.8771161262</v>
+        <v>11958.953984375</v>
       </c>
     </row>
     <row r="10">
@@ -11872,10 +11872,10 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>9912.56960217654</v>
+        <v>9989.50829944286</v>
       </c>
       <c r="D10" t="n">
-        <v>12749.5772132867</v>
+        <v>13504.6596560426</v>
       </c>
     </row>
     <row r="11">
@@ -11886,10 +11886,10 @@
         <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>9765.22192246528</v>
+        <v>7744.3136232774</v>
       </c>
       <c r="D11" t="n">
-        <v>8526.89297400667</v>
+        <v>8939.84268993274</v>
       </c>
     </row>
     <row r="12">
@@ -11900,10 +11900,10 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>7532.79943218975</v>
+        <v>10053.5011820682</v>
       </c>
       <c r="D12" t="n">
-        <v>12434.0236604365</v>
+        <v>13093.7208802092</v>
       </c>
     </row>
     <row r="13">
@@ -11914,10 +11914,10 @@
         <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>2654.90613580216</v>
+        <v>3030.67217942914</v>
       </c>
       <c r="D13" t="n">
-        <v>4164.61518395282</v>
+        <v>4948.30775397715</v>
       </c>
     </row>
     <row r="14">
@@ -11928,10 +11928,10 @@
         <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>4243.15474625265</v>
+        <v>8965.19653201922</v>
       </c>
       <c r="D14" t="n">
-        <v>9995.41171482646</v>
+        <v>10441.1545849407</v>
       </c>
     </row>
     <row r="15">
@@ -11942,10 +11942,10 @@
         <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>3740.48277203478</v>
+        <v>4670.76009203318</v>
       </c>
       <c r="D15" t="n">
-        <v>6679.53983681687</v>
+        <v>7857.00757902485</v>
       </c>
     </row>
     <row r="16">
@@ -11956,10 +11956,10 @@
         <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>2980.70537235969</v>
+        <v>5640.15497402588</v>
       </c>
       <c r="D16" t="n">
-        <v>5138.82672059703</v>
+        <v>6079.47679678085</v>
       </c>
     </row>
     <row r="17">
@@ -11970,10 +11970,10 @@
         <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>3358.72547813344</v>
+        <v>5456.62429024444</v>
       </c>
       <c r="D17" t="n">
-        <v>4392.41001155081</v>
+        <v>5206.8724763033</v>
       </c>
     </row>
     <row r="18">
@@ -11984,10 +11984,10 @@
         <v>30</v>
       </c>
       <c r="C18" t="n">
-        <v>551.185305535929</v>
+        <v>636.975083508459</v>
       </c>
       <c r="D18" t="n">
-        <v>4832.56422840061</v>
+        <v>5711.83430781803</v>
       </c>
     </row>
     <row r="19">
@@ -11998,10 +11998,10 @@
         <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>1342.89699610953</v>
+        <v>1360.27754336653</v>
       </c>
       <c r="D19" t="n">
-        <v>6752.89675551634</v>
+        <v>7830.19203746048</v>
       </c>
     </row>
     <row r="20">
@@ -12012,10 +12012,10 @@
         <v>30</v>
       </c>
       <c r="C20" t="n">
-        <v>1306.16453055476</v>
+        <v>2651.91674875431</v>
       </c>
       <c r="D20" t="n">
-        <v>4606.76960605986</v>
+        <v>5452.82636901115</v>
       </c>
     </row>
     <row r="21">
@@ -12026,10 +12026,10 @@
         <v>30</v>
       </c>
       <c r="C21" t="n">
-        <v>7941.19534353962</v>
+        <v>9099.82941997444</v>
       </c>
       <c r="D21" t="n">
-        <v>12065.6732839645</v>
+        <v>12612.0967855913</v>
       </c>
     </row>
     <row r="22">
@@ -12040,10 +12040,10 @@
         <v>30</v>
       </c>
       <c r="C22" t="n">
-        <v>18052.105143137</v>
+        <v>36698.3422070541</v>
       </c>
       <c r="D22" t="n">
-        <v>16869.0051891836</v>
+        <v>18682.2745195073</v>
       </c>
     </row>
     <row r="23">
@@ -12054,10 +12054,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>4644.6441533831</v>
+        <v>5279.03047745559</v>
       </c>
       <c r="D23" t="n">
-        <v>9524.71227900801</v>
+        <v>9966.94256216409</v>
       </c>
     </row>
     <row r="24">
@@ -12068,10 +12068,10 @@
         <v>30</v>
       </c>
       <c r="C24" t="n">
-        <v>6195.66315549561</v>
+        <v>7733.07876642029</v>
       </c>
       <c r="D24" t="n">
-        <v>5619.52163264778</v>
+        <v>6679.80586712036</v>
       </c>
     </row>
     <row r="25">
@@ -12082,10 +12082,10 @@
         <v>30</v>
       </c>
       <c r="C25" t="n">
-        <v>2133.72780049876</v>
+        <v>2235.3288430003</v>
       </c>
       <c r="D25" t="n">
-        <v>5227.59276771683</v>
+        <v>6191.77642272413</v>
       </c>
     </row>
     <row r="26">
@@ -12096,10 +12096,10 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>2350.94179477123</v>
+        <v>1040.08608781498</v>
       </c>
       <c r="D26" t="n">
-        <v>4776.39679406529</v>
+        <v>5647.60198470075</v>
       </c>
     </row>
     <row r="27">
@@ -12110,10 +12110,10 @@
         <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>1748.53270571384</v>
+        <v>2239.21199765732</v>
       </c>
       <c r="D27" t="n">
-        <v>2944.70674982177</v>
+        <v>3602.55959997815</v>
       </c>
     </row>
     <row r="28">
@@ -12124,10 +12124,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>849.848954096738</v>
+        <v>3554.60178847555</v>
       </c>
       <c r="D28" t="n">
-        <v>3466.05028288578</v>
+        <v>4172.28489109341</v>
       </c>
     </row>
     <row r="29">
@@ -12138,10 +12138,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="n">
-        <v>13590.8038868749</v>
+        <v>16941.5580874007</v>
       </c>
       <c r="D29" t="n">
-        <v>5671.37121534129</v>
+        <v>6745.11503217264</v>
       </c>
     </row>
     <row r="30">
@@ -12152,10 +12152,10 @@
         <v>30</v>
       </c>
       <c r="C30" t="n">
-        <v>12941.3580849331</v>
+        <v>15603.4207931655</v>
       </c>
       <c r="D30" t="n">
-        <v>5733.69153735258</v>
+        <v>6836.66058731331</v>
       </c>
     </row>
     <row r="31">
@@ -12166,10 +12166,10 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>20312.6888896805</v>
+        <v>9515.33864506932</v>
       </c>
       <c r="D31" t="n">
-        <v>17621.1713259693</v>
+        <v>19595.236976961</v>
       </c>
     </row>
     <row r="32">
@@ -12180,10 +12180,10 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>10667.5172322229</v>
+        <v>9767.79349733756</v>
       </c>
       <c r="D32" t="n">
-        <v>4156.57492466677</v>
+        <v>4939.26457730942</v>
       </c>
     </row>
     <row r="33">
@@ -12194,10 +12194,10 @@
         <v>30</v>
       </c>
       <c r="C33" t="n">
-        <v>12218.7434516771</v>
+        <v>15901.7594637296</v>
       </c>
       <c r="D33" t="n">
-        <v>10257.8393420882</v>
+        <v>10702.1754268713</v>
       </c>
     </row>
     <row r="34">
@@ -12208,10 +12208,10 @@
         <v>30</v>
       </c>
       <c r="C34" t="n">
-        <v>2152.79309013474</v>
+        <v>711.554768739272</v>
       </c>
       <c r="D34" t="n">
-        <v>6897.07768117138</v>
+        <v>7757.55993414517</v>
       </c>
     </row>
     <row r="35">
@@ -12222,10 +12222,10 @@
         <v>30</v>
       </c>
       <c r="C35" t="n">
-        <v>1175.68577083628</v>
+        <v>1824.93729511746</v>
       </c>
       <c r="D35" t="n">
-        <v>2691.43114129035</v>
+        <v>3327.65508259313</v>
       </c>
     </row>
     <row r="36">
@@ -12236,10 +12236,10 @@
         <v>30</v>
       </c>
       <c r="C36" t="n">
-        <v>12308.362106953</v>
+        <v>5617.90651965755</v>
       </c>
       <c r="D36" t="n">
-        <v>8654.06508043404</v>
+        <v>9072.0217544356</v>
       </c>
     </row>
     <row r="37">
@@ -12250,10 +12250,10 @@
         <v>30</v>
       </c>
       <c r="C37" t="n">
-        <v>7706.4475010536</v>
+        <v>7470.10713577107</v>
       </c>
       <c r="D37" t="n">
-        <v>5320.00310505671</v>
+        <v>6309.82980984935</v>
       </c>
     </row>
     <row r="38">
@@ -12264,10 +12264,10 @@
         <v>30</v>
       </c>
       <c r="C38" t="n">
-        <v>8673.86365916472</v>
+        <v>10056.0137656446</v>
       </c>
       <c r="D38" t="n">
-        <v>5798.02502577261</v>
+        <v>6944.79699980978</v>
       </c>
     </row>
     <row r="39">
@@ -12278,10 +12278,10 @@
         <v>30</v>
       </c>
       <c r="C39" t="n">
-        <v>10709.3544769861</v>
+        <v>6783.68504771229</v>
       </c>
       <c r="D39" t="n">
-        <v>7396.47207144398</v>
+        <v>7849.97340382731</v>
       </c>
     </row>
     <row r="40">
@@ -12292,10 +12292,10 @@
         <v>30</v>
       </c>
       <c r="C40" t="n">
-        <v>12813.8085652294</v>
+        <v>9367.84899595276</v>
       </c>
       <c r="D40" t="n">
-        <v>13745.7836214291</v>
+        <v>14788.6186918585</v>
       </c>
     </row>
     <row r="41">
@@ -12306,10 +12306,10 @@
         <v>30</v>
       </c>
       <c r="C41" t="n">
-        <v>1398.82802393996</v>
+        <v>1557.06523861327</v>
       </c>
       <c r="D41" t="n">
-        <v>7150.3144314428</v>
+        <v>7709.64208737647</v>
       </c>
     </row>
     <row r="42">
@@ -12320,10 +12320,10 @@
         <v>30</v>
       </c>
       <c r="C42" t="n">
-        <v>6335.77198650484</v>
+        <v>6988.26351911921</v>
       </c>
       <c r="D42" t="n">
-        <v>2777.5751375904</v>
+        <v>3421.04695761062</v>
       </c>
     </row>
     <row r="43">
@@ -12334,10 +12334,10 @@
         <v>30</v>
       </c>
       <c r="C43" t="n">
-        <v>6216.74920578556</v>
+        <v>7021.32066817583</v>
       </c>
       <c r="D43" t="n">
-        <v>7974.90271586742</v>
+        <v>8370.58862006494</v>
       </c>
     </row>
     <row r="44">
@@ -12348,10 +12348,10 @@
         <v>30</v>
       </c>
       <c r="C44" t="n">
-        <v>2158.32007546665</v>
+        <v>11194.6469148047</v>
       </c>
       <c r="D44" t="n">
-        <v>6618.24181792904</v>
+        <v>7869.51376138728</v>
       </c>
     </row>
     <row r="45">
@@ -12362,10 +12362,10 @@
         <v>30</v>
       </c>
       <c r="C45" t="n">
-        <v>4195.29985656723</v>
+        <v>6435.13910243537</v>
       </c>
       <c r="D45" t="n">
-        <v>7168.59778789435</v>
+        <v>7717.546309942</v>
       </c>
     </row>
     <row r="46">
@@ -12376,10 +12376,10 @@
         <v>30</v>
       </c>
       <c r="C46" t="n">
-        <v>13542.9045905447</v>
+        <v>16404.3164059667</v>
       </c>
       <c r="D46" t="n">
-        <v>4214.72562343555</v>
+        <v>5004.80687469244</v>
       </c>
     </row>
     <row r="47">
@@ -12390,10 +12390,10 @@
         <v>30</v>
       </c>
       <c r="C47" t="n">
-        <v>3694.06958351207</v>
+        <v>3787.329875535</v>
       </c>
       <c r="D47" t="n">
-        <v>6229.57548108883</v>
+        <v>7671.10964339793</v>
       </c>
     </row>
     <row r="48">
@@ -12404,10 +12404,10 @@
         <v>30</v>
       </c>
       <c r="C48" t="n">
-        <v>16197.921234742</v>
+        <v>18771.1484966904</v>
       </c>
       <c r="D48" t="n">
-        <v>7363.0461316326</v>
+        <v>7827.49648625235</v>
       </c>
     </row>
     <row r="49">
@@ -12418,10 +12418,10 @@
         <v>30</v>
       </c>
       <c r="C49" t="n">
-        <v>931.287279488606</v>
+        <v>1893.10441661522</v>
       </c>
       <c r="D49" t="n">
-        <v>4446.47950818858</v>
+        <v>5268.7643873813</v>
       </c>
     </row>
     <row r="50">
@@ -12432,10 +12432,10 @@
         <v>30</v>
       </c>
       <c r="C50" t="n">
-        <v>6020.30174000597</v>
+        <v>5955.69375413822</v>
       </c>
       <c r="D50" t="n">
-        <v>6417.60494697691</v>
+        <v>7827.20543755813</v>
       </c>
     </row>
     <row r="51">
@@ -12446,10 +12446,10 @@
         <v>30</v>
       </c>
       <c r="C51" t="n">
-        <v>2669.99051517414</v>
+        <v>1645.05417701622</v>
       </c>
       <c r="D51" t="n">
-        <v>3685.20487686902</v>
+        <v>4413.86640741215</v>
       </c>
     </row>
     <row r="52">
@@ -12460,10 +12460,10 @@
         <v>28</v>
       </c>
       <c r="C52" t="n">
-        <v>46501.8753428769</v>
+        <v>42423.5423989136</v>
       </c>
       <c r="D52" t="n">
-        <v>45874.960499233</v>
+        <v>46314.8208884698</v>
       </c>
     </row>
     <row r="53">
@@ -12474,10 +12474,10 @@
         <v>28</v>
       </c>
       <c r="C53" t="n">
-        <v>64728.4521626115</v>
+        <v>59277.366174494</v>
       </c>
       <c r="D53" t="n">
-        <v>30937.2805311779</v>
+        <v>35592.0108720534</v>
       </c>
     </row>
     <row r="54">
@@ -12488,10 +12488,10 @@
         <v>28</v>
       </c>
       <c r="C54" t="n">
-        <v>68608.3403481441</v>
+        <v>45241.66409565</v>
       </c>
       <c r="D54" t="n">
-        <v>44208.7654980279</v>
+        <v>44257.4215197995</v>
       </c>
     </row>
     <row r="55">
@@ -12502,10 +12502,10 @@
         <v>28</v>
       </c>
       <c r="C55" t="n">
-        <v>24103.5851718859</v>
+        <v>36709.6158494143</v>
       </c>
       <c r="D55" t="n">
-        <v>34824.4171633712</v>
+        <v>38170.4419648992</v>
       </c>
     </row>
     <row r="56">
@@ -12516,10 +12516,10 @@
         <v>28</v>
       </c>
       <c r="C56" t="n">
-        <v>86780.0499440607</v>
+        <v>105492.875824539</v>
       </c>
       <c r="D56" t="n">
-        <v>71176.4611776383</v>
+        <v>75858.4392927595</v>
       </c>
     </row>
     <row r="57">
@@ -12530,10 +12530,10 @@
         <v>28</v>
       </c>
       <c r="C57" t="n">
-        <v>45339.7932385256</v>
+        <v>60042.1758698234</v>
       </c>
       <c r="D57" t="n">
-        <v>43326.2488395271</v>
+        <v>44023.7325540812</v>
       </c>
     </row>
     <row r="58">
@@ -12544,10 +12544,10 @@
         <v>28</v>
       </c>
       <c r="C58" t="n">
-        <v>94454.758080768</v>
+        <v>104189.032669122</v>
       </c>
       <c r="D58" t="n">
-        <v>147600.107173991</v>
+        <v>129548.068649396</v>
       </c>
     </row>
     <row r="59">
@@ -12558,10 +12558,10 @@
         <v>28</v>
       </c>
       <c r="C59" t="n">
-        <v>49170.4866572444</v>
+        <v>41505.1635304939</v>
       </c>
       <c r="D59" t="n">
-        <v>81826.5920854799</v>
+        <v>85804.5769301605</v>
       </c>
     </row>
     <row r="60">
@@ -12572,10 +12572,10 @@
         <v>28</v>
       </c>
       <c r="C60" t="n">
-        <v>143263.903715006</v>
+        <v>143152.038898586</v>
       </c>
       <c r="D60" t="n">
-        <v>109044.660420566</v>
+        <v>106406.10166487</v>
       </c>
     </row>
     <row r="61">
@@ -12586,10 +12586,10 @@
         <v>28</v>
       </c>
       <c r="C61" t="n">
-        <v>31564.7494169332</v>
+        <v>36375.9055666768</v>
       </c>
       <c r="D61" t="n">
-        <v>56276.2347638064</v>
+        <v>60185.6742461544</v>
       </c>
     </row>
     <row r="62">
@@ -12600,10 +12600,10 @@
         <v>28</v>
       </c>
       <c r="C62" t="n">
-        <v>97580.7445524299</v>
+        <v>89740.033312284</v>
       </c>
       <c r="D62" t="n">
-        <v>101824.230508694</v>
+        <v>101487.205131451</v>
       </c>
     </row>
     <row r="63">
@@ -12614,10 +12614,10 @@
         <v>28</v>
       </c>
       <c r="C63" t="n">
-        <v>49328.3539901028</v>
+        <v>59477.5551170573</v>
       </c>
       <c r="D63" t="n">
-        <v>26581.5583231354</v>
+        <v>32148.1022525508</v>
       </c>
     </row>
     <row r="64">
@@ -12628,10 +12628,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>74528.3738498064</v>
+        <v>98386.0215680394</v>
       </c>
       <c r="D64" t="n">
-        <v>63717.2243069649</v>
+        <v>68212.739156446</v>
       </c>
     </row>
     <row r="65">
@@ -12642,10 +12642,10 @@
         <v>28</v>
       </c>
       <c r="C65" t="n">
-        <v>54346.8415997413</v>
+        <v>69842.8725866976</v>
       </c>
       <c r="D65" t="n">
-        <v>44015.0667076303</v>
+        <v>44339.3761628456</v>
       </c>
     </row>
     <row r="66">
@@ -12656,10 +12656,10 @@
         <v>28</v>
       </c>
       <c r="C66" t="n">
-        <v>43724.8947326418</v>
+        <v>52199.0262288412</v>
       </c>
       <c r="D66" t="n">
-        <v>32667.4889519187</v>
+        <v>36803.6543981571</v>
       </c>
     </row>
     <row r="67">
@@ -12670,10 +12670,10 @@
         <v>28</v>
       </c>
       <c r="C67" t="n">
-        <v>18535.4659580335</v>
+        <v>43113.9349954496</v>
       </c>
       <c r="D67" t="n">
-        <v>27931.203860826</v>
+        <v>33239.2889505037</v>
       </c>
     </row>
     <row r="68">
@@ -12684,10 +12684,10 @@
         <v>28</v>
       </c>
       <c r="C68" t="n">
-        <v>20717.0859146097</v>
+        <v>24296.8506388271</v>
       </c>
       <c r="D68" t="n">
-        <v>30583.5199602083</v>
+        <v>35323.0814072124</v>
       </c>
     </row>
     <row r="69">
@@ -12698,10 +12698,10 @@
         <v>28</v>
       </c>
       <c r="C69" t="n">
-        <v>22143.8660315408</v>
+        <v>29723.0082660734</v>
       </c>
       <c r="D69" t="n">
-        <v>44044.3726670401</v>
+        <v>44275.0195904432</v>
       </c>
     </row>
     <row r="70">
@@ -12712,10 +12712,10 @@
         <v>28</v>
       </c>
       <c r="C70" t="n">
-        <v>27859.7635669756</v>
+        <v>30575.5018555798</v>
       </c>
       <c r="D70" t="n">
-        <v>29194.214103932</v>
+        <v>34241.4413200675</v>
       </c>
     </row>
     <row r="71">
@@ -12726,10 +12726,10 @@
         <v>28</v>
       </c>
       <c r="C71" t="n">
-        <v>101615.764481923</v>
+        <v>82832.6444181831</v>
       </c>
       <c r="D71" t="n">
-        <v>93731.4522058071</v>
+        <v>95567.4968634187</v>
       </c>
     </row>
     <row r="72">
@@ -12740,10 +12740,10 @@
         <v>28</v>
       </c>
       <c r="C72" t="n">
-        <v>94573.1281234225</v>
+        <v>105037.954177374</v>
       </c>
       <c r="D72" t="n">
-        <v>208922.585103933</v>
+        <v>161415.890882633</v>
       </c>
     </row>
     <row r="73">
@@ -12754,10 +12754,10 @@
         <v>28</v>
       </c>
       <c r="C73" t="n">
-        <v>53073.1914868445</v>
+        <v>72443.0621568237</v>
       </c>
       <c r="D73" t="n">
-        <v>60885.8518462395</v>
+        <v>65194.1223619036</v>
       </c>
     </row>
     <row r="74">
@@ -12768,10 +12768,10 @@
         <v>28</v>
       </c>
       <c r="C74" t="n">
-        <v>40959.957218312</v>
+        <v>41462.3055118976</v>
       </c>
       <c r="D74" t="n">
-        <v>36314.3970873953</v>
+        <v>39143.7076637082</v>
       </c>
     </row>
     <row r="75">
@@ -12782,10 +12782,10 @@
         <v>28</v>
       </c>
       <c r="C75" t="n">
-        <v>25016.5560628586</v>
+        <v>24601.0791103914</v>
       </c>
       <c r="D75" t="n">
-        <v>33317.6866184365</v>
+        <v>37223.8282746609</v>
       </c>
     </row>
     <row r="76">
@@ -12796,10 +12796,10 @@
         <v>28</v>
       </c>
       <c r="C76" t="n">
-        <v>10370.6322573</v>
+        <v>14117.294003927</v>
       </c>
       <c r="D76" t="n">
-        <v>30227.6087458174</v>
+        <v>35047.941659117</v>
       </c>
     </row>
     <row r="77">
@@ -12810,10 +12810,10 @@
         <v>28</v>
       </c>
       <c r="C77" t="n">
-        <v>20933.3918805194</v>
+        <v>18046.4372670665</v>
       </c>
       <c r="D77" t="n">
-        <v>19230.0819449795</v>
+        <v>25860.8132680561</v>
       </c>
     </row>
     <row r="78">
@@ -12824,10 +12824,10 @@
         <v>28</v>
       </c>
       <c r="C78" t="n">
-        <v>21399.8366066584</v>
+        <v>29593.3576977648</v>
       </c>
       <c r="D78" t="n">
-        <v>22359.953212817</v>
+        <v>28601.9747414973</v>
       </c>
     </row>
     <row r="79">
@@ -12838,10 +12838,10 @@
         <v>28</v>
       </c>
       <c r="C79" t="n">
-        <v>51035.6668348202</v>
+        <v>47977.4939285132</v>
       </c>
       <c r="D79" t="n">
-        <v>36735.4172186339</v>
+        <v>39432.1917259596</v>
       </c>
     </row>
     <row r="80">
@@ -12852,10 +12852,10 @@
         <v>28</v>
       </c>
       <c r="C80" t="n">
-        <v>32311.2238047837</v>
+        <v>24247.1989727447</v>
       </c>
       <c r="D80" t="n">
-        <v>37312.8068558371</v>
+        <v>39829.1569871114</v>
       </c>
     </row>
     <row r="81">
@@ -12866,10 +12866,10 @@
         <v>28</v>
       </c>
       <c r="C81" t="n">
-        <v>343972.262015793</v>
+        <v>223423.342399065</v>
       </c>
       <c r="D81" t="n">
-        <v>226972.546807167</v>
+        <v>170210.902237295</v>
       </c>
     </row>
     <row r="82">
@@ -12880,10 +12880,10 @@
         <v>28</v>
       </c>
       <c r="C82" t="n">
-        <v>14787.9734278194</v>
+        <v>20630.2678544469</v>
       </c>
       <c r="D82" t="n">
-        <v>26533.1063587981</v>
+        <v>32108.5499052734</v>
       </c>
     </row>
     <row r="83">
@@ -12894,10 +12894,10 @@
         <v>28</v>
       </c>
       <c r="C83" t="n">
-        <v>103510.947245107</v>
+        <v>94538.5685640756</v>
       </c>
       <c r="D83" t="n">
-        <v>65605.0359571557</v>
+        <v>70194.0932449545</v>
       </c>
     </row>
     <row r="84">
@@ -12908,10 +12908,10 @@
         <v>28</v>
       </c>
       <c r="C84" t="n">
-        <v>27826.8963532274</v>
+        <v>25292.2729321276</v>
       </c>
       <c r="D84" t="n">
-        <v>44080.2599524035</v>
+        <v>44167.6515506296</v>
       </c>
     </row>
     <row r="85">
@@ -12922,10 +12922,10 @@
         <v>28</v>
       </c>
       <c r="C85" t="n">
-        <v>21799.3136715617</v>
+        <v>24849.2953793186</v>
       </c>
       <c r="D85" t="n">
-        <v>17726.476397348</v>
+        <v>24515.090335632</v>
       </c>
     </row>
     <row r="86">
@@ -12936,10 +12936,10 @@
         <v>28</v>
       </c>
       <c r="C86" t="n">
-        <v>39593.9902930642</v>
+        <v>33466.9670862371</v>
       </c>
       <c r="D86" t="n">
-        <v>56822.4501163634</v>
+        <v>60795.103433215</v>
       </c>
     </row>
     <row r="87">
@@ -12950,10 +12950,10 @@
         <v>28</v>
       </c>
       <c r="C87" t="n">
-        <v>42388.2351305819</v>
+        <v>48325.7296958132</v>
       </c>
       <c r="D87" t="n">
-        <v>34013.3727823615</v>
+        <v>37662.1430518342</v>
       </c>
     </row>
     <row r="88">
@@ -12964,10 +12964,10 @@
         <v>28</v>
       </c>
       <c r="C88" t="n">
-        <v>50127.4667016628</v>
+        <v>46643.5395450461</v>
       </c>
       <c r="D88" t="n">
-        <v>37982.8955391035</v>
+        <v>40291.3552978834</v>
       </c>
     </row>
     <row r="89">
@@ -12978,10 +12978,10 @@
         <v>28</v>
       </c>
       <c r="C89" t="n">
-        <v>43253.3336518274</v>
+        <v>35221.2101437073</v>
       </c>
       <c r="D89" t="n">
-        <v>47102.736151135</v>
+        <v>47979.5722347382</v>
       </c>
     </row>
     <row r="90">
@@ -12992,10 +12992,10 @@
         <v>28</v>
       </c>
       <c r="C90" t="n">
-        <v>127978.869956717</v>
+        <v>131248.003064992</v>
       </c>
       <c r="D90" t="n">
-        <v>132795.253617949</v>
+        <v>121111.475508818</v>
       </c>
     </row>
     <row r="91">
@@ -13006,10 +13006,10 @@
         <v>28</v>
       </c>
       <c r="C91" t="n">
-        <v>21021.501913411</v>
+        <v>17705.567898672</v>
       </c>
       <c r="D91" t="n">
-        <v>44826.1454805604</v>
+        <v>44975.0530593882</v>
       </c>
     </row>
     <row r="92">
@@ -13020,10 +13020,10 @@
         <v>28</v>
       </c>
       <c r="C92" t="n">
-        <v>13716.1551392605</v>
+        <v>27338.1569440148</v>
       </c>
       <c r="D92" t="n">
-        <v>18236.3659204527</v>
+        <v>24973.4074710967</v>
       </c>
     </row>
     <row r="93">
@@ -13034,10 +13034,10 @@
         <v>28</v>
       </c>
       <c r="C93" t="n">
-        <v>30974.0725710143</v>
+        <v>36203.1265522321</v>
       </c>
       <c r="D93" t="n">
-        <v>52980.1662167348</v>
+        <v>56071.5633715161</v>
       </c>
     </row>
     <row r="94">
@@ -13048,10 +13048,10 @@
         <v>28</v>
       </c>
       <c r="C94" t="n">
-        <v>48049.4939450241</v>
+        <v>49221.1926488346</v>
       </c>
       <c r="D94" t="n">
-        <v>43959.0392445292</v>
+        <v>44365.3216030472</v>
       </c>
     </row>
     <row r="95">
@@ -13062,10 +13062,10 @@
         <v>28</v>
       </c>
       <c r="C95" t="n">
-        <v>58375.5849688421</v>
+        <v>73089.9100296627</v>
       </c>
       <c r="D95" t="n">
-        <v>44951.058935645</v>
+        <v>45128.0149470152</v>
       </c>
     </row>
     <row r="96">
@@ -13076,10 +13076,10 @@
         <v>28</v>
       </c>
       <c r="C96" t="n">
-        <v>32492.0688132451</v>
+        <v>38139.5438777873</v>
       </c>
       <c r="D96" t="n">
-        <v>26882.0401639358</v>
+        <v>32392.8089368726</v>
       </c>
     </row>
     <row r="97">
@@ -13090,10 +13090,10 @@
         <v>28</v>
       </c>
       <c r="C97" t="n">
-        <v>11812.9883382479</v>
+        <v>15981.2887071422</v>
       </c>
       <c r="D97" t="n">
-        <v>42427.1257772991</v>
+        <v>43387.6666124625</v>
       </c>
     </row>
     <row r="98">
@@ -13104,10 +13104,10 @@
         <v>28</v>
       </c>
       <c r="C98" t="n">
-        <v>97840.2410752667</v>
+        <v>94653.0644949969</v>
       </c>
       <c r="D98" t="n">
-        <v>46734.1361477305</v>
+        <v>47473.7420857686</v>
       </c>
     </row>
     <row r="99">
@@ -13118,10 +13118,10 @@
         <v>28</v>
       </c>
       <c r="C99" t="n">
-        <v>12815.393126083</v>
+        <v>16723.4118705714</v>
       </c>
       <c r="D99" t="n">
-        <v>28248.291375828</v>
+        <v>33492.6281661345</v>
       </c>
     </row>
     <row r="100">
@@ -13132,10 +13132,10 @@
         <v>28</v>
       </c>
       <c r="C100" t="n">
-        <v>46255.0752679695</v>
+        <v>42317.6294281024</v>
       </c>
       <c r="D100" t="n">
-        <v>43454.2155002885</v>
+        <v>44114.9972436793</v>
       </c>
     </row>
     <row r="101">
@@ -13146,10 +13146,10 @@
         <v>28</v>
       </c>
       <c r="C101" t="n">
-        <v>23704.7169874663</v>
+        <v>28080.5066242394</v>
       </c>
       <c r="D101" t="n">
-        <v>23684.3125582703</v>
+        <v>29734.8136924351</v>
       </c>
     </row>
     <row r="102">
@@ -13160,10 +13160,10 @@
         <v>29</v>
       </c>
       <c r="C102" t="n">
-        <v>6865.71317246252</v>
+        <v>1152.19356074421</v>
       </c>
       <c r="D102" t="n">
-        <v>16494.2496540021</v>
+        <v>15446.3101491739</v>
       </c>
     </row>
     <row r="103">
@@ -13174,10 +13174,10 @@
         <v>29</v>
       </c>
       <c r="C103" t="n">
-        <v>22373.2247877891</v>
+        <v>18374.1088889865</v>
       </c>
       <c r="D103" t="n">
-        <v>11138.0669499729</v>
+        <v>12068.8960224718</v>
       </c>
     </row>
     <row r="104">
@@ -13188,10 +13188,10 @@
         <v>29</v>
       </c>
       <c r="C104" t="n">
-        <v>8052.34440311866</v>
+        <v>7483.4290369974</v>
       </c>
       <c r="D104" t="n">
-        <v>15902.783121135</v>
+        <v>15249.6458912084</v>
       </c>
     </row>
     <row r="105">
@@ -13202,10 +13202,10 @@
         <v>29</v>
       </c>
       <c r="C105" t="n">
-        <v>5436.90285166301</v>
+        <v>5816.30941399192</v>
       </c>
       <c r="D105" t="n">
-        <v>12713.040448246</v>
+        <v>14266.5916342839</v>
       </c>
     </row>
     <row r="106">
@@ -13216,10 +13216,10 @@
         <v>29</v>
       </c>
       <c r="C106" t="n">
-        <v>44820.0026933919</v>
+        <v>43328.4095462961</v>
       </c>
       <c r="D106" t="n">
-        <v>27609.6190432049</v>
+        <v>26652.437137949</v>
       </c>
     </row>
     <row r="107">
@@ -13230,10 +13230,10 @@
         <v>29</v>
       </c>
       <c r="C107" t="n">
-        <v>23047.4187851856</v>
+        <v>26352.6299841142</v>
       </c>
       <c r="D107" t="n">
-        <v>15677.2640568897</v>
+        <v>16101.1927223085</v>
       </c>
     </row>
     <row r="108">
@@ -13244,10 +13244,10 @@
         <v>29</v>
       </c>
       <c r="C108" t="n">
-        <v>27116.6533335776</v>
+        <v>29001.3007395284</v>
       </c>
       <c r="D108" t="n">
-        <v>43317.450257351</v>
+        <v>48769.0180140739</v>
       </c>
     </row>
     <row r="109">
@@ -13258,10 +13258,10 @@
         <v>29</v>
       </c>
       <c r="C109" t="n">
-        <v>37407.9068611933</v>
+        <v>50705.4623164888</v>
       </c>
       <c r="D109" t="n">
-        <v>29969.4667415882</v>
+        <v>29883.3942271678</v>
       </c>
     </row>
     <row r="110">
@@ -13272,10 +13272,10 @@
         <v>29</v>
       </c>
       <c r="C110" t="n">
-        <v>32919.8589935516</v>
+        <v>31633.314570356</v>
       </c>
       <c r="D110" t="n">
-        <v>35504.9897619585</v>
+        <v>38128.330936697</v>
       </c>
     </row>
     <row r="111">
@@ -13286,10 +13286,10 @@
         <v>29</v>
       </c>
       <c r="C111" t="n">
-        <v>12444.5554439508</v>
+        <v>13013.3696350136</v>
       </c>
       <c r="D111" t="n">
-        <v>21502.399086323</v>
+        <v>19480.6877516166</v>
       </c>
     </row>
     <row r="112">
@@ -13300,10 +13300,10 @@
         <v>29</v>
       </c>
       <c r="C112" t="n">
-        <v>24129.526895715</v>
+        <v>18947.6160520407</v>
       </c>
       <c r="D112" t="n">
-        <v>34025.4231182049</v>
+        <v>35979.5139022783</v>
       </c>
     </row>
     <row r="113">
@@ -13314,10 +13314,10 @@
         <v>29</v>
       </c>
       <c r="C113" t="n">
-        <v>9230.44374181821</v>
+        <v>10122.5301645721</v>
       </c>
       <c r="D113" t="n">
-        <v>9044.06684078116</v>
+        <v>9399.29964197121</v>
       </c>
     </row>
     <row r="114">
@@ -13328,10 +13328,10 @@
         <v>29</v>
       </c>
       <c r="C114" t="n">
-        <v>22000.8026066237</v>
+        <v>19359.1655165323</v>
       </c>
       <c r="D114" t="n">
-        <v>25215.9935750872</v>
+        <v>23726.2865445762</v>
       </c>
     </row>
     <row r="115">
@@ -13342,10 +13342,10 @@
         <v>29</v>
       </c>
       <c r="C115" t="n">
-        <v>32145.2393629912</v>
+        <v>35837.8129579567</v>
       </c>
       <c r="D115" t="n">
-        <v>15905.0186121032</v>
+        <v>15891.1493106171</v>
       </c>
     </row>
     <row r="116">
@@ -13356,10 +13356,10 @@
         <v>29</v>
       </c>
       <c r="C116" t="n">
-        <v>9815.7450518354</v>
+        <v>9951.19039291773</v>
       </c>
       <c r="D116" t="n">
-        <v>11877.8489635037</v>
+        <v>13075.8294034854</v>
       </c>
     </row>
     <row r="117">
@@ -13370,10 +13370,10 @@
         <v>29</v>
       </c>
       <c r="C117" t="n">
-        <v>7977.27967228653</v>
+        <v>8275.83304812061</v>
       </c>
       <c r="D117" t="n">
-        <v>9713.2824753226</v>
+        <v>10260.8061568795</v>
       </c>
     </row>
     <row r="118">
@@ -13384,10 +13384,10 @@
         <v>29</v>
       </c>
       <c r="C118" t="n">
-        <v>7800.9261899675</v>
+        <v>8337.9814144256</v>
       </c>
       <c r="D118" t="n">
-        <v>10977.4178766928</v>
+        <v>11870.8310289161</v>
       </c>
     </row>
     <row r="119">
@@ -13398,10 +13398,10 @@
         <v>29</v>
       </c>
       <c r="C119" t="n">
-        <v>10835.7473606603</v>
+        <v>11909.2209022357</v>
       </c>
       <c r="D119" t="n">
-        <v>15901.081879553</v>
+        <v>15744.5273167516</v>
       </c>
     </row>
     <row r="120">
@@ -13412,10 +13412,10 @@
         <v>29</v>
       </c>
       <c r="C120" t="n">
-        <v>14397.543569659</v>
+        <v>13631.6850914602</v>
       </c>
       <c r="D120" t="n">
-        <v>10326.0370365156</v>
+        <v>11055.1256007165</v>
       </c>
     </row>
     <row r="121">
@@ -13426,10 +13426,10 @@
         <v>29</v>
       </c>
       <c r="C121" t="n">
-        <v>28133.9400777503</v>
+        <v>33404.1409771722</v>
       </c>
       <c r="D121" t="n">
-        <v>32344.3842704958</v>
+        <v>33458.3870952406</v>
       </c>
     </row>
     <row r="122">
@@ -13440,10 +13440,10 @@
         <v>29</v>
       </c>
       <c r="C122" t="n">
-        <v>33732.4244505169</v>
+        <v>101372.937242512</v>
       </c>
       <c r="D122" t="n">
-        <v>55866.6078818528</v>
+        <v>64473.7446880116</v>
       </c>
     </row>
     <row r="123">
@@ -13454,10 +13454,10 @@
         <v>29</v>
       </c>
       <c r="C123" t="n">
-        <v>13841.6939374643</v>
+        <v>17740.8346549259</v>
       </c>
       <c r="D123" t="n">
-        <v>23997.8002910567</v>
+        <v>22308.4827768946</v>
       </c>
     </row>
     <row r="124">
@@ -13468,10 +13468,10 @@
         <v>29</v>
       </c>
       <c r="C124" t="n">
-        <v>19104.3179175201</v>
+        <v>18505.3852297973</v>
       </c>
       <c r="D124" t="n">
-        <v>13268.2419481587</v>
+        <v>14904.3257701676</v>
       </c>
     </row>
     <row r="125">
@@ -13482,10 +13482,10 @@
         <v>29</v>
       </c>
       <c r="C125" t="n">
-        <v>4387.8023535645</v>
+        <v>4336.43698982588</v>
       </c>
       <c r="D125" t="n">
-        <v>12137.6588109908</v>
+        <v>13454.0298368742</v>
       </c>
     </row>
     <row r="126">
@@ -13496,10 +13496,10 @@
         <v>29</v>
       </c>
       <c r="C126" t="n">
-        <v>6610.27940544798</v>
+        <v>7138.44953063208</v>
       </c>
       <c r="D126" t="n">
-        <v>10813.1966745229</v>
+        <v>11670.264034732</v>
       </c>
     </row>
     <row r="127">
@@ -13510,10 +13510,10 @@
         <v>29</v>
       </c>
       <c r="C127" t="n">
-        <v>5320.7825279035</v>
+        <v>5655.03229503187</v>
       </c>
       <c r="D127" t="n">
-        <v>5166.52609479144</v>
+        <v>4471.70897700909</v>
       </c>
     </row>
     <row r="128">
@@ -13524,10 +13524,10 @@
         <v>29</v>
       </c>
       <c r="C128" t="n">
-        <v>9950.44207369695</v>
+        <v>6770.29073570375</v>
       </c>
       <c r="D128" t="n">
-        <v>6864.43135427138</v>
+        <v>6638.73216150393</v>
       </c>
     </row>
     <row r="129">
@@ -13538,10 +13538,10 @@
         <v>29</v>
       </c>
       <c r="C129" t="n">
-        <v>11550.1251100967</v>
+        <v>12492.0905498829</v>
       </c>
       <c r="D129" t="n">
-        <v>13423.5223765251</v>
+        <v>15043.9451339157</v>
       </c>
     </row>
     <row r="130">
@@ -13552,10 +13552,10 @@
         <v>29</v>
       </c>
       <c r="C130" t="n">
-        <v>13047.1119091937</v>
+        <v>13517.6809392927</v>
       </c>
       <c r="D130" t="n">
-        <v>13630.4755746282</v>
+        <v>15207.5412340819</v>
       </c>
     </row>
     <row r="131">
@@ -13566,10 +13566,10 @@
         <v>29</v>
       </c>
       <c r="C131" t="n">
-        <v>86712.7370118361</v>
+        <v>48352.4877811189</v>
       </c>
       <c r="D131" t="n">
-        <v>59618.3960542271</v>
+        <v>68968.2117426718</v>
       </c>
     </row>
     <row r="132">
@@ -13580,10 +13580,10 @@
         <v>29</v>
       </c>
       <c r="C132" t="n">
-        <v>1791.22802304203</v>
+        <v>3307.61405051244</v>
       </c>
       <c r="D132" t="n">
-        <v>9019.85295805674</v>
+        <v>9368.58819147916</v>
       </c>
     </row>
     <row r="133">
@@ -13594,10 +13594,10 @@
         <v>29</v>
       </c>
       <c r="C133" t="n">
-        <v>50482.2141635027</v>
+        <v>38726.2232464373</v>
       </c>
       <c r="D133" t="n">
-        <v>25918.9283759998</v>
+        <v>24561.4517803919</v>
       </c>
     </row>
     <row r="134">
@@ -13608,10 +13608,10 @@
         <v>29</v>
       </c>
       <c r="C134" t="n">
-        <v>7311.42012173467</v>
+        <v>6227.35790425376</v>
       </c>
       <c r="D134" t="n">
-        <v>15880.0060005217</v>
+        <v>15427.9797860754</v>
       </c>
     </row>
     <row r="135">
@@ -13622,10 +13622,10 @@
         <v>29</v>
       </c>
       <c r="C135" t="n">
-        <v>1792.43706266259</v>
+        <v>2193.15739758299</v>
       </c>
       <c r="D135" t="n">
-        <v>4328.53066227687</v>
+        <v>3390.98344529887</v>
       </c>
     </row>
     <row r="136">
@@ -13636,10 +13636,10 @@
         <v>29</v>
       </c>
       <c r="C136" t="n">
-        <v>9646.25010823452</v>
+        <v>15097.3915747337</v>
       </c>
       <c r="D136" t="n">
-        <v>21827.0737393422</v>
+        <v>19838.3106132884</v>
       </c>
     </row>
     <row r="137">
@@ -13650,10 +13650,10 @@
         <v>29</v>
       </c>
       <c r="C137" t="n">
-        <v>21913.7043190352</v>
+        <v>22006.4577051728</v>
       </c>
       <c r="D137" t="n">
-        <v>12406.979469018</v>
+        <v>13844.3494309672</v>
       </c>
     </row>
     <row r="138">
@@ -13664,10 +13664,10 @@
         <v>29</v>
       </c>
       <c r="C138" t="n">
-        <v>15822.1941192325</v>
+        <v>26481.2953935741</v>
       </c>
       <c r="D138" t="n">
-        <v>13864.6751106674</v>
+        <v>15368.1838358624</v>
       </c>
     </row>
     <row r="139">
@@ -13678,10 +13678,10 @@
         <v>29</v>
       </c>
       <c r="C139" t="n">
-        <v>20338.6130254717</v>
+        <v>19778.8877048228</v>
       </c>
       <c r="D139" t="n">
-        <v>16991.5048486742</v>
+        <v>15752.5892202814</v>
       </c>
     </row>
     <row r="140">
@@ -13692,10 +13692,10 @@
         <v>29</v>
       </c>
       <c r="C140" t="n">
-        <v>40756.7022440069</v>
+        <v>42922.4669879014</v>
       </c>
       <c r="D140" t="n">
-        <v>40321.1980919169</v>
+        <v>44799.7005857503</v>
       </c>
     </row>
     <row r="141">
@@ -13706,10 +13706,10 @@
         <v>29</v>
       </c>
       <c r="C141" t="n">
-        <v>4254.80815513402</v>
+        <v>5944.48335969166</v>
       </c>
       <c r="D141" t="n">
-        <v>16103.770983919</v>
+        <v>15217.4388619537</v>
       </c>
     </row>
     <row r="142">
@@ -13720,10 +13720,10 @@
         <v>29</v>
       </c>
       <c r="C142" t="n">
-        <v>5499.82647451206</v>
+        <v>5127.28493353656</v>
       </c>
       <c r="D142" t="n">
-        <v>4614.26542834772</v>
+        <v>3760.4583207086</v>
       </c>
     </row>
     <row r="143">
@@ -13734,10 +13734,10 @@
         <v>29</v>
       </c>
       <c r="C143" t="n">
-        <v>10666.1731228956</v>
+        <v>11401.6537415268</v>
       </c>
       <c r="D143" t="n">
-        <v>19714.6230914302</v>
+        <v>17763.6114012617</v>
       </c>
     </row>
     <row r="144">
@@ -13748,10 +13748,10 @@
         <v>29</v>
       </c>
       <c r="C144" t="n">
-        <v>10494.9093896556</v>
+        <v>11908.3810879689</v>
       </c>
       <c r="D144" t="n">
-        <v>15894.4582636883</v>
+        <v>15991.4957727863</v>
       </c>
     </row>
     <row r="145">
@@ -13762,10 +13762,10 @@
         <v>29</v>
       </c>
       <c r="C145" t="n">
-        <v>16053.4661677088</v>
+        <v>16892.6753538723</v>
       </c>
       <c r="D145" t="n">
-        <v>16147.9569882889</v>
+        <v>15241.2589090763</v>
       </c>
     </row>
     <row r="146">
@@ -13776,10 +13776,10 @@
         <v>29</v>
       </c>
       <c r="C146" t="n">
-        <v>19554.2865582659</v>
+        <v>20331.9437746331</v>
       </c>
       <c r="D146" t="n">
-        <v>9193.96975233021</v>
+        <v>9590.23550787575</v>
       </c>
     </row>
     <row r="147">
@@ -13790,10 +13790,10 @@
         <v>29</v>
       </c>
       <c r="C147" t="n">
-        <v>13662.0035311053</v>
+        <v>14825.4293415007</v>
       </c>
       <c r="D147" t="n">
-        <v>15363.3607228966</v>
+        <v>16021.2925667524</v>
       </c>
     </row>
     <row r="148">
@@ -13804,10 +13804,10 @@
         <v>29</v>
       </c>
       <c r="C148" t="n">
-        <v>56774.6654409336</v>
+        <v>35622.5955005203</v>
       </c>
       <c r="D148" t="n">
-        <v>16838.7886157421</v>
+        <v>15656.8117929334</v>
       </c>
     </row>
     <row r="149">
@@ -13818,10 +13818,10 @@
         <v>29</v>
       </c>
       <c r="C149" t="n">
-        <v>4708.73108907459</v>
+        <v>6451.1699547933</v>
       </c>
       <c r="D149" t="n">
-        <v>9868.61086797254</v>
+        <v>10462.7600084232</v>
       </c>
     </row>
     <row r="150">
@@ -13832,10 +13832,10 @@
         <v>29</v>
       </c>
       <c r="C150" t="n">
-        <v>11679.9813458639</v>
+        <v>9789.98061760424</v>
       </c>
       <c r="D150" t="n">
-        <v>15723.8632934489</v>
+        <v>16111.6195725433</v>
       </c>
     </row>
     <row r="151">
@@ -13846,10 +13846,10 @@
         <v>29</v>
       </c>
       <c r="C151" t="n">
-        <v>6739.14169863641</v>
+        <v>6588.38782156974</v>
       </c>
       <c r="D151" t="n">
-        <v>7562.71752018445</v>
+        <v>7523.8705322166</v>
       </c>
     </row>
     <row r="152">
@@ -13860,10 +13860,10 @@
         <v>31</v>
       </c>
       <c r="C152" t="n">
-        <v>8802.57785759082</v>
+        <v>47856.8965209887</v>
       </c>
       <c r="D152" t="n">
-        <v>13873.7536288393</v>
+        <v>25525.6484864238</v>
       </c>
     </row>
     <row r="153">
@@ -13874,10 +13874,10 @@
         <v>31</v>
       </c>
       <c r="C153" t="n">
-        <v>6766.44372148586</v>
+        <v>7796.77073689127</v>
       </c>
       <c r="D153" t="n">
-        <v>9297.82710189642</v>
+        <v>8902.97505621869</v>
       </c>
     </row>
     <row r="154">
@@ -13888,10 +13888,10 @@
         <v>31</v>
       </c>
       <c r="C154" t="n">
-        <v>19734.6850447227</v>
+        <v>22828.8325330015</v>
       </c>
       <c r="D154" t="n">
-        <v>11299.8689451968</v>
+        <v>23661.7490934583</v>
       </c>
     </row>
     <row r="155">
@@ -13902,10 +13902,10 @@
         <v>31</v>
       </c>
       <c r="C155" t="n">
-        <v>4722.4560282915</v>
+        <v>7942.66857091479</v>
       </c>
       <c r="D155" t="n">
-        <v>10770.1244547233</v>
+        <v>10791.7019211626</v>
       </c>
     </row>
     <row r="156">
@@ -13916,10 +13916,10 @@
         <v>31</v>
       </c>
       <c r="C156" t="n">
-        <v>64675.7418530902</v>
+        <v>61783.142730836</v>
       </c>
       <c r="D156" t="n">
-        <v>41566.0026551639</v>
+        <v>36942.4778484716</v>
       </c>
     </row>
     <row r="157">
@@ -13930,10 +13930,10 @@
         <v>31</v>
       </c>
       <c r="C157" t="n">
-        <v>5747.73023072951</v>
+        <v>11472.5594195781</v>
       </c>
       <c r="D157" t="n">
-        <v>13135.7537874124</v>
+        <v>19649.1084782138</v>
       </c>
     </row>
     <row r="158">
@@ -13944,10 +13944,10 @@
         <v>31</v>
       </c>
       <c r="C158" t="n">
-        <v>76257.8395510311</v>
+        <v>94223.3119393232</v>
       </c>
       <c r="D158" t="n">
-        <v>191540.679052649</v>
+        <v>134307.055012335</v>
       </c>
     </row>
     <row r="159">
@@ -13958,10 +13958,10 @@
         <v>31</v>
       </c>
       <c r="C159" t="n">
-        <v>31647.9676154534</v>
+        <v>20990.0484987167</v>
       </c>
       <c r="D159" t="n">
-        <v>41655.7831272488</v>
+        <v>40994.2353294052</v>
       </c>
     </row>
     <row r="160">
@@ -13972,10 +13972,10 @@
         <v>31</v>
       </c>
       <c r="C160" t="n">
-        <v>53495.6566718912</v>
+        <v>57004.2901466551</v>
       </c>
       <c r="D160" t="n">
-        <v>87675.7790758906</v>
+        <v>73182.2139868109</v>
       </c>
     </row>
     <row r="161">
@@ -13986,10 +13986,10 @@
         <v>31</v>
       </c>
       <c r="C161" t="n">
-        <v>12932.2718534817</v>
+        <v>24390.6823087207</v>
       </c>
       <c r="D161" t="n">
-        <v>35517.3607142318</v>
+        <v>31939.6915829936</v>
       </c>
     </row>
     <row r="162">
@@ -14000,10 +14000,10 @@
         <v>31</v>
       </c>
       <c r="C162" t="n">
-        <v>25298.547997108</v>
+        <v>37331.5969301955</v>
       </c>
       <c r="D162" t="n">
-        <v>71321.9286903544</v>
+        <v>62889.8150770809</v>
       </c>
     </row>
     <row r="163">
@@ -14014,10 +14014,10 @@
         <v>31</v>
       </c>
       <c r="C163" t="n">
-        <v>7778.02167072962</v>
+        <v>9864.90175800094</v>
       </c>
       <c r="D163" t="n">
-        <v>7101.1887593764</v>
+        <v>6722.60521219774</v>
       </c>
     </row>
     <row r="164">
@@ -14028,10 +14028,10 @@
         <v>31</v>
       </c>
       <c r="C164" t="n">
-        <v>22578.9731278395</v>
+        <v>32436.0627170272</v>
       </c>
       <c r="D164" t="n">
-        <v>42500.4784617908</v>
+        <v>35486.1062146648</v>
       </c>
     </row>
     <row r="165">
@@ -14042,10 +14042,10 @@
         <v>31</v>
       </c>
       <c r="C165" t="n">
-        <v>4411.38610201633</v>
+        <v>10124.8177440485</v>
       </c>
       <c r="D165" t="n">
-        <v>12629.1488920993</v>
+        <v>21468.0662737947</v>
       </c>
     </row>
     <row r="166">
@@ -14056,10 +14056,10 @@
         <v>31</v>
       </c>
       <c r="C166" t="n">
-        <v>6284.87133903089</v>
+        <v>6409.07640284497</v>
       </c>
       <c r="D166" t="n">
-        <v>10017.1240854886</v>
+        <v>9739.08194025266</v>
       </c>
     </row>
     <row r="167">
@@ -14070,10 +14070,10 @@
         <v>31</v>
       </c>
       <c r="C167" t="n">
-        <v>20314.2286755029</v>
+        <v>18528.5634705142</v>
       </c>
       <c r="D167" t="n">
-        <v>7814.58964303134</v>
+        <v>7347.03032411022</v>
       </c>
     </row>
     <row r="168">
@@ -14084,10 +14084,10 @@
         <v>31</v>
       </c>
       <c r="C168" t="n">
-        <v>7026.28694920079</v>
+        <v>8559.16043864386</v>
       </c>
       <c r="D168" t="n">
-        <v>9134.63473411705</v>
+        <v>8707.28460622429</v>
       </c>
     </row>
     <row r="169">
@@ -14098,10 +14098,10 @@
         <v>31</v>
       </c>
       <c r="C169" t="n">
-        <v>6428.9795253907</v>
+        <v>39344.0901107458</v>
       </c>
       <c r="D169" t="n">
-        <v>12246.0152706757</v>
+        <v>21959.7258146997</v>
       </c>
     </row>
     <row r="170">
@@ -14112,10 +14112,10 @@
         <v>31</v>
       </c>
       <c r="C170" t="n">
-        <v>5706.0696117691</v>
+        <v>6260.526400519</v>
       </c>
       <c r="D170" t="n">
-        <v>8460.36203951647</v>
+        <v>7962.75420855345</v>
       </c>
     </row>
     <row r="171">
@@ -14126,10 +14126,10 @@
         <v>31</v>
       </c>
       <c r="C171" t="n">
-        <v>75444.0962734414</v>
+        <v>100531.124170494</v>
       </c>
       <c r="D171" t="n">
-        <v>55009.6895954756</v>
+        <v>52122.5738383798</v>
       </c>
     </row>
     <row r="172">
@@ -14140,10 +14140,10 @@
         <v>31</v>
       </c>
       <c r="C172" t="n">
-        <v>210360.526965808</v>
+        <v>163596.10496036</v>
       </c>
       <c r="D172" t="n">
-        <v>386040.481257562</v>
+        <v>242063.754339201</v>
       </c>
     </row>
     <row r="173">
@@ -14154,10 +14154,10 @@
         <v>31</v>
       </c>
       <c r="C173" t="n">
-        <v>20941.8692454308</v>
+        <v>22115.2265096582</v>
       </c>
       <c r="D173" t="n">
-        <v>41331.629737844</v>
+        <v>34591.7435151393</v>
       </c>
     </row>
     <row r="174">
@@ -14168,10 +14168,10 @@
         <v>31</v>
       </c>
       <c r="C174" t="n">
-        <v>14255.1588686739</v>
+        <v>14267.8817421225</v>
       </c>
       <c r="D174" t="n">
-        <v>11261.4622721351</v>
+        <v>11816.6125992438</v>
       </c>
     </row>
     <row r="175">
@@ -14182,10 +14182,10 @@
         <v>31</v>
       </c>
       <c r="C175" t="n">
-        <v>4865.76500624981</v>
+        <v>5052.44544848335</v>
       </c>
       <c r="D175" t="n">
-        <v>10256.8376030375</v>
+        <v>10032.1890018701</v>
       </c>
     </row>
     <row r="176">
@@ -14196,10 +14196,10 @@
         <v>31</v>
       </c>
       <c r="C176" t="n">
-        <v>8459.19683571897</v>
+        <v>7294.1649230793</v>
       </c>
       <c r="D176" t="n">
-        <v>8966.09675157425</v>
+        <v>8508.06938179306</v>
       </c>
     </row>
     <row r="177">
@@ -14210,10 +14210,10 @@
         <v>31</v>
       </c>
       <c r="C177" t="n">
-        <v>3058.04074099822</v>
+        <v>3038.63064549065</v>
       </c>
       <c r="D177" t="n">
-        <v>2860.97038423972</v>
+        <v>3783.04864912878</v>
       </c>
     </row>
     <row r="178">
@@ -14224,10 +14224,10 @@
         <v>31</v>
       </c>
       <c r="C178" t="n">
-        <v>3913.78390124174</v>
+        <v>3157.93480021491</v>
       </c>
       <c r="D178" t="n">
-        <v>4737.94089363094</v>
+        <v>4932.22901531438</v>
       </c>
     </row>
     <row r="179">
@@ -14238,10 +14238,10 @@
         <v>31</v>
       </c>
       <c r="C179" t="n">
-        <v>13696.7066387353</v>
+        <v>14273.4443048338</v>
       </c>
       <c r="D179" t="n">
-        <v>11396.9536039282</v>
+        <v>12173.709610263</v>
       </c>
     </row>
     <row r="180">
@@ -14252,10 +14252,10 @@
         <v>31</v>
       </c>
       <c r="C180" t="n">
-        <v>12648.5832358896</v>
+        <v>22084.0955830035</v>
       </c>
       <c r="D180" t="n">
-        <v>11567.9713575709</v>
+        <v>12701.4768112962</v>
       </c>
     </row>
     <row r="181">
@@ -14266,10 +14266,10 @@
         <v>31</v>
       </c>
       <c r="C181" t="n">
-        <v>685450.114436121</v>
+        <v>377917.186676003</v>
       </c>
       <c r="D181" t="n">
-        <v>447281.879850788</v>
+        <v>275159.78243969</v>
       </c>
     </row>
     <row r="182">
@@ -14280,10 +14280,10 @@
         <v>31</v>
       </c>
       <c r="C182" t="n">
-        <v>5869.39822203857</v>
+        <v>8061.71486664576</v>
       </c>
       <c r="D182" t="n">
-        <v>7075.26774328147</v>
+        <v>6700.47594651254</v>
       </c>
     </row>
     <row r="183">
@@ -14294,10 +14294,10 @@
         <v>31</v>
       </c>
       <c r="C183" t="n">
-        <v>209836.076518793</v>
+        <v>53694.1977745191</v>
       </c>
       <c r="D183" t="n">
-        <v>42628.4054916301</v>
+        <v>35908.0566245217</v>
       </c>
     </row>
     <row r="184">
@@ -14308,10 +14308,10 @@
         <v>31</v>
       </c>
       <c r="C184" t="n">
-        <v>3731.96181692095</v>
+        <v>3377.14084653172</v>
       </c>
       <c r="D184" t="n">
-        <v>11522.6945910119</v>
+        <v>22952.1634623788</v>
       </c>
     </row>
     <row r="185">
@@ -14322,10 +14322,10 @@
         <v>31</v>
       </c>
       <c r="C185" t="n">
-        <v>2138.58481474433</v>
+        <v>1806.92023220576</v>
       </c>
       <c r="D185" t="n">
-        <v>1924.5859250804</v>
+        <v>3284.97498860823</v>
       </c>
     </row>
     <row r="186">
@@ -14336,10 +14336,10 @@
         <v>31</v>
       </c>
       <c r="C186" t="n">
-        <v>18644.0074106459</v>
+        <v>26131.9773285533</v>
       </c>
       <c r="D186" t="n">
-        <v>36509.7560117856</v>
+        <v>32337.5257085711</v>
       </c>
     </row>
     <row r="187">
@@ -14350,10 +14350,10 @@
         <v>31</v>
       </c>
       <c r="C187" t="n">
-        <v>11979.4301912646</v>
+        <v>15518.956753796</v>
       </c>
       <c r="D187" t="n">
-        <v>10499.3470406856</v>
+        <v>10360.6811878511</v>
       </c>
     </row>
     <row r="188">
@@ -14364,10 +14364,10 @@
         <v>31</v>
       </c>
       <c r="C188" t="n">
-        <v>33896.2186234247</v>
+        <v>16399.6310217238</v>
       </c>
       <c r="D188" t="n">
-        <v>11751.9536467854</v>
+        <v>13355.465069502</v>
       </c>
     </row>
     <row r="189">
@@ -14378,10 +14378,10 @@
         <v>31</v>
       </c>
       <c r="C189" t="n">
-        <v>28042.3122200304</v>
+        <v>29680.5923689954</v>
       </c>
       <c r="D189" t="n">
-        <v>16329.2758967577</v>
+        <v>26363.6559257567</v>
       </c>
     </row>
     <row r="190">
@@ -14392,10 +14392,10 @@
         <v>31</v>
       </c>
       <c r="C190" t="n">
-        <v>45398.0374419249</v>
+        <v>54662.73766896</v>
       </c>
       <c r="D190" t="n">
-        <v>149168.660444362</v>
+        <v>109921.171764435</v>
       </c>
     </row>
     <row r="191">
@@ -14406,10 +14406,10 @@
         <v>31</v>
       </c>
       <c r="C191" t="n">
-        <v>805.479892269674</v>
+        <v>385.899971700669</v>
       </c>
       <c r="D191" t="n">
-        <v>12006.6720421477</v>
+        <v>24670.3316922168</v>
       </c>
     </row>
     <row r="192">
@@ -14420,10 +14420,10 @@
         <v>31</v>
       </c>
       <c r="C192" t="n">
-        <v>2117.1671314279</v>
+        <v>2000.59102413058</v>
       </c>
       <c r="D192" t="n">
-        <v>2244.57136115318</v>
+        <v>3449.93075548905</v>
       </c>
     </row>
     <row r="193">
@@ -14434,10 +14434,10 @@
         <v>31</v>
       </c>
       <c r="C193" t="n">
-        <v>920.480269874384</v>
+        <v>1105.90265668165</v>
       </c>
       <c r="D193" t="n">
-        <v>28908.531241955</v>
+        <v>29828.2102255467</v>
       </c>
     </row>
     <row r="194">
@@ -14448,10 +14448,10 @@
         <v>31</v>
       </c>
       <c r="C194" t="n">
-        <v>13545.2548681745</v>
+        <v>14352.0670003112</v>
       </c>
       <c r="D194" t="n">
-        <v>12898.8560153978</v>
+        <v>21067.4317239558</v>
       </c>
     </row>
     <row r="195">
@@ -14462,10 +14462,10 @@
         <v>31</v>
       </c>
       <c r="C195" t="n">
-        <v>25673.5340729002</v>
+        <v>26483.1489804584</v>
       </c>
       <c r="D195" t="n">
-        <v>12209.0731049063</v>
+        <v>24787.3139600937</v>
       </c>
     </row>
     <row r="196">
@@ -14476,10 +14476,10 @@
         <v>31</v>
       </c>
       <c r="C196" t="n">
-        <v>13283.3521176865</v>
+        <v>16837.2372614664</v>
       </c>
       <c r="D196" t="n">
-        <v>7261.51447479161</v>
+        <v>6860.14989426667</v>
       </c>
     </row>
     <row r="197">
@@ -14490,10 +14490,10 @@
         <v>31</v>
       </c>
       <c r="C197" t="n">
-        <v>5557.80073932967</v>
+        <v>7160.36601734552</v>
       </c>
       <c r="D197" t="n">
-        <v>12865.8257061779</v>
+        <v>18434.90811299</v>
       </c>
     </row>
     <row r="198">
@@ -14504,10 +14504,10 @@
         <v>31</v>
       </c>
       <c r="C198" t="n">
-        <v>31751.4663860041</v>
+        <v>81027.7208403851</v>
       </c>
       <c r="D198" t="n">
-        <v>15573.8465118699</v>
+        <v>26122.9884425381</v>
       </c>
     </row>
     <row r="199">
@@ -14518,10 +14518,10 @@
         <v>31</v>
       </c>
       <c r="C199" t="n">
-        <v>2418.85107563582</v>
+        <v>2256.71924180154</v>
       </c>
       <c r="D199" t="n">
-        <v>7979.11051692744</v>
+        <v>7497.67649067033</v>
       </c>
     </row>
     <row r="200">
@@ -14532,10 +14532,10 @@
         <v>31</v>
       </c>
       <c r="C200" t="n">
-        <v>20867.4106495608</v>
+        <v>27672.9299220495</v>
       </c>
       <c r="D200" t="n">
-        <v>13180.6772035874</v>
+        <v>19834.3823846074</v>
       </c>
     </row>
     <row r="201">
@@ -14546,10 +14546,10 @@
         <v>31</v>
       </c>
       <c r="C201" t="n">
-        <v>2634.89906647879</v>
+        <v>2747.71110641818</v>
       </c>
       <c r="D201" t="n">
-        <v>5501.21891303561</v>
+        <v>5464.06761260295</v>
       </c>
     </row>
   </sheetData>
